--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72c988bf6e9f1eb5/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{536675D5-EECC-43ED-809B-4EB7DCEB9364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B96433D-5A3E-442E-B850-0B0344DD5C5C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7358A7E-F564-423F-A558-3E2B61F8A171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="6" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="3-1_テーブル命名規則" sheetId="13" r:id="rId7"/>
     <sheet name="3-2_テーブル設計" sheetId="7" r:id="rId8"/>
     <sheet name="3-3_ER図" sheetId="8" r:id="rId9"/>
-    <sheet name="├参考" sheetId="15" r:id="rId10"/>
+    <sheet name="├補足" sheetId="15" r:id="rId10"/>
     <sheet name="定義" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="172">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1148,40 +1148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会社マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cm_company_mst</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オフィスマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cm_office_mst</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者マスタ</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cm_person_mst</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社コード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -1194,147 +1160,65 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>company_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社名称</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>company_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オフィスID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>office_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オフィス名称</t>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id、codeなどを単独で用いない。意味を付与して用いる。</t>
+    <rPh sb="10" eb="12">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worker_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_sample_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル名称</t>
     <rPh sb="4" eb="6">
       <t>メイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>office_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号</t>
-    <rPh sb="0" eb="2">
-      <t>ユウビン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>office_postal_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>office_address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>person_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者名称</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>person_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>business_in_charge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電話番号</t>
-    <rPh sb="0" eb="2">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>person_phone_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>person_email_address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FK:cm_company_mst.company_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FK:cm_office_mst.office_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>業務内容</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Template2</t>
+    <t>sample_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12012,7 +11896,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$26:$O$33" spid="_x0000_s9037"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$26:$O$33" spid="_x0000_s9046"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12077,7 +11961,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$13:$O$16" spid="_x0000_s9038"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$13:$O$16" spid="_x0000_s9047"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12142,7 +12026,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$18:$O$24" spid="_x0000_s9039"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$18:$O$24" spid="_x0000_s9048"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12240,10 +12124,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12630,6 +12510,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F4053E-C420-4F07-9C84-E4F0F0451F46}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12663,22 +12546,22 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="21" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="21" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="26" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -12726,7 +12609,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -13696,7 +13579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884010C6-F9B9-4450-98CE-6E83EEAF1549}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
@@ -13778,6 +13663,12 @@
       <c r="B12" t="s">
         <v>142</v>
       </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -13792,9 +13683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H22" sqref="H22"/>
+      <selection pane="topRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -13845,33 +13736,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:15">
       <c r="C9" s="3">
@@ -13901,15 +13784,15 @@
       </c>
       <c r="D13" t="str">
         <f>_xlfn.XLOOKUP(C13,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>会社マスタ</v>
+        <v>サンプルマスタ</v>
       </c>
       <c r="E13" t="str">
         <f>_xlfn.XLOOKUP($C13,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>cm_company_mst</v>
+        <v>tmp_sample_mst</v>
       </c>
       <c r="O13" s="18" t="str">
         <f>"■"&amp;D13&amp;":"&amp;E13</f>
-        <v>■会社マスタ:cm_company_mst</v>
+        <v>■サンプルマスタ:tmp_sample_mst</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -13926,7 +13809,7 @@
         <v>75</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>74</v>
@@ -13947,10 +13830,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="D15" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -13959,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -13968,7 +13851,7 @@
       <c r="M15" s="3"/>
       <c r="O15" s="19" t="str">
         <f>D15&amp;":"&amp;E15&amp;IF(F15=1,"(PK)","")&amp;IF(I15=1,"(FK)","")</f>
-        <v>会社コード:company_code(PK)</v>
+        <v>サンプルコード:sample_code(PK)</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -13976,14 +13859,14 @@
         <v>169</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -13992,7 +13875,7 @@
       <c r="M16" s="3"/>
       <c r="O16" s="19" t="str">
         <f>D16&amp;":"&amp;E16&amp;IF(F16=1,"(PK)","")&amp;IF(I16=1,"(FK)","")</f>
-        <v>会社名称:company_name</v>
+        <v>サンプル名称:sample_name</v>
       </c>
     </row>
     <row r="17" spans="3:15">
@@ -14002,17 +13885,17 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18">
         <f>_xlfn.XLOOKUP(C18,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>オフィスマスタ</v>
-      </c>
-      <c r="E18" t="str">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <f>_xlfn.XLOOKUP($C18,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>cm_office_mst</v>
+        <v>0</v>
       </c>
       <c r="O18" s="18" t="str">
         <f>"■"&amp;D18&amp;":"&amp;E18</f>
-        <v>■オフィスマスタ:cm_office_mst</v>
+        <v>■0:0</v>
       </c>
     </row>
     <row r="19" spans="3:15">
@@ -14029,7 +13912,7 @@
         <v>75</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>74</v>
@@ -14049,21 +13932,11 @@
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="3:15">
-      <c r="D20" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -14071,51 +13944,31 @@
       <c r="M20" s="3"/>
       <c r="O20" s="19" t="str">
         <f>D20&amp;":"&amp;E20&amp;IF(F20=1,"(PK)","")&amp;IF(I20=1,"(FK)","")</f>
-        <v>オフィスID:office_id(PK)</v>
+        <v>:</v>
       </c>
     </row>
     <row r="21" spans="3:15">
-      <c r="D21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="M21" s="3"/>
       <c r="O21" s="19" t="str">
         <f>D21&amp;":"&amp;E21&amp;IF(F21=1,"(PK)","")&amp;IF(I21=1,"(FK)","")</f>
-        <v>会社コード:company_code(FK)</v>
+        <v>:</v>
       </c>
     </row>
     <row r="22" spans="3:15">
-      <c r="D22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -14123,21 +13976,15 @@
       <c r="M22" s="3"/>
       <c r="O22" s="19" t="str">
         <f>D22&amp;":"&amp;E22&amp;IF(F22=1,"(PK)","")&amp;IF(I22=1,"(FK)","")</f>
-        <v>オフィス名称:office_name</v>
+        <v>:</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="D23" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -14145,21 +13992,15 @@
       <c r="M23" s="3"/>
       <c r="O23" s="19" t="str">
         <f>D23&amp;":"&amp;E23&amp;IF(F23=1,"(PK)","")&amp;IF(I23=1,"(FK)","")</f>
-        <v>郵便番号:office_postal_code</v>
+        <v>:</v>
       </c>
     </row>
     <row r="24" spans="3:15">
-      <c r="D24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -14167,7 +14008,7 @@
       <c r="M24" s="3"/>
       <c r="O24" s="19" t="str">
         <f>D24&amp;":"&amp;E24&amp;IF(F24=1,"(PK)","")&amp;IF(I24=1,"(FK)","")</f>
-        <v>住所:office_address</v>
+        <v>:</v>
       </c>
     </row>
     <row r="25" spans="3:15">
@@ -14177,17 +14018,17 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26">
         <f>_xlfn.XLOOKUP(C26,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>担当者マスタ</v>
-      </c>
-      <c r="E26" t="str">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <f>_xlfn.XLOOKUP($C26,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>cm_person_mst</v>
+        <v>0</v>
       </c>
       <c r="O26" s="18" t="str">
         <f>"■"&amp;D26&amp;":"&amp;E26</f>
-        <v>■担当者マスタ:cm_person_mst</v>
+        <v>■0:0</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -14204,7 +14045,7 @@
         <v>75</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>74</v>
@@ -14224,21 +14065,11 @@
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="3:15">
-      <c r="D28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -14246,51 +14077,31 @@
       <c r="M28" s="3"/>
       <c r="O28" s="19" t="str">
         <f t="shared" ref="O28:O33" si="0">D28&amp;":"&amp;E28&amp;IF(F28=1,"(PK)","")&amp;IF(I28=1,"(FK)","")</f>
-        <v>担当者ID:person_id(PK)</v>
+        <v>:</v>
       </c>
     </row>
     <row r="29" spans="3:15">
-      <c r="D29" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="M29" s="3"/>
       <c r="O29" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>オフィスID:office_id(FK)</v>
+        <v>:</v>
       </c>
     </row>
     <row r="30" spans="3:15">
-      <c r="D30" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -14298,21 +14109,15 @@
       <c r="M30" s="3"/>
       <c r="O30" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>担当者名称:person_name</v>
+        <v>:</v>
       </c>
     </row>
     <row r="31" spans="3:15">
-      <c r="D31" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -14320,21 +14125,15 @@
       <c r="M31" s="3"/>
       <c r="O31" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>メールアドレス:person_email_address</v>
+        <v>:</v>
       </c>
     </row>
     <row r="32" spans="3:15">
-      <c r="D32" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -14342,21 +14141,15 @@
       <c r="M32" s="3"/>
       <c r="O32" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>電話番号:person_phone_number</v>
+        <v>:</v>
       </c>
     </row>
     <row r="33" spans="4:15">
-      <c r="D33" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -14364,7 +14157,7 @@
       <c r="M33" s="3"/>
       <c r="O33" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>業務内容:business_in_charge</v>
+        <v>:</v>
       </c>
     </row>
     <row r="34" spans="4:15">

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7358A7E-F564-423F-A558-3E2B61F8A171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2006EB1A-378F-4016-8626-894EB088A5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="178">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1219,6 +1219,66 @@
   </si>
   <si>
     <t>sample_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>├</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホーム画面</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>├</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サンプル1画面</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日:2022/12/30</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルマスタテーブルを編集</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample001View</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1226,7 +1286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,6 +1359,19 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1326,7 +1399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1395,6 +1468,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1404,7 +1536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,9 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1486,12 +1615,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -11896,7 +12233,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$26:$O$33" spid="_x0000_s9046"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$26:$O$33" spid="_x0000_s9064"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11961,7 +12298,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$13:$O$16" spid="_x0000_s9047"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$13:$O$16" spid="_x0000_s9065"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12026,7 +12363,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$18:$O$24" spid="_x0000_s9048"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$18:$O$24" spid="_x0000_s9066"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12141,6 +12478,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="B5:G17" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="0">
+      <calculatedColumnFormula>ROW(テーブル3[[#This Row],[No]])-5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{919C132D-57FC-4FB5-9B0A-3916E1263868}" name="テーブル43" displayName="テーブル43" ref="B5:F13" totalsRowShown="0">
   <autoFilter ref="B5:F13" xr:uid="{919C132D-57FC-4FB5-9B0A-3916E1263868}"/>
   <tableColumns count="5">
@@ -12154,13 +12508,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C5:E10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C5:E10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="C5:E10" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12545,22 +12899,22 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>160</v>
       </c>
     </row>
@@ -12575,7 +12929,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -12608,7 +12962,7 @@
       <c r="C5" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>163</v>
       </c>
     </row>
@@ -12718,7 +13072,7 @@
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>150</v>
       </c>
     </row>
@@ -12731,17 +13085,17 @@
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>125</v>
       </c>
     </row>
@@ -13305,7 +13659,7 @@
       <c r="D6" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -13316,10 +13670,10 @@
       <c r="C7" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F7" t="s">
@@ -13336,7 +13690,7 @@
       <c r="D8" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -13347,7 +13701,7 @@
       <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>152</v>
       </c>
       <c r="E9" t="s">
@@ -13384,14 +13738,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
-    <col min="2" max="2" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5625" customWidth="1"/>
     <col min="3" max="3" width="22.8125" customWidth="1"/>
     <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.6875" bestFit="1" customWidth="1"/>
@@ -13406,7 +13758,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="G2" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -13415,163 +13767,212 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="8">
+      <c r="B6" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="8">
+      <c r="B7" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>2</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="24" t="str">
-        <f>D7&amp;"Model"</f>
-        <v>Model</v>
+      <c r="C7" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D7&amp;"Model")</f>
+        <v>HomeViewModel</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="8">
+      <c r="B8" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>3</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="24" t="str">
-        <f t="shared" ref="E8:E9" si="0">D8&amp;"Model"</f>
-        <v>Model</v>
+      <c r="C8" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D8&amp;"Model")</f>
+        <v>Sample001ViewModel</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="29" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="8">
+      <c r="B9" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>4</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>Model</v>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D9&amp;"Model")</f>
+        <v/>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="8">
+      <c r="B10" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>5</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D10&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="8">
+      <c r="B11" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>6</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="24"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="8">
+      <c r="B12" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D12&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="8">
+      <c r="B13" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D13&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="8">
+      <c r="B14" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D14&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="8">
+      <c r="B15" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D15&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="8">
+      <c r="B16" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D16&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="8">
+      <c r="B17" s="27">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D17&amp;"Model")</f>
+        <v/>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -13627,37 +14028,37 @@
       <c r="D6" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
       <c r="F8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30.9">
       <c r="B10" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
@@ -13683,9 +14084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L39" sqref="L39"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -13721,13 +14122,13 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>73</v>
       </c>
     </row>
@@ -13790,43 +14191,43 @@
         <f>_xlfn.XLOOKUP($C13,テーブル一覧[No],テーブル一覧[物理名])</f>
         <v>tmp_sample_mst</v>
       </c>
-      <c r="O13" s="18" t="str">
+      <c r="O13" s="17" t="str">
         <f>"■"&amp;D13&amp;":"&amp;E13</f>
         <v>■サンプルマスタ:tmp_sample_mst</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="18"/>
+      <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:15">
       <c r="D15" s="3" t="s">
@@ -13847,9 +14248,9 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="19" t="str">
+      <c r="O15" s="18" t="str">
         <f>D15&amp;":"&amp;E15&amp;IF(F15=1,"(PK)","")&amp;IF(I15=1,"(FK)","")</f>
         <v>サンプルコード:sample_code(PK)</v>
       </c>
@@ -13871,15 +14272,15 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="11"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="3"/>
-      <c r="O16" s="19" t="str">
+      <c r="O16" s="18" t="str">
         <f>D16&amp;":"&amp;E16&amp;IF(F16=1,"(PK)","")&amp;IF(I16=1,"(FK)","")</f>
         <v>サンプル名称:sample_name</v>
       </c>
     </row>
     <row r="17" spans="3:15">
-      <c r="O17" s="18"/>
+      <c r="O17" s="17"/>
     </row>
     <row r="18" spans="3:15">
       <c r="C18">
@@ -13893,43 +14294,43 @@
         <f>_xlfn.XLOOKUP($C18,テーブル一覧[No],テーブル一覧[物理名])</f>
         <v>0</v>
       </c>
-      <c r="O18" s="18" t="str">
+      <c r="O18" s="17" t="str">
         <f>"■"&amp;D18&amp;":"&amp;E18</f>
         <v>■0:0</v>
       </c>
     </row>
     <row r="19" spans="3:15">
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="18"/>
+      <c r="O19" s="17"/>
     </row>
     <row r="20" spans="3:15">
       <c r="D20" s="3"/>
@@ -13940,9 +14341,9 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="11"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="3"/>
-      <c r="O20" s="19" t="str">
+      <c r="O20" s="18" t="str">
         <f>D20&amp;":"&amp;E20&amp;IF(F20=1,"(PK)","")&amp;IF(I20=1,"(FK)","")</f>
         <v>:</v>
       </c>
@@ -13956,9 +14357,9 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="11"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="3"/>
-      <c r="O21" s="19" t="str">
+      <c r="O21" s="18" t="str">
         <f>D21&amp;":"&amp;E21&amp;IF(F21=1,"(PK)","")&amp;IF(I21=1,"(FK)","")</f>
         <v>:</v>
       </c>
@@ -13972,9 +14373,9 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="11"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="3"/>
-      <c r="O22" s="19" t="str">
+      <c r="O22" s="18" t="str">
         <f>D22&amp;":"&amp;E22&amp;IF(F22=1,"(PK)","")&amp;IF(I22=1,"(FK)","")</f>
         <v>:</v>
       </c>
@@ -13988,9 +14389,9 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="11"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="3"/>
-      <c r="O23" s="19" t="str">
+      <c r="O23" s="18" t="str">
         <f>D23&amp;":"&amp;E23&amp;IF(F23=1,"(PK)","")&amp;IF(I23=1,"(FK)","")</f>
         <v>:</v>
       </c>
@@ -14004,15 +14405,15 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="3"/>
-      <c r="O24" s="19" t="str">
+      <c r="O24" s="18" t="str">
         <f>D24&amp;":"&amp;E24&amp;IF(F24=1,"(PK)","")&amp;IF(I24=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
     <row r="25" spans="3:15">
-      <c r="O25" s="18"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="3:15">
       <c r="C26">
@@ -14026,43 +14427,43 @@
         <f>_xlfn.XLOOKUP($C26,テーブル一覧[No],テーブル一覧[物理名])</f>
         <v>0</v>
       </c>
-      <c r="O26" s="18" t="str">
+      <c r="O26" s="17" t="str">
         <f>"■"&amp;D26&amp;":"&amp;E26</f>
         <v>■0:0</v>
       </c>
     </row>
     <row r="27" spans="3:15">
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="18"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="3:15">
       <c r="D28" s="3"/>
@@ -14073,9 +14474,9 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="11"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="3"/>
-      <c r="O28" s="19" t="str">
+      <c r="O28" s="18" t="str">
         <f t="shared" ref="O28:O33" si="0">D28&amp;":"&amp;E28&amp;IF(F28=1,"(PK)","")&amp;IF(I28=1,"(FK)","")</f>
         <v>:</v>
       </c>
@@ -14089,9 +14490,9 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="11"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="3"/>
-      <c r="O29" s="19" t="str">
+      <c r="O29" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
@@ -14105,9 +14506,9 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="3"/>
-      <c r="O30" s="19" t="str">
+      <c r="O30" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
@@ -14121,9 +14522,9 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="3"/>
-      <c r="O31" s="19" t="str">
+      <c r="O31" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
@@ -14137,9 +14538,9 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="11"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="3"/>
-      <c r="O32" s="19" t="str">
+      <c r="O32" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
@@ -14153,20 +14554,20 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="11"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="3"/>
-      <c r="O33" s="19" t="str">
+      <c r="O33" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
     <row r="34" spans="4:15">
-      <c r="O34" s="18"/>
+      <c r="O34" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O15:O16 O20:O24 O28:O33">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",O15)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2006EB1A-378F-4016-8626-894EB088A5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18465A2C-41CB-40CC-8DA0-E7BA5ACEB6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="190">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -966,22 +966,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下、ER図作成用</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表紙</t>
     <rPh sb="0" eb="2">
       <t>ヒョウシ</t>
@@ -1222,45 +1206,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>├</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ホーム画面</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HomeView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>├</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サンプル1画面</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1279,6 +1225,107 @@
   </si>
   <si>
     <t>Sample001View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル1画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>↓ER図作成用</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓A5:SQLMk2用</t>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト式</t>
+    <rPh sb="5" eb="6">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDLオプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色/表示設定</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型（DB）</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1286,7 +1333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,18 +1409,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1395,6 +1436,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,7 +1583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1615,9 +1662,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1648,6 +1692,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1655,179 +1708,14 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0000CC"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1970,14 +1858,179 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12233,7 +12286,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$26:$O$33" spid="_x0000_s9064"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$26:$P$33" spid="_x0000_s9073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12298,7 +12351,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$13:$O$16" spid="_x0000_s9065"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$16" spid="_x0000_s9074"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12363,7 +12416,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$18:$O$24" spid="_x0000_s9066"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$18:$P$24" spid="_x0000_s9075"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12478,17 +12531,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="B5:G17" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="14">
       <calculatedColumnFormula>ROW(テーブル3[[#This Row],[No]])-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12509,12 +12562,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C5:E10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C5:E10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="C5:E10" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12829,7 +12882,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.3">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12837,7 +12890,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -12845,7 +12898,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -12853,7 +12906,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -12900,22 +12953,22 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -12947,12 +13000,12 @@
     </row>
     <row r="2" spans="1:7">
       <c r="G2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="G3" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12963,7 +13016,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -13068,12 +13121,12 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="E21" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="3:5">
@@ -13702,10 +13755,10 @@
         <v>121</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
         <v>152</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -13738,7 +13791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
@@ -13758,36 +13813,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="G2" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="G3" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>1</v>
       </c>
@@ -13801,48 +13856,48 @@
         <v>70</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>2</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>172</v>
+      <c r="C7" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E7" s="23" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D7&amp;"Model")</f>
         <v>HomeViewModel</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>177</v>
       </c>
       <c r="E8" s="23" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D8&amp;"Model")</f>
         <v>Sample001ViewModel</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="29" t="s">
-        <v>176</v>
+      <c r="G8" s="28" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>4</v>
       </c>
@@ -13853,10 +13908,10 @@
         <v/>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="29"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>5</v>
       </c>
@@ -13867,10 +13922,10 @@
         <v/>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="29"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>6</v>
       </c>
@@ -13881,10 +13936,10 @@
         <v/>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="29"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
       </c>
@@ -13895,10 +13950,10 @@
         <v/>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
       </c>
@@ -13909,10 +13964,10 @@
         <v/>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="30"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
       </c>
@@ -13923,10 +13978,10 @@
         <v/>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
       </c>
@@ -13937,10 +13992,10 @@
         <v/>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
       </c>
@@ -13951,21 +14006,21 @@
         <v/>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="23" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D17&amp;"Model")</f>
         <v/>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -13996,12 +14051,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.3">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="F2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -14023,28 +14078,28 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
       <c r="D7" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="D8" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -14053,22 +14108,22 @@
     </row>
     <row r="10" spans="1:6" ht="30.9">
       <c r="B10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
         <v>164</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -14082,11 +14137,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15:H16"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -14096,32 +14151,43 @@
     <col min="4" max="4" width="22.3125" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="6.875" customWidth="1"/>
-    <col min="12" max="13" width="35.8125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.5625" customWidth="1"/>
-    <col min="15" max="15" width="29.9375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="35.8125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5625" customWidth="1"/>
+    <col min="16" max="16" width="29.9375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5625" customWidth="1"/>
+    <col min="18" max="18" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.9375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.3">
+    <row r="1" spans="1:26" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="M2" s="7" t="s">
+    <row r="2" spans="1:26">
+      <c r="N2" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="N3" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="M3" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:26">
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:26">
       <c r="C5" s="19" t="s">
         <v>67</v>
       </c>
@@ -14132,54 +14198,57 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:26">
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:26">
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:26">
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:26">
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:26">
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:26">
       <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O12" t="s">
-        <v>134</v>
+      <c r="P12" t="s">
+        <v>178</v>
+      </c>
+      <c r="R12" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:26">
       <c r="C13">
         <v>1</v>
       </c>
@@ -14191,12 +14260,39 @@
         <f>_xlfn.XLOOKUP($C13,テーブル一覧[No],テーブル一覧[物理名])</f>
         <v>tmp_sample_mst</v>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="P13" s="17" t="str">
         <f>"■"&amp;D13&amp;":"&amp;E13</f>
         <v>■サンプルマスタ:tmp_sample_mst</v>
       </c>
+      <c r="R13" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" t="s">
+        <v>180</v>
+      </c>
+      <c r="U13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V13" t="s">
+        <v>182</v>
+      </c>
+      <c r="W13" t="s">
+        <v>184</v>
+      </c>
+      <c r="X13" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:26">
       <c r="D14" s="9" t="s">
         <v>72</v>
       </c>
@@ -14210,7 +14306,7 @@
         <v>75</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>74</v>
@@ -14221,20 +14317,23 @@
       <c r="K14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="N14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:26">
       <c r="D15" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -14243,46 +14342,98 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="3"/>
-      <c r="O15" s="18" t="str">
+      <c r="L15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="18" t="str">
         <f>D15&amp;":"&amp;E15&amp;IF(F15=1,"(PK)","")&amp;IF(I15=1,"(FK)","")</f>
         <v>サンプルコード:sample_code(PK)</v>
       </c>
+      <c r="R15" s="37" t="str">
+        <f>D15</f>
+        <v>サンプルコード</v>
+      </c>
+      <c r="S15" s="37" t="str">
+        <f>E15</f>
+        <v>sample_code</v>
+      </c>
+      <c r="T15" s="37" t="str">
+        <f>L15</f>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U15" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="V15" s="37">
+        <f>IF(F15=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:26">
       <c r="D16" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="3"/>
-      <c r="O16" s="18" t="str">
+      <c r="L16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="3"/>
+      <c r="P16" s="18" t="str">
         <f>D16&amp;":"&amp;E16&amp;IF(F16=1,"(PK)","")&amp;IF(I16=1,"(FK)","")</f>
         <v>サンプル名称:sample_name</v>
       </c>
+      <c r="R16" s="37" t="str">
+        <f>D16</f>
+        <v>サンプル名称</v>
+      </c>
+      <c r="S16" s="37" t="str">
+        <f>E16</f>
+        <v>sample_name</v>
+      </c>
+      <c r="T16" s="37" t="str">
+        <f>L16</f>
+        <v>VARCHAR2(40)</v>
+      </c>
+      <c r="U16" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="V16" s="37" t="str">
+        <f>IF(F16=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
     </row>
-    <row r="17" spans="3:15">
-      <c r="O17" s="17"/>
+    <row r="17" spans="3:16">
+      <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="3:16">
       <c r="C18">
         <v>2</v>
       </c>
@@ -14294,12 +14445,12 @@
         <f>_xlfn.XLOOKUP($C18,テーブル一覧[No],テーブル一覧[物理名])</f>
         <v>0</v>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="P18" s="17" t="str">
         <f>"■"&amp;D18&amp;":"&amp;E18</f>
         <v>■0:0</v>
       </c>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="3:16">
       <c r="D19" s="9" t="s">
         <v>72</v>
       </c>
@@ -14313,7 +14464,7 @@
         <v>75</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>74</v>
@@ -14324,15 +14475,18 @@
       <c r="K19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="N19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -14341,14 +14495,15 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="3"/>
-      <c r="O20" s="18" t="str">
+      <c r="L20" s="3"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="18" t="str">
         <f>D20&amp;":"&amp;E20&amp;IF(F20=1,"(PK)","")&amp;IF(I20=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -14357,14 +14512,15 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="3"/>
-      <c r="O21" s="18" t="str">
+      <c r="L21" s="3"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="18" t="str">
         <f>D21&amp;":"&amp;E21&amp;IF(F21=1,"(PK)","")&amp;IF(I21=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -14373,14 +14529,15 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="3"/>
-      <c r="O22" s="18" t="str">
+      <c r="L22" s="3"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="18" t="str">
         <f>D22&amp;":"&amp;E22&amp;IF(F22=1,"(PK)","")&amp;IF(I22=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -14389,14 +14546,15 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="3"/>
-      <c r="O23" s="18" t="str">
+      <c r="L23" s="3"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="18" t="str">
         <f>D23&amp;":"&amp;E23&amp;IF(F23=1,"(PK)","")&amp;IF(I23=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -14405,17 +14563,18 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="3"/>
-      <c r="O24" s="18" t="str">
+      <c r="L24" s="3"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="18" t="str">
         <f>D24&amp;":"&amp;E24&amp;IF(F24=1,"(PK)","")&amp;IF(I24=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="25" spans="3:15">
-      <c r="O25" s="17"/>
+    <row r="25" spans="3:16">
+      <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:16">
       <c r="C26">
         <v>3</v>
       </c>
@@ -14427,12 +14586,12 @@
         <f>_xlfn.XLOOKUP($C26,テーブル一覧[No],テーブル一覧[物理名])</f>
         <v>0</v>
       </c>
-      <c r="O26" s="17" t="str">
+      <c r="P26" s="17" t="str">
         <f>"■"&amp;D26&amp;":"&amp;E26</f>
         <v>■0:0</v>
       </c>
     </row>
-    <row r="27" spans="3:15">
+    <row r="27" spans="3:16">
       <c r="D27" s="9" t="s">
         <v>72</v>
       </c>
@@ -14446,7 +14605,7 @@
         <v>75</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>74</v>
@@ -14457,15 +14616,18 @@
       <c r="K27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="N27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="3:16">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -14474,14 +14636,15 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="3"/>
-      <c r="O28" s="18" t="str">
-        <f t="shared" ref="O28:O33" si="0">D28&amp;":"&amp;E28&amp;IF(F28=1,"(PK)","")&amp;IF(I28=1,"(FK)","")</f>
+      <c r="L28" s="3"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="3"/>
+      <c r="P28" s="18" t="str">
+        <f t="shared" ref="P28:P33" si="0">D28&amp;":"&amp;E28&amp;IF(F28=1,"(PK)","")&amp;IF(I28=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:16">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -14490,14 +14653,15 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="3"/>
-      <c r="O29" s="18" t="str">
+      <c r="L29" s="3"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:16">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -14506,14 +14670,15 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="3"/>
-      <c r="O30" s="18" t="str">
+      <c r="L30" s="3"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="3"/>
+      <c r="P30" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:16">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -14522,14 +14687,15 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="3"/>
-      <c r="O31" s="18" t="str">
+      <c r="L31" s="3"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:16">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -14538,14 +14704,15 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="3"/>
-      <c r="O32" s="18" t="str">
+      <c r="L32" s="3"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="3"/>
+      <c r="P32" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
-    <row r="33" spans="4:15">
+    <row r="33" spans="4:16">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -14554,21 +14721,22 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="3"/>
-      <c r="O33" s="18" t="str">
+      <c r="L33" s="3"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="3"/>
+      <c r="P33" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
-    <row r="34" spans="4:15">
-      <c r="O34" s="17"/>
+    <row r="34" spans="4:16">
+      <c r="P34" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="O15:O16 O20:O24 O28:O33">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",O15)))</formula>
+  <conditionalFormatting sqref="P15:P16 P20:P24 P28:P33">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14599,12 +14767,12 @@
     </row>
     <row r="2" spans="1:52">
       <c r="AZ2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:52">
       <c r="AZ3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7358A7E-F564-423F-A558-3E2B61F8A171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18465A2C-41CB-40CC-8DA0-E7BA5ACEB6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="190">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -966,22 +966,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下、ER図作成用</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表紙</t>
     <rPh sb="0" eb="2">
       <t>ヒョウシ</t>
@@ -1219,6 +1203,129 @@
   </si>
   <si>
     <t>sample_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日:2022/12/30</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルマスタテーブルを編集</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample001View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル1画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>↓ER図作成用</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓A5:SQLMk2用</t>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト式</t>
+    <rPh sb="5" eb="6">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDLオプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色/表示設定</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型（DB）</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1226,7 +1333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,8 +1406,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1325,8 +1439,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1395,6 +1515,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1404,7 +1583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,9 +1610,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1486,12 +1662,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1633,14 +1858,179 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11896,7 +12286,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$26:$O$33" spid="_x0000_s9046"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$26:$P$33" spid="_x0000_s9073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11961,7 +12351,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$13:$O$16" spid="_x0000_s9047"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$16" spid="_x0000_s9074"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12026,7 +12416,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$O$18:$O$24" spid="_x0000_s9048"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$18:$P$24" spid="_x0000_s9075"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12141,6 +12531,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="B5:G17" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="14">
+      <calculatedColumnFormula>ROW(テーブル3[[#This Row],[No]])-5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{919C132D-57FC-4FB5-9B0A-3916E1263868}" name="テーブル43" displayName="テーブル43" ref="B5:F13" totalsRowShown="0">
   <autoFilter ref="B5:F13" xr:uid="{919C132D-57FC-4FB5-9B0A-3916E1263868}"/>
   <tableColumns count="5">
@@ -12154,13 +12561,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C5:E10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C5:E10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="C5:E10" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12475,7 +12882,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.3">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12483,7 +12890,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -12491,7 +12898,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -12499,7 +12906,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -12545,23 +12952,23 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="25" t="s">
-        <v>157</v>
+      <c r="B2" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="21" t="s">
-        <v>158</v>
+      <c r="B3" s="20" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="21" t="s">
-        <v>159</v>
+      <c r="B4" s="20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="26" t="s">
-        <v>160</v>
+      <c r="B5" s="25" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -12575,7 +12982,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -12593,12 +13000,12 @@
     </row>
     <row r="2" spans="1:7">
       <c r="G2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="G3" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12608,8 +13015,8 @@
       <c r="C5" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>163</v>
+      <c r="D5" s="16" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -12714,12 +13121,12 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="3:5">
-      <c r="E21" s="22" t="s">
-        <v>150</v>
+      <c r="E21" s="21" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="3:5">
@@ -12731,17 +13138,17 @@
       </c>
     </row>
     <row r="23" spans="3:5">
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>125</v>
       </c>
     </row>
@@ -13305,7 +13712,7 @@
       <c r="D6" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -13316,10 +13723,10 @@
       <c r="C7" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F7" t="s">
@@ -13336,7 +13743,7 @@
       <c r="D8" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -13347,11 +13754,11 @@
       <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
         <v>152</v>
-      </c>
-      <c r="E9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -13385,13 +13792,13 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
-    <col min="2" max="2" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5625" customWidth="1"/>
     <col min="3" max="3" width="22.8125" customWidth="1"/>
     <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.6875" bestFit="1" customWidth="1"/>
@@ -13406,172 +13813,221 @@
     </row>
     <row r="2" spans="1:7">
       <c r="G2" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="G3" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="32" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="8">
+      <c r="B6" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="8">
+      <c r="B7" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>2</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="24" t="str">
-        <f>D7&amp;"Model"</f>
-        <v>Model</v>
+      <c r="C7" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D7&amp;"Model")</f>
+        <v>HomeViewModel</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="8">
+      <c r="B8" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>3</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="24" t="str">
-        <f t="shared" ref="E8:E9" si="0">D8&amp;"Model"</f>
-        <v>Model</v>
+      <c r="C8" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D8&amp;"Model")</f>
+        <v>Sample001ViewModel</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="28" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="8">
+      <c r="B9" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>4</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>Model</v>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D9&amp;"Model")</f>
+        <v/>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="8">
+      <c r="B10" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>5</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D10&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="8">
+      <c r="B11" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>6</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="24"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="8">
+      <c r="B12" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D12&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="8">
+      <c r="B13" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D13&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="8">
+      <c r="B14" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D14&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="8">
+      <c r="B15" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D15&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="8">
+      <c r="B16" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D16&amp;"Model")</f>
+        <v/>
+      </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="8">
+      <c r="B17" s="26">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="23" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D17&amp;"Model")</f>
+        <v/>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -13595,12 +14051,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.3">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="F2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -13622,52 +14078,52 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="13"/>
+        <v>142</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" t="s">
         <v>147</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="30.9">
       <c r="B10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
         <v>164</v>
-      </c>
-      <c r="E12" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -13681,11 +14137,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L39" sqref="L39"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -13695,90 +14151,104 @@
     <col min="4" max="4" width="22.3125" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="6.875" customWidth="1"/>
-    <col min="12" max="13" width="35.8125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.5625" customWidth="1"/>
-    <col min="15" max="15" width="29.9375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="35.8125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5625" customWidth="1"/>
+    <col min="16" max="16" width="29.9375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5625" customWidth="1"/>
+    <col min="18" max="18" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.8125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.9375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.3">
+    <row r="1" spans="1:26" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="M2" s="7" t="s">
+    <row r="2" spans="1:26">
+      <c r="N2" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="N3" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="M3" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:26">
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="C5" s="20" t="s">
+    <row r="5" spans="1:26">
+      <c r="C5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:26">
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:26">
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:26">
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:26">
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:26">
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:26">
       <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O12" t="s">
-        <v>134</v>
+      <c r="P12" t="s">
+        <v>178</v>
+      </c>
+      <c r="R12" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:26">
       <c r="C13">
         <v>1</v>
       </c>
@@ -13790,50 +14260,80 @@
         <f>_xlfn.XLOOKUP($C13,テーブル一覧[No],テーブル一覧[物理名])</f>
         <v>tmp_sample_mst</v>
       </c>
-      <c r="O13" s="18" t="str">
+      <c r="P13" s="17" t="str">
         <f>"■"&amp;D13&amp;":"&amp;E13</f>
         <v>■サンプルマスタ:tmp_sample_mst</v>
       </c>
+      <c r="R13" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" t="s">
+        <v>180</v>
+      </c>
+      <c r="U13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V13" t="s">
+        <v>182</v>
+      </c>
+      <c r="W13" t="s">
+        <v>184</v>
+      </c>
+      <c r="X13" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="D14" s="10" t="s">
+    <row r="14" spans="1:26">
+      <c r="D14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="M14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="N14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="18"/>
+      <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:26">
       <c r="D15" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -13842,46 +14342,98 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="3"/>
-      <c r="O15" s="19" t="str">
+      <c r="L15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="18" t="str">
         <f>D15&amp;":"&amp;E15&amp;IF(F15=1,"(PK)","")&amp;IF(I15=1,"(FK)","")</f>
         <v>サンプルコード:sample_code(PK)</v>
       </c>
+      <c r="R15" s="37" t="str">
+        <f>D15</f>
+        <v>サンプルコード</v>
+      </c>
+      <c r="S15" s="37" t="str">
+        <f>E15</f>
+        <v>sample_code</v>
+      </c>
+      <c r="T15" s="37" t="str">
+        <f>L15</f>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U15" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="V15" s="37">
+        <f>IF(F15=1,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:26">
       <c r="D16" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="3"/>
-      <c r="O16" s="19" t="str">
+      <c r="L16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="3"/>
+      <c r="P16" s="18" t="str">
         <f>D16&amp;":"&amp;E16&amp;IF(F16=1,"(PK)","")&amp;IF(I16=1,"(FK)","")</f>
         <v>サンプル名称:sample_name</v>
       </c>
+      <c r="R16" s="37" t="str">
+        <f>D16</f>
+        <v>サンプル名称</v>
+      </c>
+      <c r="S16" s="37" t="str">
+        <f>E16</f>
+        <v>sample_name</v>
+      </c>
+      <c r="T16" s="37" t="str">
+        <f>L16</f>
+        <v>VARCHAR2(40)</v>
+      </c>
+      <c r="U16" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="V16" s="37" t="str">
+        <f>IF(F16=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
     </row>
-    <row r="17" spans="3:15">
-      <c r="O17" s="18"/>
+    <row r="17" spans="3:16">
+      <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="3:16">
       <c r="C18">
         <v>2</v>
       </c>
@@ -13893,45 +14445,48 @@
         <f>_xlfn.XLOOKUP($C18,テーブル一覧[No],テーブル一覧[物理名])</f>
         <v>0</v>
       </c>
-      <c r="O18" s="18" t="str">
+      <c r="P18" s="17" t="str">
         <f>"■"&amp;D18&amp;":"&amp;E18</f>
         <v>■0:0</v>
       </c>
     </row>
-    <row r="19" spans="3:15">
-      <c r="D19" s="10" t="s">
+    <row r="19" spans="3:16">
+      <c r="D19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="N19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="18"/>
+      <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:16">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -13940,14 +14495,15 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="3"/>
-      <c r="O20" s="19" t="str">
+      <c r="L20" s="3"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="18" t="str">
         <f>D20&amp;":"&amp;E20&amp;IF(F20=1,"(PK)","")&amp;IF(I20=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:16">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -13956,14 +14512,15 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="3"/>
-      <c r="O21" s="19" t="str">
+      <c r="L21" s="3"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="18" t="str">
         <f>D21&amp;":"&amp;E21&amp;IF(F21=1,"(PK)","")&amp;IF(I21=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:16">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -13972,14 +14529,15 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="3"/>
-      <c r="O22" s="19" t="str">
+      <c r="L22" s="3"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="18" t="str">
         <f>D22&amp;":"&amp;E22&amp;IF(F22=1,"(PK)","")&amp;IF(I22=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:16">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -13988,14 +14546,15 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="3"/>
-      <c r="O23" s="19" t="str">
+      <c r="L23" s="3"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="18" t="str">
         <f>D23&amp;":"&amp;E23&amp;IF(F23=1,"(PK)","")&amp;IF(I23=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:16">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -14004,17 +14563,18 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="3"/>
-      <c r="O24" s="19" t="str">
+      <c r="L24" s="3"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="18" t="str">
         <f>D24&amp;":"&amp;E24&amp;IF(F24=1,"(PK)","")&amp;IF(I24=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="25" spans="3:15">
-      <c r="O25" s="18"/>
+    <row r="25" spans="3:16">
+      <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:16">
       <c r="C26">
         <v>3</v>
       </c>
@@ -14026,45 +14586,48 @@
         <f>_xlfn.XLOOKUP($C26,テーブル一覧[No],テーブル一覧[物理名])</f>
         <v>0</v>
       </c>
-      <c r="O26" s="18" t="str">
+      <c r="P26" s="17" t="str">
         <f>"■"&amp;D26&amp;":"&amp;E26</f>
         <v>■0:0</v>
       </c>
     </row>
-    <row r="27" spans="3:15">
-      <c r="D27" s="10" t="s">
+    <row r="27" spans="3:16">
+      <c r="D27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="H27" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="18"/>
+      <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="3:16">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -14073,14 +14636,15 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="3"/>
-      <c r="O28" s="19" t="str">
-        <f t="shared" ref="O28:O33" si="0">D28&amp;":"&amp;E28&amp;IF(F28=1,"(PK)","")&amp;IF(I28=1,"(FK)","")</f>
+      <c r="L28" s="3"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="3"/>
+      <c r="P28" s="18" t="str">
+        <f t="shared" ref="P28:P33" si="0">D28&amp;":"&amp;E28&amp;IF(F28=1,"(PK)","")&amp;IF(I28=1,"(FK)","")</f>
         <v>:</v>
       </c>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:16">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -14089,14 +14653,15 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="3"/>
-      <c r="O29" s="19" t="str">
+      <c r="L29" s="3"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:16">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -14105,14 +14670,15 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="3"/>
-      <c r="O30" s="19" t="str">
+      <c r="L30" s="3"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="3"/>
+      <c r="P30" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:16">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -14121,14 +14687,15 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="3"/>
-      <c r="O31" s="19" t="str">
+      <c r="L31" s="3"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:16">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -14137,14 +14704,15 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="3"/>
-      <c r="O32" s="19" t="str">
+      <c r="L32" s="3"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="3"/>
+      <c r="P32" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
-    <row r="33" spans="4:15">
+    <row r="33" spans="4:16">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -14153,21 +14721,22 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="3"/>
-      <c r="O33" s="19" t="str">
+      <c r="L33" s="3"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="3"/>
+      <c r="P33" s="18" t="str">
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
     </row>
-    <row r="34" spans="4:15">
-      <c r="O34" s="18"/>
+    <row r="34" spans="4:16">
+      <c r="P34" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="O15:O16 O20:O24 O28:O33">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",O15)))</formula>
+  <conditionalFormatting sqref="P15:P16 P20:P24 P28:P33">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14198,12 +14767,12 @@
     </row>
     <row r="2" spans="1:52">
       <c r="AZ2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:52">
       <c r="AZ3" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18465A2C-41CB-40CC-8DA0-E7BA5ACEB6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC81F36-4B4B-4A4E-94A6-63EEBE58D6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
@@ -12286,7 +12286,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$26:$P$33" spid="_x0000_s9073"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$26:$P$33" spid="_x0000_s9085"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12351,7 +12351,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$16" spid="_x0000_s9074"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$16" spid="_x0000_s9086"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12416,7 +12416,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$18:$P$24" spid="_x0000_s9075"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$18:$P$24" spid="_x0000_s9087"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12982,7 +12982,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -13792,7 +13792,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -14141,7 +14141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC81F36-4B4B-4A4E-94A6-63EEBE58D6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C858B649-C776-4326-B619-61D93EEFD573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
@@ -1708,16 +1708,6 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1856,6 +1846,16 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -12286,7 +12286,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$26:$P$33" spid="_x0000_s9085"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$26:$P$33" spid="_x0000_s9109"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12351,7 +12351,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$16" spid="_x0000_s9086"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$16" spid="_x0000_s9110"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12416,7 +12416,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$18:$P$24" spid="_x0000_s9087"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$18:$P$24" spid="_x0000_s9111"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12562,12 +12562,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C5:E10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C5:E10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="C5:E10" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14141,7 +14141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G48" sqref="G48"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -14735,7 +14735,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P15:P16 P20:P24 P28:P33">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P15)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C858B649-C776-4326-B619-61D93EEFD573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC40DA7-E4E4-4755-8E9D-6E1E5BD48582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="208">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1242,9 +1242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
     <t>↓ER図作成用</t>
     <rPh sb="3" eb="4">
       <t>ズ</t>
@@ -1326,6 +1323,130 @@
     <rPh sb="3" eb="4">
       <t>カタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者コード</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日番号</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weekday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:日曜、2:月曜・・・7:土曜</t>
+    <rPh sb="2" eb="4">
+      <t>ニチヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務時間</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>working_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務予定マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名称には、先頭に「tmp」（template）を付与する。</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_working_time_plan_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者マスタ</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_worker_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worker_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者名称</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(1,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(4,2)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1708,6 +1829,16 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1846,16 +1977,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -12286,7 +12407,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$26:$P$33" spid="_x0000_s9109"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$36" spid="_x0000_s9127"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12351,7 +12472,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$16" spid="_x0000_s9110"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$14:$P$17" spid="_x0000_s9128"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12416,7 +12537,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$18:$P$24" spid="_x0000_s9111"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$22:$P$28" spid="_x0000_s9129"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12562,12 +12683,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C5:E10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="C5:E10" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="C6:E11" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14137,7 +14258,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
@@ -14178,216 +14299,183 @@
       </c>
     </row>
     <row r="3" spans="1:26">
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
       <c r="N3" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="C5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>73</v>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>166</v>
+      <c r="C6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="8" spans="1:26">
       <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="9" spans="1:26">
       <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:26">
       <c r="C10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="12" spans="1:26">
-      <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" t="s">
-        <v>178</v>
-      </c>
-      <c r="R12" t="s">
-        <v>179</v>
-      </c>
+    <row r="11" spans="1:26">
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="str">
-        <f>_xlfn.XLOOKUP(C13,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>サンプルマスタ</v>
-      </c>
-      <c r="E13" t="str">
-        <f>_xlfn.XLOOKUP($C13,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_sample_mst</v>
-      </c>
-      <c r="P13" s="17" t="str">
-        <f>"■"&amp;D13&amp;":"&amp;E13</f>
-        <v>■サンプルマスタ:tmp_sample_mst</v>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s">
+        <v>177</v>
       </c>
       <c r="R13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S13" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" t="s">
-        <v>180</v>
-      </c>
-      <c r="U13" t="s">
-        <v>181</v>
-      </c>
-      <c r="V13" t="s">
-        <v>182</v>
-      </c>
-      <c r="W13" t="s">
-        <v>184</v>
-      </c>
-      <c r="X13" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="D14" s="9" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <f>_xlfn.XLOOKUP(C14,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>サンプルマスタ</v>
+      </c>
+      <c r="E14" t="str">
+        <f>_xlfn.XLOOKUP($C14,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_sample_mst</v>
+      </c>
+      <c r="P14" s="17" t="str">
+        <f>"■"&amp;D14&amp;":"&amp;E14</f>
+        <v>■サンプルマスタ:tmp_sample_mst</v>
+      </c>
+      <c r="R14" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="S14" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="17"/>
+      <c r="T14" t="s">
+        <v>179</v>
+      </c>
+      <c r="U14" t="s">
+        <v>180</v>
+      </c>
+      <c r="V14" t="s">
+        <v>181</v>
+      </c>
+      <c r="W14" t="s">
+        <v>183</v>
+      </c>
+      <c r="X14" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="D15" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="3"/>
-      <c r="P15" s="18" t="str">
-        <f>D15&amp;":"&amp;E15&amp;IF(F15=1,"(PK)","")&amp;IF(I15=1,"(FK)","")</f>
-        <v>サンプルコード:sample_code(PK)</v>
-      </c>
-      <c r="R15" s="37" t="str">
-        <f>D15</f>
-        <v>サンプルコード</v>
-      </c>
-      <c r="S15" s="37" t="str">
-        <f>E15</f>
-        <v>sample_code</v>
-      </c>
-      <c r="T15" s="37" t="str">
-        <f>L15</f>
-        <v>VARCHAR2(20)</v>
-      </c>
-      <c r="U15" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="V15" s="37">
-        <f>IF(F15=1,1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
+      <c r="D15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:26">
       <c r="D16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
       <c r="G16" s="3">
         <v>1</v>
       </c>
@@ -14398,95 +14486,125 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="3"/>
       <c r="P16" s="18" t="str">
-        <f>D16&amp;":"&amp;E16&amp;IF(F16=1,"(PK)","")&amp;IF(I16=1,"(FK)","")</f>
-        <v>サンプル名称:sample_name</v>
+        <f t="shared" ref="P16:P17" si="0">IF(E16="","",D16&amp;":"&amp;E16&amp;IF(F16=1,"(PK)","")&amp;IF(I16=1,"(FK)",""))</f>
+        <v>サンプルコード:sample_code(PK)</v>
       </c>
       <c r="R16" s="37" t="str">
         <f>D16</f>
-        <v>サンプル名称</v>
+        <v>サンプルコード</v>
       </c>
       <c r="S16" s="37" t="str">
         <f>E16</f>
-        <v>sample_name</v>
+        <v>sample_code</v>
       </c>
       <c r="T16" s="37" t="str">
         <f>L16</f>
-        <v>VARCHAR2(40)</v>
-      </c>
-      <c r="U16" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="V16" s="37" t="str">
-        <f>IF(F16=1,1,"")</f>
-        <v/>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U16" s="37" t="str">
+        <f>IF(G16=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V16" s="37">
+        <f>IF(F16="","",F16)</f>
+        <v>1</v>
       </c>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
     </row>
-    <row r="17" spans="3:16">
-      <c r="P17" s="17"/>
+    <row r="17" spans="3:26">
+      <c r="D17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>サンプル名称:sample_name</v>
+      </c>
+      <c r="R17" s="37" t="str">
+        <f>D17</f>
+        <v>サンプル名称</v>
+      </c>
+      <c r="S17" s="37" t="str">
+        <f>E17</f>
+        <v>sample_name</v>
+      </c>
+      <c r="T17" s="37" t="str">
+        <f>L17</f>
+        <v>VARCHAR2(40)</v>
+      </c>
+      <c r="U17" s="37" t="str">
+        <f t="shared" ref="U17" si="1">IF(G17=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V17" s="37" t="str">
+        <f t="shared" ref="V17" si="2">IF(F17="","",F17)</f>
+        <v/>
+      </c>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
     </row>
-    <row r="18" spans="3:16">
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <f>_xlfn.XLOOKUP(C18,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f>_xlfn.XLOOKUP($C18,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="17" t="str">
-        <f>"■"&amp;D18&amp;":"&amp;E18</f>
-        <v>■0:0</v>
+    <row r="18" spans="3:26">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="18" t="str">
+        <f>IF(E18="","",D18&amp;":"&amp;E18&amp;IF(F18=1,"(PK)","")&amp;IF(I18=1,"(FK)",""))</f>
+        <v/>
       </c>
     </row>
-    <row r="19" spans="3:16">
-      <c r="D19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="17"/>
+    <row r="19" spans="3:26">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="18" t="str">
+        <f t="shared" ref="P19:P20" si="3">IF(E19="","",D19&amp;":"&amp;E19&amp;IF(F19=1,"(PK)","")&amp;IF(I19=1,"(FK)",""))</f>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="3:16">
+    <row r="20" spans="3:26">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -14499,135 +14617,205 @@
       <c r="M20" s="10"/>
       <c r="N20" s="3"/>
       <c r="P20" s="18" t="str">
-        <f>D20&amp;":"&amp;E20&amp;IF(F20=1,"(PK)","")&amp;IF(I20=1,"(FK)","")</f>
-        <v>:</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
-    <row r="21" spans="3:16">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="3"/>
-      <c r="P21" s="18" t="str">
-        <f>D21&amp;":"&amp;E21&amp;IF(F21=1,"(PK)","")&amp;IF(I21=1,"(FK)","")</f>
-        <v>:</v>
-      </c>
+    <row r="21" spans="3:26">
+      <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="3:16">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="3"/>
-      <c r="P22" s="18" t="str">
-        <f>D22&amp;":"&amp;E22&amp;IF(F22=1,"(PK)","")&amp;IF(I22=1,"(FK)","")</f>
-        <v>:</v>
+    <row r="22" spans="3:26">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="str">
+        <f>_xlfn.XLOOKUP(C22,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>作業者マスタ</v>
+      </c>
+      <c r="E22" t="str">
+        <f>_xlfn.XLOOKUP($C22,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_worker_mst</v>
+      </c>
+      <c r="P22" s="17" t="str">
+        <f>"■"&amp;D22&amp;":"&amp;E22</f>
+        <v>■作業者マスタ:tmp_worker_mst</v>
       </c>
     </row>
-    <row r="23" spans="3:16">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="3"/>
-      <c r="P23" s="18" t="str">
-        <f>D23&amp;":"&amp;E23&amp;IF(F23=1,"(PK)","")&amp;IF(I23=1,"(FK)","")</f>
-        <v>:</v>
-      </c>
+    <row r="23" spans="3:26">
+      <c r="D23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="3:16">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+    <row r="24" spans="3:26">
+      <c r="D24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="M24" s="10"/>
       <c r="N24" s="3"/>
       <c r="P24" s="18" t="str">
-        <f>D24&amp;":"&amp;E24&amp;IF(F24=1,"(PK)","")&amp;IF(I24=1,"(FK)","")</f>
-        <v>:</v>
-      </c>
+        <f t="shared" ref="P24:P28" si="4">IF(E24="","",D24&amp;":"&amp;E24&amp;IF(F24=1,"(PK)","")&amp;IF(I24=1,"(FK)",""))</f>
+        <v>作業者コード:worker_code(PK)</v>
+      </c>
+      <c r="R24" s="37" t="str">
+        <f>D24</f>
+        <v>作業者コード</v>
+      </c>
+      <c r="S24" s="37" t="str">
+        <f>E24</f>
+        <v>worker_code</v>
+      </c>
+      <c r="T24" s="37" t="str">
+        <f>L24</f>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U24" s="37" t="str">
+        <f t="shared" ref="U24:U25" si="5">IF(G24=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V24" s="37">
+        <f>IF(F24="","",F24)</f>
+        <v>1</v>
+      </c>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
     </row>
-    <row r="25" spans="3:16">
-      <c r="P25" s="17"/>
+    <row r="25" spans="3:26">
+      <c r="D25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="3"/>
+      <c r="P25" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>作業者名称:worker_name</v>
+      </c>
+      <c r="R25" s="37" t="str">
+        <f>D25</f>
+        <v>作業者名称</v>
+      </c>
+      <c r="S25" s="37" t="str">
+        <f>E25</f>
+        <v>worker_name</v>
+      </c>
+      <c r="T25" s="37" t="str">
+        <f>L25</f>
+        <v>VARCHAR2(40)</v>
+      </c>
+      <c r="U25" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V25" s="37" t="str">
+        <f t="shared" ref="V25" si="6">IF(F25="","",F25)</f>
+        <v/>
+      </c>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
     </row>
-    <row r="26" spans="3:16">
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <f>_xlfn.XLOOKUP(C26,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f>_xlfn.XLOOKUP($C26,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="17" t="str">
-        <f>"■"&amp;D26&amp;":"&amp;E26</f>
-        <v>■0:0</v>
+    <row r="26" spans="3:26">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="3"/>
+      <c r="P26" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
-    <row r="27" spans="3:16">
-      <c r="D27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" s="17"/>
+    <row r="27" spans="3:26">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="3"/>
+      <c r="P27" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="28" spans="3:16">
+    <row r="28" spans="3:26">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -14640,103 +14828,266 @@
       <c r="M28" s="10"/>
       <c r="N28" s="3"/>
       <c r="P28" s="18" t="str">
-        <f t="shared" ref="P28:P33" si="0">D28&amp;":"&amp;E28&amp;IF(F28=1,"(PK)","")&amp;IF(I28=1,"(FK)","")</f>
-        <v>:</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
-    <row r="29" spans="3:16">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="3"/>
-      <c r="P29" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>:</v>
-      </c>
+    <row r="29" spans="3:26">
+      <c r="P29" s="17"/>
     </row>
-    <row r="30" spans="3:16">
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="3"/>
-      <c r="P30" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>:</v>
+    <row r="30" spans="3:26">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f>_xlfn.XLOOKUP(C30,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>勤務予定マスタ</v>
+      </c>
+      <c r="E30" t="str">
+        <f>_xlfn.XLOOKUP($C30,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_working_time_plan_mst</v>
+      </c>
+      <c r="P30" s="17" t="str">
+        <f>"■"&amp;D30&amp;":"&amp;E30</f>
+        <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
       </c>
     </row>
-    <row r="31" spans="3:16">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="3"/>
-      <c r="P31" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>:</v>
-      </c>
+    <row r="31" spans="3:26">
+      <c r="D31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="3:16">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+    <row r="32" spans="3:26">
+      <c r="D32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3" t="str">
+        <f>L24</f>
+        <v>VARCHAR2(20)</v>
+      </c>
       <c r="M32" s="10"/>
       <c r="N32" s="3"/>
       <c r="P32" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>:</v>
-      </c>
+        <f t="shared" ref="P32:P36" si="7">IF(E32="","",D32&amp;":"&amp;E32&amp;IF(F32=1,"(PK)","")&amp;IF(I32=1,"(FK)",""))</f>
+        <v>作業者コード:worker_code(PK)</v>
+      </c>
+      <c r="R32" s="37" t="str">
+        <f t="shared" ref="R32:R34" si="8">D32</f>
+        <v>作業者コード</v>
+      </c>
+      <c r="S32" s="37" t="str">
+        <f t="shared" ref="S32:S34" si="9">E32</f>
+        <v>worker_code</v>
+      </c>
+      <c r="T32" s="37" t="str">
+        <f t="shared" ref="T32:T34" si="10">L32</f>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U32" s="37" t="str">
+        <f t="shared" ref="U32:U34" si="11">IF(G32=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V32" s="37">
+        <f t="shared" ref="V32:V34" si="12">IF(F32="","",F32)</f>
+        <v>1</v>
+      </c>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
     </row>
-    <row r="33" spans="4:16">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+    <row r="33" spans="4:26">
+      <c r="D33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="M33" s="10"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="P33" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>:</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>曜日番号:weekday</v>
+      </c>
+      <c r="R33" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>曜日番号</v>
+      </c>
+      <c r="S33" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>weekday</v>
+      </c>
+      <c r="T33" s="37" t="str">
+        <f t="shared" si="10"/>
+        <v>NUMBER(1,0)</v>
+      </c>
+      <c r="U33" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V33" s="37">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
     </row>
-    <row r="34" spans="4:16">
-      <c r="P34" s="17"/>
+    <row r="34" spans="4:26">
+      <c r="D34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="3"/>
+      <c r="P34" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>勤務時間:working_time</v>
+      </c>
+      <c r="R34" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>勤務時間</v>
+      </c>
+      <c r="S34" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>working_time</v>
+      </c>
+      <c r="T34" s="37" t="str">
+        <f t="shared" si="10"/>
+        <v>NUMBER(4,2)</v>
+      </c>
+      <c r="U34" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V34" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+    </row>
+    <row r="35" spans="4:26">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="3"/>
+      <c r="P35" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:26">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="3"/>
+      <c r="P36" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:26">
+      <c r="P37" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P15:P16 P20:P24 P28:P33">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P15)))</formula>
+  <conditionalFormatting sqref="P24:P28 P32:P36 P16:P20">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C858B649-C776-4326-B619-61D93EEFD573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2621B506-8549-41A8-85D9-A748A614158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="208">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1242,9 +1242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
     <t>↓ER図作成用</t>
     <rPh sb="3" eb="4">
       <t>ズ</t>
@@ -1326,6 +1323,130 @@
     <rPh sb="3" eb="4">
       <t>カタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者コード</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日番号</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weekday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:日曜、2:月曜・・・7:土曜</t>
+    <rPh sb="2" eb="4">
+      <t>ニチヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務時間</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>working_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務予定マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名称には、先頭に「tmp」（template）を付与する。</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_working_time_plan_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者マスタ</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_worker_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worker_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者名称</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(1,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(4,2)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1708,6 +1829,16 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1846,16 +1977,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -12286,7 +12407,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$26:$P$33" spid="_x0000_s9109"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$36" spid="_x0000_s9142"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12351,7 +12472,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$16" spid="_x0000_s9110"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$14:$P$17" spid="_x0000_s9143"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12416,7 +12537,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$18:$P$24" spid="_x0000_s9111"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$22:$P$28" spid="_x0000_s9144"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12562,12 +12683,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C5:E10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="C5:E10" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="C6:E11" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13165,7 +13286,7 @@
   </sheetPr>
   <dimension ref="A1:BE10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
@@ -13209,9 +13330,7 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
@@ -14137,7 +14256,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
@@ -14178,216 +14297,183 @@
       </c>
     </row>
     <row r="3" spans="1:26">
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
       <c r="N3" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="C5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>73</v>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>166</v>
+      <c r="C6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="8" spans="1:26">
       <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="9" spans="1:26">
       <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:26">
       <c r="C10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="12" spans="1:26">
-      <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" t="s">
-        <v>178</v>
-      </c>
-      <c r="R12" t="s">
-        <v>179</v>
-      </c>
+    <row r="11" spans="1:26">
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="str">
-        <f>_xlfn.XLOOKUP(C13,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>サンプルマスタ</v>
-      </c>
-      <c r="E13" t="str">
-        <f>_xlfn.XLOOKUP($C13,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_sample_mst</v>
-      </c>
-      <c r="P13" s="17" t="str">
-        <f>"■"&amp;D13&amp;":"&amp;E13</f>
-        <v>■サンプルマスタ:tmp_sample_mst</v>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s">
+        <v>177</v>
       </c>
       <c r="R13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S13" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" t="s">
-        <v>180</v>
-      </c>
-      <c r="U13" t="s">
-        <v>181</v>
-      </c>
-      <c r="V13" t="s">
-        <v>182</v>
-      </c>
-      <c r="W13" t="s">
-        <v>184</v>
-      </c>
-      <c r="X13" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="D14" s="9" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <f>_xlfn.XLOOKUP(C14,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>サンプルマスタ</v>
+      </c>
+      <c r="E14" t="str">
+        <f>_xlfn.XLOOKUP($C14,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_sample_mst</v>
+      </c>
+      <c r="P14" s="17" t="str">
+        <f>"■"&amp;D14&amp;":"&amp;E14</f>
+        <v>■サンプルマスタ:tmp_sample_mst</v>
+      </c>
+      <c r="R14" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="S14" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="17"/>
+      <c r="T14" t="s">
+        <v>179</v>
+      </c>
+      <c r="U14" t="s">
+        <v>180</v>
+      </c>
+      <c r="V14" t="s">
+        <v>181</v>
+      </c>
+      <c r="W14" t="s">
+        <v>183</v>
+      </c>
+      <c r="X14" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="D15" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="3"/>
-      <c r="P15" s="18" t="str">
-        <f>D15&amp;":"&amp;E15&amp;IF(F15=1,"(PK)","")&amp;IF(I15=1,"(FK)","")</f>
-        <v>サンプルコード:sample_code(PK)</v>
-      </c>
-      <c r="R15" s="37" t="str">
-        <f>D15</f>
-        <v>サンプルコード</v>
-      </c>
-      <c r="S15" s="37" t="str">
-        <f>E15</f>
-        <v>sample_code</v>
-      </c>
-      <c r="T15" s="37" t="str">
-        <f>L15</f>
-        <v>VARCHAR2(20)</v>
-      </c>
-      <c r="U15" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="V15" s="37">
-        <f>IF(F15=1,1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
+      <c r="D15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:26">
       <c r="D16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
       <c r="G16" s="3">
         <v>1</v>
       </c>
@@ -14398,95 +14484,125 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="3"/>
       <c r="P16" s="18" t="str">
-        <f>D16&amp;":"&amp;E16&amp;IF(F16=1,"(PK)","")&amp;IF(I16=1,"(FK)","")</f>
-        <v>サンプル名称:sample_name</v>
+        <f t="shared" ref="P16:P17" si="0">IF(E16="","",D16&amp;":"&amp;E16&amp;IF(F16=1,"(PK)","")&amp;IF(I16=1,"(FK)",""))</f>
+        <v>サンプルコード:sample_code(PK)</v>
       </c>
       <c r="R16" s="37" t="str">
         <f>D16</f>
-        <v>サンプル名称</v>
+        <v>サンプルコード</v>
       </c>
       <c r="S16" s="37" t="str">
         <f>E16</f>
-        <v>sample_name</v>
+        <v>sample_code</v>
       </c>
       <c r="T16" s="37" t="str">
         <f>L16</f>
-        <v>VARCHAR2(40)</v>
-      </c>
-      <c r="U16" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="V16" s="37" t="str">
-        <f>IF(F16=1,1,"")</f>
-        <v/>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U16" s="37" t="str">
+        <f>IF(G16=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V16" s="37">
+        <f>IF(F16="","",F16)</f>
+        <v>1</v>
       </c>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
     </row>
-    <row r="17" spans="3:16">
-      <c r="P17" s="17"/>
+    <row r="17" spans="3:26">
+      <c r="D17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>サンプル名称:sample_name</v>
+      </c>
+      <c r="R17" s="37" t="str">
+        <f>D17</f>
+        <v>サンプル名称</v>
+      </c>
+      <c r="S17" s="37" t="str">
+        <f>E17</f>
+        <v>sample_name</v>
+      </c>
+      <c r="T17" s="37" t="str">
+        <f>L17</f>
+        <v>VARCHAR2(40)</v>
+      </c>
+      <c r="U17" s="37" t="str">
+        <f t="shared" ref="U17" si="1">IF(G17=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V17" s="37" t="str">
+        <f t="shared" ref="V17" si="2">IF(F17="","",F17)</f>
+        <v/>
+      </c>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
     </row>
-    <row r="18" spans="3:16">
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <f>_xlfn.XLOOKUP(C18,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f>_xlfn.XLOOKUP($C18,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="17" t="str">
-        <f>"■"&amp;D18&amp;":"&amp;E18</f>
-        <v>■0:0</v>
+    <row r="18" spans="3:26">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="18" t="str">
+        <f>IF(E18="","",D18&amp;":"&amp;E18&amp;IF(F18=1,"(PK)","")&amp;IF(I18=1,"(FK)",""))</f>
+        <v/>
       </c>
     </row>
-    <row r="19" spans="3:16">
-      <c r="D19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="17"/>
+    <row r="19" spans="3:26">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="18" t="str">
+        <f t="shared" ref="P19:P20" si="3">IF(E19="","",D19&amp;":"&amp;E19&amp;IF(F19=1,"(PK)","")&amp;IF(I19=1,"(FK)",""))</f>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="3:16">
+    <row r="20" spans="3:26">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -14499,135 +14615,205 @@
       <c r="M20" s="10"/>
       <c r="N20" s="3"/>
       <c r="P20" s="18" t="str">
-        <f>D20&amp;":"&amp;E20&amp;IF(F20=1,"(PK)","")&amp;IF(I20=1,"(FK)","")</f>
-        <v>:</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
-    <row r="21" spans="3:16">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="3"/>
-      <c r="P21" s="18" t="str">
-        <f>D21&amp;":"&amp;E21&amp;IF(F21=1,"(PK)","")&amp;IF(I21=1,"(FK)","")</f>
-        <v>:</v>
-      </c>
+    <row r="21" spans="3:26">
+      <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="3:16">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="3"/>
-      <c r="P22" s="18" t="str">
-        <f>D22&amp;":"&amp;E22&amp;IF(F22=1,"(PK)","")&amp;IF(I22=1,"(FK)","")</f>
-        <v>:</v>
+    <row r="22" spans="3:26">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="str">
+        <f>_xlfn.XLOOKUP(C22,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>作業者マスタ</v>
+      </c>
+      <c r="E22" t="str">
+        <f>_xlfn.XLOOKUP($C22,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_worker_mst</v>
+      </c>
+      <c r="P22" s="17" t="str">
+        <f>"■"&amp;D22&amp;":"&amp;E22</f>
+        <v>■作業者マスタ:tmp_worker_mst</v>
       </c>
     </row>
-    <row r="23" spans="3:16">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="3"/>
-      <c r="P23" s="18" t="str">
-        <f>D23&amp;":"&amp;E23&amp;IF(F23=1,"(PK)","")&amp;IF(I23=1,"(FK)","")</f>
-        <v>:</v>
-      </c>
+    <row r="23" spans="3:26">
+      <c r="D23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="3:16">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+    <row r="24" spans="3:26">
+      <c r="D24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="M24" s="10"/>
       <c r="N24" s="3"/>
       <c r="P24" s="18" t="str">
-        <f>D24&amp;":"&amp;E24&amp;IF(F24=1,"(PK)","")&amp;IF(I24=1,"(FK)","")</f>
-        <v>:</v>
-      </c>
+        <f t="shared" ref="P24:P28" si="4">IF(E24="","",D24&amp;":"&amp;E24&amp;IF(F24=1,"(PK)","")&amp;IF(I24=1,"(FK)",""))</f>
+        <v>作業者コード:worker_code(PK)</v>
+      </c>
+      <c r="R24" s="37" t="str">
+        <f>D24</f>
+        <v>作業者コード</v>
+      </c>
+      <c r="S24" s="37" t="str">
+        <f>E24</f>
+        <v>worker_code</v>
+      </c>
+      <c r="T24" s="37" t="str">
+        <f>L24</f>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U24" s="37" t="str">
+        <f t="shared" ref="U24:U25" si="5">IF(G24=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V24" s="37">
+        <f>IF(F24="","",F24)</f>
+        <v>1</v>
+      </c>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
     </row>
-    <row r="25" spans="3:16">
-      <c r="P25" s="17"/>
+    <row r="25" spans="3:26">
+      <c r="D25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="3"/>
+      <c r="P25" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>作業者名称:worker_name</v>
+      </c>
+      <c r="R25" s="37" t="str">
+        <f>D25</f>
+        <v>作業者名称</v>
+      </c>
+      <c r="S25" s="37" t="str">
+        <f>E25</f>
+        <v>worker_name</v>
+      </c>
+      <c r="T25" s="37" t="str">
+        <f>L25</f>
+        <v>VARCHAR2(40)</v>
+      </c>
+      <c r="U25" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V25" s="37" t="str">
+        <f t="shared" ref="V25" si="6">IF(F25="","",F25)</f>
+        <v/>
+      </c>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
     </row>
-    <row r="26" spans="3:16">
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <f>_xlfn.XLOOKUP(C26,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f>_xlfn.XLOOKUP($C26,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="17" t="str">
-        <f>"■"&amp;D26&amp;":"&amp;E26</f>
-        <v>■0:0</v>
+    <row r="26" spans="3:26">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="3"/>
+      <c r="P26" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
-    <row r="27" spans="3:16">
-      <c r="D27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L27" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" s="17"/>
+    <row r="27" spans="3:26">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="3"/>
+      <c r="P27" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="28" spans="3:16">
+    <row r="28" spans="3:26">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -14640,103 +14826,266 @@
       <c r="M28" s="10"/>
       <c r="N28" s="3"/>
       <c r="P28" s="18" t="str">
-        <f t="shared" ref="P28:P33" si="0">D28&amp;":"&amp;E28&amp;IF(F28=1,"(PK)","")&amp;IF(I28=1,"(FK)","")</f>
-        <v>:</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
-    <row r="29" spans="3:16">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="3"/>
-      <c r="P29" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>:</v>
-      </c>
+    <row r="29" spans="3:26">
+      <c r="P29" s="17"/>
     </row>
-    <row r="30" spans="3:16">
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="3"/>
-      <c r="P30" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>:</v>
+    <row r="30" spans="3:26">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="str">
+        <f>_xlfn.XLOOKUP(C30,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>勤務予定マスタ</v>
+      </c>
+      <c r="E30" t="str">
+        <f>_xlfn.XLOOKUP($C30,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_working_time_plan_mst</v>
+      </c>
+      <c r="P30" s="17" t="str">
+        <f>"■"&amp;D30&amp;":"&amp;E30</f>
+        <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
       </c>
     </row>
-    <row r="31" spans="3:16">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="3"/>
-      <c r="P31" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>:</v>
-      </c>
+    <row r="31" spans="3:26">
+      <c r="D31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="3:16">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+    <row r="32" spans="3:26">
+      <c r="D32" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3" t="str">
+        <f>L24</f>
+        <v>VARCHAR2(20)</v>
+      </c>
       <c r="M32" s="10"/>
       <c r="N32" s="3"/>
       <c r="P32" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>:</v>
-      </c>
+        <f t="shared" ref="P32:P36" si="7">IF(E32="","",D32&amp;":"&amp;E32&amp;IF(F32=1,"(PK)","")&amp;IF(I32=1,"(FK)",""))</f>
+        <v>作業者コード:worker_code(PK)</v>
+      </c>
+      <c r="R32" s="37" t="str">
+        <f t="shared" ref="R32:R34" si="8">D32</f>
+        <v>作業者コード</v>
+      </c>
+      <c r="S32" s="37" t="str">
+        <f t="shared" ref="S32:S34" si="9">E32</f>
+        <v>worker_code</v>
+      </c>
+      <c r="T32" s="37" t="str">
+        <f t="shared" ref="T32:T34" si="10">L32</f>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U32" s="37" t="str">
+        <f t="shared" ref="U32:U34" si="11">IF(G32=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V32" s="37">
+        <f t="shared" ref="V32:V34" si="12">IF(F32="","",F32)</f>
+        <v>1</v>
+      </c>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
     </row>
-    <row r="33" spans="4:16">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+    <row r="33" spans="4:26">
+      <c r="D33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="M33" s="10"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="P33" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>:</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>曜日番号:weekday</v>
+      </c>
+      <c r="R33" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>曜日番号</v>
+      </c>
+      <c r="S33" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>weekday</v>
+      </c>
+      <c r="T33" s="37" t="str">
+        <f t="shared" si="10"/>
+        <v>NUMBER(1,0)</v>
+      </c>
+      <c r="U33" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V33" s="37">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
     </row>
-    <row r="34" spans="4:16">
-      <c r="P34" s="17"/>
+    <row r="34" spans="4:26">
+      <c r="D34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="3"/>
+      <c r="P34" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>勤務時間:working_time</v>
+      </c>
+      <c r="R34" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>勤務時間</v>
+      </c>
+      <c r="S34" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>working_time</v>
+      </c>
+      <c r="T34" s="37" t="str">
+        <f t="shared" si="10"/>
+        <v>NUMBER(4,2)</v>
+      </c>
+      <c r="U34" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="V34" s="37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+    </row>
+    <row r="35" spans="4:26">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="3"/>
+      <c r="P35" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:26">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="3"/>
+      <c r="P36" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:26">
+      <c r="P37" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P15:P16 P20:P24 P28:P33">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P15)))</formula>
+  <conditionalFormatting sqref="P24:P28 P32:P36 P16:P20">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2621B506-8549-41A8-85D9-A748A614158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A541701-CA03-4DA6-BA0F-56C6F284BA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="215">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1447,6 +1447,58 @@
   </si>
   <si>
     <t>NUMBER(4,2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル2画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル3画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample002View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample003View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日:2023/01/15</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者マスタを編集</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務予定マスタを編集</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1454,7 +1506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1829,16 +1881,6 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1977,6 +2019,16 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -12407,7 +12459,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$36" spid="_x0000_s9142"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$36" spid="_x0000_s9145"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12472,7 +12524,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$14:$P$17" spid="_x0000_s9143"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$14:$P$17" spid="_x0000_s9146"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12537,7 +12589,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$22:$P$28" spid="_x0000_s9144"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$22:$P$28" spid="_x0000_s9147"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12683,12 +12735,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="C6:E11" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12995,18 +13047,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.3">
+    <row r="1" spans="1:3" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1</v>
       </c>
@@ -13014,7 +13066,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>2</v>
       </c>
@@ -13022,7 +13074,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>3</v>
       </c>
@@ -13047,7 +13099,7 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13062,32 +13114,32 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="25" t="s">
         <v>159</v>
       </c>
@@ -13106,7 +13158,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="18.9375" customWidth="1"/>
@@ -13114,25 +13166,25 @@
     <col min="5" max="5" width="27.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3">
+    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>132</v>
       </c>
@@ -13140,7 +13192,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -13148,7 +13200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13156,7 +13208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -13164,7 +13216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -13178,7 +13230,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>131</v>
       </c>
@@ -13190,7 +13242,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D14" t="str">
         <f>$D$5&amp;".Infrastructure"</f>
         <v>Template2.Infrastructure</v>
@@ -13202,7 +13254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D15" t="str">
         <f>$D$5&amp;".Domain"</f>
         <v>Template2.Domain</v>
@@ -13214,7 +13266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D16" t="str">
         <f>$D$5&amp;"Test.Tests"</f>
         <v>Template2Test.Tests</v>
@@ -13226,7 +13278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -13234,7 +13286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>84</v>
       </c>
@@ -13245,12 +13297,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E21" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>85</v>
       </c>
@@ -13258,17 +13310,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E23" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E24" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E25" s="21" t="s">
         <v>125</v>
       </c>
@@ -13290,27 +13342,27 @@
       <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="19.3">
+    <row r="1" spans="1:57" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.4">
       <c r="BE2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.4">
       <c r="BE3" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -13332,7 +13384,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="17.3125" bestFit="1" customWidth="1"/>
@@ -13343,17 +13395,17 @@
     <col min="8" max="8" width="80.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.3">
+    <row r="1" spans="1:8" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>18</v>
       </c>
@@ -13361,7 +13413,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -13377,7 +13429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.9">
+    <row r="6" spans="1:8" ht="30.9" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
@@ -13393,7 +13445,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.149999999999999">
+    <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
@@ -13407,7 +13459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.149999999999999">
+    <row r="8" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -13419,7 +13471,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="17.149999999999999">
+    <row r="9" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
         <v>28</v>
@@ -13433,7 +13485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.149999999999999">
+    <row r="10" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -13447,7 +13499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.149999999999999">
+    <row r="11" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
@@ -13461,7 +13513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.149999999999999">
+    <row r="12" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -13475,7 +13527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.149999999999999">
+    <row r="13" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
         <v>28</v>
@@ -13489,7 +13541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.149999999999999">
+    <row r="14" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>28</v>
@@ -13503,7 +13555,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.149999999999999">
+    <row r="15" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -13517,7 +13569,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.149999999999999">
+    <row r="16" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
@@ -13529,7 +13581,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="3:8" ht="30.9">
+    <row r="17" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>32</v>
@@ -13543,7 +13595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>32</v>
@@ -13557,7 +13609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="17.149999999999999">
+    <row r="19" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
@@ -13573,7 +13625,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -13587,7 +13639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="17.149999999999999">
+    <row r="21" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
         <v>28</v>
@@ -13601,7 +13653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -13615,7 +13667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>32</v>
@@ -13629,7 +13681,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="17.149999999999999">
+    <row r="24" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
@@ -13645,7 +13697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="17.149999999999999">
+    <row r="25" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
         <v>28</v>
@@ -13657,7 +13709,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="3:8" ht="17.149999999999999">
+    <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
@@ -13671,7 +13723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="17.149999999999999">
+    <row r="27" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
@@ -13685,7 +13737,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="17.149999999999999">
+    <row r="28" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
         <v>28</v>
@@ -13699,7 +13751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="3:8">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -13711,7 +13763,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="3:8" ht="17.149999999999999">
+    <row r="30" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C30" s="3"/>
       <c r="D30" s="4" t="s">
         <v>28</v>
@@ -13725,7 +13777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="30.9">
+    <row r="31" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
         <v>32</v>
@@ -13739,7 +13791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="17.149999999999999">
+    <row r="32" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
@@ -13755,7 +13807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="17.149999999999999">
+    <row r="33" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C33" s="3"/>
       <c r="D33" s="4" t="s">
         <v>28</v>
@@ -13781,10 +13833,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -13794,17 +13846,17 @@
     <col min="6" max="6" width="51.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3">
+    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>107</v>
       </c>
@@ -13821,7 +13873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.3">
+    <row r="6" spans="1:6" ht="46.3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>110</v>
       </c>
@@ -13835,7 +13887,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.9">
+    <row r="7" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>97</v>
       </c>
@@ -13852,7 +13904,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>97</v>
       </c>
@@ -13866,7 +13918,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.9">
+    <row r="9" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>97</v>
       </c>
@@ -13880,7 +13932,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>97</v>
       </c>
@@ -13910,11 +13962,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="4.5625" customWidth="1"/>
@@ -13925,22 +13977,22 @@
     <col min="7" max="7" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3">
+    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="30" t="s">
         <v>67</v>
       </c>
@@ -13960,7 +14012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>1</v>
@@ -13977,7 +14029,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>2</v>
@@ -13995,7 +14047,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>3</v>
@@ -14015,35 +14067,47 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>4</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="E9" s="23" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D9&amp;"Model")</f>
-        <v/>
+        <v>Sample002ViewModel</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>5</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="E10" s="23" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D10&amp;"Model")</f>
-        <v/>
+        <v>Sample003ViewModel</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>6</v>
@@ -14057,7 +14121,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
@@ -14071,7 +14135,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
@@ -14085,7 +14149,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
@@ -14099,7 +14163,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
@@ -14113,7 +14177,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
@@ -14127,7 +14191,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="26">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
@@ -14158,7 +14222,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="12.0625" customWidth="1"/>
@@ -14168,17 +14232,17 @@
     <col min="6" max="6" width="47.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3">
+    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>107</v>
       </c>
@@ -14195,7 +14259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>143</v>
       </c>
@@ -14204,7 +14268,7 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="11" t="s">
         <v>144</v>
       </c>
@@ -14212,7 +14276,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="11" t="s">
         <v>146</v>
       </c>
@@ -14221,11 +14285,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="30.9">
+    <row r="10" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>140</v>
       </c>
@@ -14234,7 +14298,7 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>141</v>
       </c>
@@ -14258,12 +14322,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="4.4375" customWidth="1"/>
@@ -14286,17 +14350,17 @@
     <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="19.3">
+    <row r="1" spans="1:26" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="N2" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>198</v>
       </c>
@@ -14307,15 +14371,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C6" s="19" t="s">
         <v>67</v>
       </c>
@@ -14326,7 +14390,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -14337,7 +14401,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -14348,7 +14412,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -14359,21 +14423,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>81</v>
       </c>
@@ -14384,7 +14448,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C14">
         <v>1</v>
       </c>
@@ -14428,7 +14492,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="D15" s="9" t="s">
         <v>72</v>
       </c>
@@ -14464,7 +14528,7 @@
       </c>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="D16" s="3" t="s">
         <v>167</v>
       </c>
@@ -14517,7 +14581,7 @@
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
     </row>
-    <row r="17" spans="3:26">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D17" s="3" t="s">
         <v>168</v>
       </c>
@@ -14568,7 +14632,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="37"/>
     </row>
-    <row r="18" spans="3:26">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -14585,7 +14649,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:26">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -14602,7 +14666,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:26">
+    <row r="20" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -14619,10 +14683,10 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="3:26">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.4">
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="3:26">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>2</v>
       </c>
@@ -14639,7 +14703,7 @@
         <v>■作業者マスタ:tmp_worker_mst</v>
       </c>
     </row>
-    <row r="23" spans="3:26">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D23" s="9" t="s">
         <v>72</v>
       </c>
@@ -14675,7 +14739,7 @@
       </c>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="3:26">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D24" s="3" t="s">
         <v>204</v>
       </c>
@@ -14728,7 +14792,7 @@
       <c r="Y24" s="37"/>
       <c r="Z24" s="37"/>
     </row>
-    <row r="25" spans="3:26">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D25" s="3" t="s">
         <v>205</v>
       </c>
@@ -14779,7 +14843,7 @@
       <c r="Y25" s="37"/>
       <c r="Z25" s="37"/>
     </row>
-    <row r="26" spans="3:26">
+    <row r="26" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -14796,7 +14860,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:26">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -14813,7 +14877,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:26">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -14830,10 +14894,10 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:26">
+    <row r="29" spans="3:26" x14ac:dyDescent="0.4">
       <c r="P29" s="17"/>
     </row>
-    <row r="30" spans="3:26">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C30">
         <v>3</v>
       </c>
@@ -14850,7 +14914,7 @@
         <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
       </c>
     </row>
-    <row r="31" spans="3:26">
+    <row r="31" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D31" s="9" t="s">
         <v>72</v>
       </c>
@@ -14886,7 +14950,7 @@
       </c>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="3:26">
+    <row r="32" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D32" s="3" t="s">
         <v>189</v>
       </c>
@@ -14940,7 +15004,7 @@
       <c r="Y32" s="37"/>
       <c r="Z32" s="37"/>
     </row>
-    <row r="33" spans="4:26">
+    <row r="33" spans="4:26" x14ac:dyDescent="0.4">
       <c r="D33" s="3" t="s">
         <v>190</v>
       </c>
@@ -14995,7 +15059,7 @@
       <c r="Y33" s="37"/>
       <c r="Z33" s="37"/>
     </row>
-    <row r="34" spans="4:26">
+    <row r="34" spans="4:26" x14ac:dyDescent="0.4">
       <c r="D34" s="3" t="s">
         <v>193</v>
       </c>
@@ -15044,7 +15108,7 @@
       <c r="Y34" s="37"/>
       <c r="Z34" s="37"/>
     </row>
-    <row r="35" spans="4:26">
+    <row r="35" spans="4:26" x14ac:dyDescent="0.4">
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -15061,7 +15125,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:26">
+    <row r="36" spans="4:26" x14ac:dyDescent="0.4">
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -15078,13 +15142,13 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:26">
+    <row r="37" spans="4:26" x14ac:dyDescent="0.4">
       <c r="P37" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P24:P28 P32:P36 P16:P20">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P16)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15104,22 +15168,22 @@
       <selection activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="19.3">
+    <row r="1" spans="1:52" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ2" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ3" s="7" t="s">
         <v>155</v>
       </c>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A541701-CA03-4DA6-BA0F-56C6F284BA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DA408C-B76A-4D77-9E22-BC063035340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -12459,7 +12459,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$36" spid="_x0000_s9145"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$36" spid="_x0000_s9154"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12524,7 +12524,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$14:$P$17" spid="_x0000_s9146"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$14:$P$17" spid="_x0000_s9155"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12589,7 +12589,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$22:$P$28" spid="_x0000_s9147"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$22:$P$28" spid="_x0000_s9156"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13962,7 +13962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -14322,7 +14322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DA408C-B76A-4D77-9E22-BC063035340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B664EAED-4E0B-45CD-9B5E-3F8DA11BB833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="251">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1108,13 +1108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新日:-</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成日:2022/12/14</t>
     <rPh sb="0" eb="3">
       <t>サクセイニチ</t>
@@ -1255,13 +1248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>↓A5:SQLMk2用</t>
-    <rPh sb="10" eb="11">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ型</t>
     <rPh sb="3" eb="4">
       <t>ガタ</t>
@@ -1498,6 +1484,238 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル4画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample004View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像と動画のマスタ情報一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル4ページ編集画面</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample004PageEditingView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample004PagePreviewView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル4ページプレビュー画面</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_page_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページID</t>
+  </si>
+  <si>
+    <t>page_id</t>
+  </si>
+  <si>
+    <t>ページ名称</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page_name</t>
+  </si>
+  <si>
+    <t>動画リンク</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movie_link</t>
+  </si>
+  <si>
+    <t>画像リンク</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_link</t>
+  </si>
+  <si>
+    <t>画像ページNo</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_page_no</t>
+  </si>
+  <si>
+    <t>スライド停止時間</t>
+    <rPh sb="4" eb="6">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slide_waiting_time</t>
+  </si>
+  <si>
+    <t>説明1</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>note1</t>
+  </si>
+  <si>
+    <t>説明2</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>note2</t>
+  </si>
+  <si>
+    <t>説明3</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>note3</t>
+  </si>
+  <si>
+    <t>↓A5:SQLMk2用（Oracle）</t>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採番テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_numbering_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採番項目</t>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終発行番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_insert_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numbering_item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日:2023/01/22</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日:2023/01/22</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像と動画のマスタ情報を編集</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像と動画のマスタ情報のプレビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1580,10 +1798,11 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1756,7 +1975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1781,9 +2000,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1795,12 +2011,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1835,38 +2045,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1874,12 +2054,295 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2021,143 +2484,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0000CC"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -2185,24 +2511,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -12459,7 +12767,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$36" spid="_x0000_s9154"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s9190"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12524,7 +12832,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$14:$P$17" spid="_x0000_s9155"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s9191"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12589,7 +12897,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$22:$P$28" spid="_x0000_s9156"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s9192"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12704,17 +13012,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="B5:G17" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="10">
       <calculatedColumnFormula>ROW(テーブル3[[#This Row],[No]])-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12735,12 +13043,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="C6:E11" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="C6:E15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13125,23 +13433,23 @@
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
-        <v>156</v>
+      <c r="B2" s="21" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
-        <v>157</v>
+      <c r="B3" s="17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" s="20" t="s">
-        <v>158</v>
+      <c r="B4" s="17" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
-        <v>159</v>
+      <c r="B5" s="22" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -13154,9 +13462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C07FD-A30E-4188-B351-61DF0FF68E85}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13173,12 +13479,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -13188,8 +13494,8 @@
       <c r="C5" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>162</v>
+      <c r="D5" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -13298,7 +13604,7 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="18" t="s">
         <v>149</v>
       </c>
     </row>
@@ -13311,17 +13617,17 @@
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="41" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="18" t="s">
         <v>125</v>
       </c>
     </row>
@@ -13338,7 +13644,7 @@
   </sheetPr>
   <dimension ref="A1:BE10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
@@ -13883,7 +14189,7 @@
       <c r="D6" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -13894,10 +14200,10 @@
       <c r="C7" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F7" t="s">
@@ -13914,7 +14220,7 @@
       <c r="D8" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>123</v>
       </c>
     </row>
@@ -13925,7 +14231,7 @@
       <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>151</v>
       </c>
       <c r="E9" t="s">
@@ -13962,254 +14268,274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5625" customWidth="1"/>
-    <col min="2" max="2" width="4.5625" customWidth="1"/>
-    <col min="3" max="3" width="22.8125" customWidth="1"/>
-    <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.6875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="2.5625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="4.5625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.8125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="14" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G2" s="7" t="s">
-        <v>172</v>
+      <c r="G2" s="27" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G3" s="7" t="s">
-        <v>212</v>
+      <c r="G3" s="27" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="26">
+      <c r="B6" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="26">
+      <c r="B7" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>2</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="23" t="str">
+      <c r="C7" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D7&amp;"Model")</f>
         <v>HomeViewModel</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="26">
+      <c r="B8" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>3</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="23" t="str">
+      <c r="C8" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D8&amp;"Model")</f>
         <v>Sample001ViewModel</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="28" t="s">
-        <v>173</v>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="26">
+      <c r="B9" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>4</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="23" t="str">
+      <c r="E9" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D9&amp;"Model")</f>
         <v>Sample002ViewModel</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="28" t="s">
-        <v>213</v>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="26">
+      <c r="B10" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>5</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="23" t="str">
+      <c r="E10" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D10&amp;"Model")</f>
         <v>Sample003ViewModel</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="28" t="s">
-        <v>214</v>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="26">
+      <c r="B11" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>6</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="23" t="str">
+      <c r="C11" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
-        <v/>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="28"/>
+        <v>Sample004ViewModel</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="26">
+      <c r="B12" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="23" t="str">
+      <c r="C12" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D12&amp;"Model")</f>
-        <v/>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="29"/>
+        <v>Sample004PageEditingViewModel</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="26">
+      <c r="B13" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="23" t="str">
+      <c r="C13" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D13&amp;"Model")</f>
-        <v/>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="29"/>
+        <v>Sample004PagePreviewViewModel</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="26">
+      <c r="B14" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="23" t="str">
+      <c r="C14" s="32"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D14&amp;"Model")</f>
         <v/>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="26">
+      <c r="B15" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="23" t="str">
+      <c r="C15" s="32"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D15&amp;"Model")</f>
         <v/>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="26">
+      <c r="B16" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="23" t="str">
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D16&amp;"Model")</f>
         <v/>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="26">
+      <c r="B17" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="23" t="str">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D17&amp;"Model")</f>
         <v/>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14266,47 +14592,47 @@
       <c r="D6" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="10"/>
       <c r="F8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>141</v>
       </c>
       <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" t="s">
         <v>163</v>
-      </c>
-      <c r="E12" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -14320,9 +14646,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -14350,806 +14676,1591 @@
     <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>242</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C13" s="3">
+        <v>7</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C15" s="3">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P18" t="s">
+        <v>176</v>
+      </c>
+      <c r="R18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f>_xlfn.XLOOKUP(C19,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>サンプルマスタ</v>
+      </c>
+      <c r="E19" t="str">
+        <f>_xlfn.XLOOKUP($C19,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_sample_mst</v>
+      </c>
+      <c r="P19" s="14" t="str">
+        <f>"■"&amp;D19&amp;":"&amp;E19</f>
+        <v>■サンプルマスタ:tmp_sample_mst</v>
+      </c>
+      <c r="R19" t="s">
+        <v>72</v>
+      </c>
+      <c r="S19" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s">
         <v>177</v>
       </c>
-      <c r="R13" t="s">
+      <c r="U19" t="s">
         <v>178</v>
       </c>
+      <c r="V19" t="s">
+        <v>179</v>
+      </c>
+      <c r="W19" t="s">
+        <v>181</v>
+      </c>
+      <c r="X19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C14">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="D14" t="str">
-        <f>_xlfn.XLOOKUP(C14,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>サンプルマスタ</v>
-      </c>
-      <c r="E14" t="str">
-        <f>_xlfn.XLOOKUP($C14,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_sample_mst</v>
-      </c>
-      <c r="P14" s="17" t="str">
-        <f>"■"&amp;D14&amp;":"&amp;E14</f>
-        <v>■サンプルマスタ:tmp_sample_mst</v>
-      </c>
-      <c r="R14" t="s">
-        <v>72</v>
-      </c>
-      <c r="S14" t="s">
-        <v>73</v>
-      </c>
-      <c r="T14" t="s">
-        <v>179</v>
-      </c>
-      <c r="U14" t="s">
-        <v>180</v>
-      </c>
-      <c r="V14" t="s">
-        <v>181</v>
-      </c>
-      <c r="W14" t="s">
-        <v>183</v>
-      </c>
-      <c r="X14" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="15" t="str">
+        <f t="shared" ref="P21:P22" si="0">IF(E21="","",D21&amp;":"&amp;E21&amp;IF(F21=1,"(PK)","")&amp;IF(I21=1,"(FK)",""))</f>
+        <v>サンプルコード:sample_code(PK)</v>
+      </c>
+      <c r="R21" s="24" t="str">
+        <f>D21</f>
+        <v>サンプルコード</v>
+      </c>
+      <c r="S21" s="24" t="str">
+        <f>E21</f>
+        <v>sample_code</v>
+      </c>
+      <c r="T21" s="24" t="str">
+        <f>L21</f>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U21" s="24" t="str">
+        <f>IF(G21=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V21" s="24">
+        <f>IF(F21="","",F21)</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="17"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="D16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="18" t="str">
-        <f t="shared" ref="P16:P17" si="0">IF(E16="","",D16&amp;":"&amp;E16&amp;IF(F16=1,"(PK)","")&amp;IF(I16=1,"(FK)",""))</f>
-        <v>サンプルコード:sample_code(PK)</v>
-      </c>
-      <c r="R16" s="37" t="str">
-        <f>D16</f>
-        <v>サンプルコード</v>
-      </c>
-      <c r="S16" s="37" t="str">
-        <f>E16</f>
-        <v>sample_code</v>
-      </c>
-      <c r="T16" s="37" t="str">
-        <f>L16</f>
-        <v>VARCHAR2(20)</v>
-      </c>
-      <c r="U16" s="37" t="str">
-        <f>IF(G16=1,"NOT NULL","")</f>
-        <v>NOT NULL</v>
-      </c>
-      <c r="V16" s="37">
-        <f>IF(F16="","",F16)</f>
-        <v>1</v>
-      </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="18" t="str">
+      <c r="M22" s="9"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>サンプル名称:sample_name</v>
       </c>
-      <c r="R17" s="37" t="str">
-        <f>D17</f>
+      <c r="R22" s="24" t="str">
+        <f>D22</f>
         <v>サンプル名称</v>
       </c>
-      <c r="S17" s="37" t="str">
-        <f>E17</f>
+      <c r="S22" s="24" t="str">
+        <f>E22</f>
         <v>sample_name</v>
       </c>
-      <c r="T17" s="37" t="str">
-        <f>L17</f>
+      <c r="T22" s="24" t="str">
+        <f>L22</f>
         <v>VARCHAR2(40)</v>
       </c>
-      <c r="U17" s="37" t="str">
-        <f t="shared" ref="U17" si="1">IF(G17=1,"NOT NULL","")</f>
+      <c r="U22" s="24" t="str">
+        <f t="shared" ref="U22" si="1">IF(G22=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
-      <c r="V17" s="37" t="str">
-        <f t="shared" ref="V17" si="2">IF(F17="","",F17)</f>
+      <c r="V22" s="24" t="str">
+        <f t="shared" ref="V22" si="2">IF(F22="","",F22)</f>
         <v/>
       </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="3"/>
-      <c r="P18" s="18" t="str">
-        <f>IF(E18="","",D18&amp;":"&amp;E18&amp;IF(F18=1,"(PK)","")&amp;IF(I18=1,"(FK)",""))</f>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="15" t="str">
+        <f>IF(E23="","",D23&amp;":"&amp;E23&amp;IF(F23=1,"(PK)","")&amp;IF(I23=1,"(FK)",""))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="18" t="str">
-        <f t="shared" ref="P19:P20" si="3">IF(E19="","",D19&amp;":"&amp;E19&amp;IF(F19=1,"(PK)","")&amp;IF(I19=1,"(FK)",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="3"/>
-      <c r="P20" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="P21" s="17"/>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="str">
-        <f>_xlfn.XLOOKUP(C22,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>作業者マスタ</v>
-      </c>
-      <c r="E22" t="str">
-        <f>_xlfn.XLOOKUP($C22,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_worker_mst</v>
-      </c>
-      <c r="P22" s="17" t="str">
-        <f>"■"&amp;D22&amp;":"&amp;E22</f>
-        <v>■作業者マスタ:tmp_worker_mst</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" s="17"/>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D24" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>160</v>
-      </c>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M24" s="10"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="9"/>
       <c r="N24" s="3"/>
-      <c r="P24" s="18" t="str">
-        <f t="shared" ref="P24:P28" si="4">IF(E24="","",D24&amp;":"&amp;E24&amp;IF(F24=1,"(PK)","")&amp;IF(I24=1,"(FK)",""))</f>
-        <v>作業者コード:worker_code(PK)</v>
-      </c>
-      <c r="R24" s="37" t="str">
-        <f>D24</f>
-        <v>作業者コード</v>
-      </c>
-      <c r="S24" s="37" t="str">
-        <f>E24</f>
-        <v>worker_code</v>
-      </c>
-      <c r="T24" s="37" t="str">
-        <f>L24</f>
-        <v>VARCHAR2(20)</v>
-      </c>
-      <c r="U24" s="37" t="str">
-        <f t="shared" ref="U24:U25" si="5">IF(G24=1,"NOT NULL","")</f>
-        <v>NOT NULL</v>
-      </c>
-      <c r="V24" s="37">
-        <f>IF(F24="","",F24)</f>
-        <v>1</v>
-      </c>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="P24" s="15" t="str">
+        <f t="shared" ref="P24:P25" si="3">IF(E24="","",D24&amp;":"&amp;E24&amp;IF(F24=1,"(PK)","")&amp;IF(I24=1,"(FK)",""))</f>
+        <v/>
+      </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D25" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>203</v>
-      </c>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="M25" s="10"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="3"/>
-      <c r="P25" s="18" t="str">
+      <c r="P25" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="str">
+        <f>_xlfn.XLOOKUP(C27,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>作業者マスタ</v>
+      </c>
+      <c r="E27" t="str">
+        <f>_xlfn.XLOOKUP($C27,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_worker_mst</v>
+      </c>
+      <c r="P27" s="14" t="str">
+        <f>"■"&amp;D27&amp;":"&amp;E27</f>
+        <v>■作業者マスタ:tmp_worker_mst</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D29" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="3"/>
+      <c r="P29" s="15" t="str">
+        <f t="shared" ref="P29:P33" si="4">IF(E29="","",D29&amp;":"&amp;E29&amp;IF(F29=1,"(PK)","")&amp;IF(I29=1,"(FK)",""))</f>
+        <v>作業者コード:worker_code(PK)</v>
+      </c>
+      <c r="R29" s="24" t="str">
+        <f>D29</f>
+        <v>作業者コード</v>
+      </c>
+      <c r="S29" s="24" t="str">
+        <f>E29</f>
+        <v>worker_code</v>
+      </c>
+      <c r="T29" s="24" t="str">
+        <f>L29</f>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U29" s="24" t="str">
+        <f t="shared" ref="U29:U30" si="5">IF(G29=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V29" s="24">
+        <f>IF(F29="","",F29)</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D30" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="3"/>
+      <c r="P30" s="15" t="str">
         <f t="shared" si="4"/>
         <v>作業者名称:worker_name</v>
       </c>
-      <c r="R25" s="37" t="str">
-        <f>D25</f>
+      <c r="R30" s="24" t="str">
+        <f>D30</f>
         <v>作業者名称</v>
       </c>
-      <c r="S25" s="37" t="str">
-        <f>E25</f>
+      <c r="S30" s="24" t="str">
+        <f>E30</f>
         <v>worker_name</v>
       </c>
-      <c r="T25" s="37" t="str">
-        <f>L25</f>
+      <c r="T30" s="24" t="str">
+        <f>L30</f>
         <v>VARCHAR2(40)</v>
       </c>
-      <c r="U25" s="37" t="str">
+      <c r="U30" s="24" t="str">
         <f t="shared" si="5"/>
         <v>NOT NULL</v>
       </c>
-      <c r="V25" s="37" t="str">
-        <f t="shared" ref="V25" si="6">IF(F25="","",F25)</f>
+      <c r="V30" s="24" t="str">
+        <f t="shared" ref="V30" si="6">IF(F30="","",F30)</f>
         <v/>
       </c>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
     </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="3"/>
-      <c r="P26" s="18" t="str">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="3"/>
+      <c r="P31" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="3"/>
-      <c r="P27" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="3"/>
-      <c r="P28" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="P29" s="17"/>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" t="str">
-        <f>_xlfn.XLOOKUP(C30,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>勤務予定マスタ</v>
-      </c>
-      <c r="E30" t="str">
-        <f>_xlfn.XLOOKUP($C30,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_working_time_plan_mst</v>
-      </c>
-      <c r="P30" s="17" t="str">
-        <f>"■"&amp;D30&amp;":"&amp;E30</f>
-        <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
-      </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D31" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P31" s="17"/>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D32" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>160</v>
-      </c>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3" t="str">
-        <f>L24</f>
-        <v>VARCHAR2(20)</v>
-      </c>
-      <c r="M32" s="10"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="9"/>
       <c r="N32" s="3"/>
-      <c r="P32" s="18" t="str">
-        <f t="shared" ref="P32:P36" si="7">IF(E32="","",D32&amp;":"&amp;E32&amp;IF(F32=1,"(PK)","")&amp;IF(I32=1,"(FK)",""))</f>
-        <v>作業者コード:worker_code(PK)</v>
-      </c>
-      <c r="R32" s="37" t="str">
-        <f t="shared" ref="R32:R34" si="8">D32</f>
-        <v>作業者コード</v>
-      </c>
-      <c r="S32" s="37" t="str">
-        <f t="shared" ref="S32:S34" si="9">E32</f>
-        <v>worker_code</v>
-      </c>
-      <c r="T32" s="37" t="str">
-        <f t="shared" ref="T32:T34" si="10">L32</f>
-        <v>VARCHAR2(20)</v>
-      </c>
-      <c r="U32" s="37" t="str">
-        <f t="shared" ref="U32:U34" si="11">IF(G32=1,"NOT NULL","")</f>
-        <v>NOT NULL</v>
-      </c>
-      <c r="V32" s="37">
-        <f t="shared" ref="V32:V34" si="12">IF(F32="","",F32)</f>
-        <v>1</v>
-      </c>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
+      <c r="P32" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
-    <row r="33" spans="4:26" x14ac:dyDescent="0.4">
-      <c r="D33" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>196</v>
-      </c>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="P33" s="18" t="str">
+      <c r="L33" s="3"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="3"/>
+      <c r="P33" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="str">
+        <f>_xlfn.XLOOKUP(C35,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>勤務予定マスタ</v>
+      </c>
+      <c r="E35" t="str">
+        <f>_xlfn.XLOOKUP($C35,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_working_time_plan_mst</v>
+      </c>
+      <c r="P35" s="14" t="str">
+        <f>"■"&amp;D35&amp;":"&amp;E35</f>
+        <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
+      </c>
+    </row>
+    <row r="36" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3" t="str">
+        <f>L29</f>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="15" t="str">
+        <f t="shared" ref="P37:P41" si="7">IF(E37="","",D37&amp;":"&amp;E37&amp;IF(F37=1,"(PK)","")&amp;IF(I37=1,"(FK)",""))</f>
+        <v>作業者コード:worker_code(PK)</v>
+      </c>
+      <c r="R37" s="24" t="str">
+        <f t="shared" ref="R37:R39" si="8">D37</f>
+        <v>作業者コード</v>
+      </c>
+      <c r="S37" s="24" t="str">
+        <f>E37</f>
+        <v>worker_code</v>
+      </c>
+      <c r="T37" s="24" t="str">
+        <f>L37</f>
+        <v>VARCHAR2(20)</v>
+      </c>
+      <c r="U37" s="24" t="str">
+        <f>IF(G37=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V37" s="24">
+        <f>IF(F37="","",F37)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+    </row>
+    <row r="38" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D38" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P38" s="15" t="str">
         <f t="shared" si="7"/>
         <v>曜日番号:weekday</v>
       </c>
-      <c r="R33" s="37" t="str">
+      <c r="R38" s="24" t="str">
         <f t="shared" si="8"/>
         <v>曜日番号</v>
       </c>
-      <c r="S33" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="S38" s="24" t="str">
+        <f>E38</f>
         <v>weekday</v>
       </c>
-      <c r="T33" s="37" t="str">
-        <f t="shared" si="10"/>
+      <c r="T38" s="24" t="str">
+        <f>L38</f>
         <v>NUMBER(1,0)</v>
       </c>
-      <c r="U33" s="37" t="str">
-        <f t="shared" si="11"/>
+      <c r="U38" s="24" t="str">
+        <f>IF(G38=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
-      <c r="V33" s="37">
-        <f t="shared" si="12"/>
+      <c r="V38" s="24">
+        <f>IF(F38="","",F38)</f>
         <v>2</v>
       </c>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
     </row>
-    <row r="34" spans="4:26" x14ac:dyDescent="0.4">
-      <c r="D34" s="3" t="s">
+    <row r="39" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D39" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="3"/>
-      <c r="P34" s="18" t="str">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="3"/>
+      <c r="P39" s="15" t="str">
         <f t="shared" si="7"/>
         <v>勤務時間:working_time</v>
       </c>
-      <c r="R34" s="37" t="str">
+      <c r="R39" s="24" t="str">
         <f t="shared" si="8"/>
         <v>勤務時間</v>
       </c>
-      <c r="S34" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="S39" s="24" t="str">
+        <f>E39</f>
         <v>working_time</v>
       </c>
-      <c r="T34" s="37" t="str">
-        <f t="shared" si="10"/>
+      <c r="T39" s="24" t="str">
+        <f>L39</f>
         <v>NUMBER(4,2)</v>
       </c>
-      <c r="U34" s="37" t="str">
-        <f t="shared" si="11"/>
+      <c r="U39" s="24" t="str">
+        <f>IF(G39=1,"NOT NULL","")</f>
         <v/>
       </c>
-      <c r="V34" s="37" t="str">
-        <f t="shared" si="12"/>
+      <c r="V39" s="24" t="str">
+        <f>IF(F39="","",F39)</f>
         <v/>
       </c>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
     </row>
-    <row r="35" spans="4:26" x14ac:dyDescent="0.4">
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="3"/>
-      <c r="P35" s="18" t="str">
+    <row r="40" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="3"/>
+      <c r="P40" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:26" x14ac:dyDescent="0.4">
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="3"/>
-      <c r="P36" s="18" t="str">
+    <row r="41" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="3"/>
+      <c r="P41" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:26" x14ac:dyDescent="0.4">
-      <c r="P37" s="17"/>
+    <row r="42" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="P42" s="14"/>
+    </row>
+    <row r="43" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="str">
+        <f>_xlfn.XLOOKUP(C43,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>ページマスタ</v>
+      </c>
+      <c r="E43" t="str">
+        <f>_xlfn.XLOOKUP($C43,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_page_mst</v>
+      </c>
+      <c r="P43" s="14" t="str">
+        <f>"■"&amp;D43&amp;":"&amp;E43</f>
+        <v>■ページマスタ:tmp_page_mst</v>
+      </c>
+    </row>
+    <row r="44" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="3"/>
+      <c r="P45" s="15" t="str">
+        <f t="shared" ref="P45:P56" si="9">IF(E45="","",D45&amp;":"&amp;E45&amp;IF(F45=1,"(PK)","")&amp;IF(I45=1,"(FK)",""))</f>
+        <v>ページID:page_id(PK)</v>
+      </c>
+      <c r="R45" s="24" t="str">
+        <f t="shared" ref="R45:R47" si="10">D45</f>
+        <v>ページID</v>
+      </c>
+      <c r="S45" s="24" t="str">
+        <f t="shared" ref="S45:S47" si="11">E45</f>
+        <v>page_id</v>
+      </c>
+      <c r="T45" s="24">
+        <f t="shared" ref="T45:T47" si="12">L45</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="24" t="str">
+        <f t="shared" ref="U45:U47" si="13">IF(G45=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V45" s="24">
+        <f t="shared" ref="V45:V47" si="14">IF(F45="","",F45)</f>
+        <v>1</v>
+      </c>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
+    </row>
+    <row r="46" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D46" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="3"/>
+      <c r="P46" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v>ページ名称:page_name</v>
+      </c>
+      <c r="R46" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>ページ名称</v>
+      </c>
+      <c r="S46" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v>page_name</v>
+      </c>
+      <c r="T46" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="24" t="str">
+        <f t="shared" si="13"/>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V46" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+    </row>
+    <row r="47" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D47" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="3"/>
+      <c r="P47" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v>動画リンク:movie_link</v>
+      </c>
+      <c r="R47" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v>動画リンク</v>
+      </c>
+      <c r="S47" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v>movie_link</v>
+      </c>
+      <c r="T47" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="24" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V47" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+    </row>
+    <row r="48" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D48" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="3"/>
+      <c r="P48" s="15" t="str">
+        <f t="shared" ref="P48:P54" si="15">IF(E48="","",D48&amp;":"&amp;E48&amp;IF(F48=1,"(PK)","")&amp;IF(I48=1,"(FK)",""))</f>
+        <v>画像リンク:image_link</v>
+      </c>
+      <c r="R48" s="24" t="str">
+        <f t="shared" ref="R48:R53" si="16">D48</f>
+        <v>画像リンク</v>
+      </c>
+      <c r="S48" s="24" t="str">
+        <f t="shared" ref="S48:S53" si="17">E48</f>
+        <v>image_link</v>
+      </c>
+      <c r="T48" s="24">
+        <f t="shared" ref="T48:T53" si="18">L48</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="24" t="str">
+        <f t="shared" ref="U48:U53" si="19">IF(G48=1,"NOT NULL","")</f>
+        <v/>
+      </c>
+      <c r="V48" s="24" t="str">
+        <f t="shared" ref="V48:V53" si="20">IF(F48="","",F48)</f>
+        <v/>
+      </c>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D49" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="3"/>
+      <c r="P49" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>画像ページNo:image_page_no</v>
+      </c>
+      <c r="R49" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>画像ページNo</v>
+      </c>
+      <c r="S49" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>image_page_no</v>
+      </c>
+      <c r="T49" s="24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="V49" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D50" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="3"/>
+      <c r="P50" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>スライド停止時間:slide_waiting_time</v>
+      </c>
+      <c r="R50" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>スライド停止時間</v>
+      </c>
+      <c r="S50" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>slide_waiting_time</v>
+      </c>
+      <c r="T50" s="24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V50" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D51" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="3"/>
+      <c r="P51" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>説明1:note1</v>
+      </c>
+      <c r="R51" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>説明1</v>
+      </c>
+      <c r="S51" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>note1</v>
+      </c>
+      <c r="T51" s="24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="V51" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D52" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="3"/>
+      <c r="P52" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>説明2:note2</v>
+      </c>
+      <c r="R52" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>説明2</v>
+      </c>
+      <c r="S52" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>note2</v>
+      </c>
+      <c r="T52" s="24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="V52" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="24"/>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D53" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="3"/>
+      <c r="P53" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>説明3:note3</v>
+      </c>
+      <c r="R53" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>説明3</v>
+      </c>
+      <c r="S53" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v>note3</v>
+      </c>
+      <c r="T53" s="24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="V53" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="3"/>
+      <c r="P54" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="3"/>
+      <c r="P55" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="3"/>
+      <c r="P56" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" t="str">
+        <f>_xlfn.XLOOKUP(C58,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>採番テーブル</v>
+      </c>
+      <c r="E58" t="str">
+        <f>_xlfn.XLOOKUP($C58,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_numbering_tbl</v>
+      </c>
+      <c r="P58" s="14" t="str">
+        <f>"■"&amp;D58&amp;":"&amp;E58</f>
+        <v>■採番テーブル:tmp_numbering_tbl</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59" s="14"/>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D60" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="3"/>
+      <c r="P60" s="15" t="str">
+        <f t="shared" ref="P60:P64" si="21">IF(E60="","",D60&amp;":"&amp;E60&amp;IF(F60=1,"(PK)","")&amp;IF(I60=1,"(FK)",""))</f>
+        <v>採番項目:numbering_item(PK)</v>
+      </c>
+      <c r="R60" s="24" t="str">
+        <f t="shared" ref="R60:R61" si="22">D60</f>
+        <v>採番項目</v>
+      </c>
+      <c r="S60" s="24" t="str">
+        <f>E60</f>
+        <v>numbering_item</v>
+      </c>
+      <c r="T60" s="24">
+        <f>L60</f>
+        <v>0</v>
+      </c>
+      <c r="U60" s="24" t="str">
+        <f>IF(G60=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V60" s="24">
+        <f>IF(F60="","",F60)</f>
+        <v>1</v>
+      </c>
+      <c r="W60" s="24"/>
+      <c r="X60" s="24"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="24"/>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D61" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="3"/>
+      <c r="P61" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v>最終発行番号:last_insert_id</v>
+      </c>
+      <c r="R61" s="24" t="str">
+        <f t="shared" si="22"/>
+        <v>最終発行番号</v>
+      </c>
+      <c r="S61" s="24" t="str">
+        <f>E61</f>
+        <v>last_insert_id</v>
+      </c>
+      <c r="T61" s="24">
+        <f>L61</f>
+        <v>0</v>
+      </c>
+      <c r="U61" s="24" t="str">
+        <f>IF(G61=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V61" s="24" t="str">
+        <f>IF(F61="","",F61)</f>
+        <v/>
+      </c>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="3"/>
+      <c r="P62" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="3"/>
+      <c r="P63" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="3"/>
+      <c r="P64" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P24:P28 P32:P36 P16:P20">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P16)))</formula>
+  <conditionalFormatting sqref="P29:P33 P21:P25 P37:P41">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P45:P56">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P60:P64">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15180,12 +16291,12 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B664EAED-4E0B-45CD-9B5E-3F8DA11BB833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AC6A97-79E2-4EA5-92E2-9A9E4A371AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="3" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="253">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -677,13 +677,6 @@
     <t>更新日:2022/10/15</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成日:2022/10/15</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1717,6 +1710,21 @@
     <rPh sb="9" eb="11">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Styles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日:2023/01/26</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WPFのリソースディクショナリーファイル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1975,7 +1983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2096,12 +2104,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2139,32 +2141,132 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2344,90 +2446,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -2451,12 +2469,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2466,10 +2488,20 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2481,36 +2513,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -12767,7 +12769,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s9190"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s9196"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12832,7 +12834,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s9191"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s9197"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12897,7 +12899,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s9192"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s9198"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13012,17 +13014,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="B5:G17" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="16">
       <calculatedColumnFormula>ROW(テーブル3[[#This Row],[No]])-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13043,12 +13045,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="C6:E15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13363,7 +13365,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -13371,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -13379,7 +13381,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -13387,7 +13389,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -13434,22 +13436,22 @@
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -13479,12 +13481,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -13492,10 +13494,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -13511,7 +13513,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -13530,22 +13532,22 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
         <v>126</v>
-      </c>
-      <c r="F11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" t="str">
         <f>$D$5&amp;".WPF"</f>
         <v>Template2.WPF</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -13554,7 +13556,7 @@
         <v>Template2.Infrastructure</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -13566,7 +13568,7 @@
         <v>Template2.Domain</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -13578,7 +13580,7 @@
         <v>Template2Test.Tests</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -13600,12 +13602,12 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E21" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.4">
@@ -13617,18 +13619,18 @@
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E23" s="41" t="s">
-        <v>105</v>
+      <c r="E23" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E24" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E25" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -13686,9 +13688,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13716,7 +13720,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -13748,7 +13752,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
@@ -13923,12 +13927,12 @@
         <v>28</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.4">
@@ -14009,25 +14013,25 @@
         <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C27" s="3"/>
@@ -14037,93 +14041,107 @@
         <v>32</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H30" s="3"/>
     </row>
-    <row r="30" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
+    <row r="31" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+      <c r="C31" s="3"/>
+      <c r="D31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="6" t="s">
-        <v>64</v>
+      <c r="H31" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
-      <c r="C32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
+    <row r="32" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>62</v>
+      <c r="H32" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D33" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -14154,26 +14172,26 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
         <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>100</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -14181,75 +14199,75 @@
     </row>
     <row r="6" spans="1:6" ht="46.3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
         <v>121</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
         <v>151</v>
-      </c>
-      <c r="E9" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -14268,7 +14286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -14291,12 +14309,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -14304,7 +14322,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>61</v>
@@ -14313,7 +14331,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>68</v>
@@ -14342,10 +14360,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D7&amp;"Model")</f>
@@ -14360,10 +14378,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D8&amp;"Model")</f>
@@ -14371,7 +14389,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -14380,10 +14398,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D9&amp;"Model")</f>
@@ -14391,7 +14409,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -14400,10 +14418,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D10&amp;"Model")</f>
@@ -14411,7 +14429,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -14420,10 +14438,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="E11" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
@@ -14431,7 +14449,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -14440,10 +14458,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>216</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>217</v>
       </c>
       <c r="E12" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D12&amp;"Model")</f>
@@ -14451,7 +14469,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -14460,10 +14478,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D13&amp;"Model")</f>
@@ -14471,7 +14489,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -14560,26 +14578,26 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
         <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>100</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -14587,28 +14605,28 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -14617,22 +14635,22 @@
     </row>
     <row r="10" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" t="s">
         <v>162</v>
-      </c>
-      <c r="E12" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -14683,18 +14701,18 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N2" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" t="s">
-        <v>197</v>
-      </c>
       <c r="N3" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -14721,10 +14739,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -14732,10 +14750,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -14743,10 +14761,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -14754,43 +14772,43 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>6</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>7</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>8</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
@@ -14804,10 +14822,10 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
@@ -14833,25 +14851,25 @@
         <v>73</v>
       </c>
       <c r="T19" t="s">
+        <v>176</v>
+      </c>
+      <c r="U19" t="s">
         <v>177</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>178</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
         <v>179</v>
       </c>
-      <c r="W19" t="s">
+      <c r="Y19" t="s">
         <v>181</v>
       </c>
-      <c r="X19" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>182</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.4">
@@ -14868,7 +14886,7 @@
         <v>75</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>74</v>
@@ -14880,7 +14898,7 @@
         <v>77</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>78</v>
@@ -14892,10 +14910,10 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D21" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -14904,13 +14922,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="3"/>
@@ -14945,23 +14963,23 @@
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D22" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="3"/>
@@ -15079,7 +15097,7 @@
         <v>75</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>74</v>
@@ -15091,7 +15109,7 @@
         <v>77</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>78</v>
@@ -15103,10 +15121,10 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -15115,13 +15133,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="3"/>
@@ -15156,23 +15174,23 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D30" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3">
         <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
@@ -15290,7 +15308,7 @@
         <v>75</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>74</v>
@@ -15302,7 +15320,7 @@
         <v>77</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>78</v>
@@ -15314,10 +15332,10 @@
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D37" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -15326,7 +15344,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -15368,10 +15386,10 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
@@ -15380,17 +15398,17 @@
         <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P38" s="15" t="str">
         <f t="shared" si="7"/>
@@ -15423,21 +15441,21 @@
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
@@ -15538,7 +15556,7 @@
         <v>75</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>74</v>
@@ -15550,7 +15568,7 @@
         <v>77</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>78</v>
@@ -15562,10 +15580,10 @@
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D45" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -15574,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -15613,17 +15631,17 @@
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D46" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3">
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -15662,15 +15680,15 @@
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D47" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -15709,15 +15727,15 @@
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -15756,15 +15774,15 @@
     </row>
     <row r="49" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D49" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -15803,17 +15821,17 @@
     </row>
     <row r="50" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D50" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
         <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -15852,15 +15870,15 @@
     </row>
     <row r="51" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D51" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -15899,15 +15917,15 @@
     </row>
     <row r="52" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D52" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -15946,15 +15964,15 @@
     </row>
     <row r="53" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D53" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -16073,7 +16091,7 @@
         <v>75</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>74</v>
@@ -16085,7 +16103,7 @@
         <v>77</v>
       </c>
       <c r="L59" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>78</v>
@@ -16097,10 +16115,10 @@
     </row>
     <row r="60" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D60" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -16109,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -16148,17 +16166,17 @@
     </row>
     <row r="61" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D61" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3">
         <v>1</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -16291,12 +16309,12 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ2" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ3" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AC6A97-79E2-4EA5-92E2-9A9E4A371AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9A8AC6-76B6-46A9-8E29-EF15284ED1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="3" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="3223" yWindow="2434" windowWidth="17940" windowHeight="12163" tabRatio="860" firstSheet="4" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -1732,7 +1732,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2111,36 +2111,6 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2279,6 +2249,36 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -12769,7 +12769,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s9196"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s9199"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12834,7 +12834,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s9197"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s9200"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12899,7 +12899,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s9198"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s9201"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13045,12 +13045,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="C6:E15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13357,18 +13357,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -13409,7 +13409,7 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13424,32 +13424,32 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2">
       <c r="B2" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2">
       <c r="B3" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2">
       <c r="B4" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2">
       <c r="B5" s="22" t="s">
         <v>157</v>
       </c>
@@ -13466,7 +13466,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="18.9375" customWidth="1"/>
@@ -13474,25 +13474,25 @@
     <col min="5" max="5" width="27.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="G2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="G3" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>131</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="C13" t="s">
         <v>130</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="D14" t="str">
         <f>$D$5&amp;".Infrastructure"</f>
         <v>Template2.Infrastructure</v>
@@ -13562,7 +13562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="D15" t="str">
         <f>$D$5&amp;".Domain"</f>
         <v>Template2.Domain</v>
@@ -13574,7 +13574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="D16" t="str">
         <f>$D$5&amp;"Test.Tests"</f>
         <v>Template2Test.Tests</v>
@@ -13586,7 +13586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:5">
       <c r="C20" t="s">
         <v>84</v>
       </c>
@@ -13605,12 +13605,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:5">
       <c r="E21" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:5">
       <c r="D22" t="s">
         <v>85</v>
       </c>
@@ -13618,17 +13618,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:5">
       <c r="E23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:5">
       <c r="E24" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:5">
       <c r="E25" s="18" t="s">
         <v>124</v>
       </c>
@@ -13650,27 +13650,27 @@
       <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:57" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:57">
       <c r="BE2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:57">
       <c r="BE3" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:57">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -13690,11 +13690,11 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="17.3125" bestFit="1" customWidth="1"/>
@@ -13705,17 +13705,17 @@
     <col min="8" max="8" width="80.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="H2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>18</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="30.9">
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="17.149999999999999">
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
@@ -13769,7 +13769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="17.149999999999999">
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="17.149999999999999">
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
         <v>28</v>
@@ -13795,7 +13795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="17.149999999999999">
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -13809,7 +13809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="17.149999999999999">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
@@ -13823,7 +13823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="17.149999999999999">
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -13837,7 +13837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="17.149999999999999">
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
         <v>28</v>
@@ -13851,7 +13851,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="17.149999999999999">
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>28</v>
@@ -13865,7 +13865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="17.149999999999999">
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -13879,7 +13879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="17.149999999999999">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
@@ -13891,7 +13891,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:8" ht="30.9">
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>32</v>
@@ -13905,7 +13905,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:8">
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>32</v>
@@ -13919,7 +13919,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:8" ht="17.149999999999999">
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:8">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -13949,7 +13949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:8" ht="17.149999999999999">
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
         <v>28</v>
@@ -13963,7 +13963,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:8">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -13977,7 +13977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:8">
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>32</v>
@@ -13991,7 +13991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:8" ht="17.149999999999999">
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:8" ht="17.149999999999999">
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
         <v>28</v>
@@ -14021,7 +14021,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:8" ht="17.149999999999999">
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
         <v>28</v>
@@ -14033,7 +14033,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:8" ht="17.149999999999999">
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
@@ -14047,7 +14047,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:8" ht="17.149999999999999">
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
@@ -14061,7 +14061,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:8" ht="17.149999999999999">
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
         <v>28</v>
@@ -14075,7 +14075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:8">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:8" ht="17.149999999999999">
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
         <v>28</v>
@@ -14101,7 +14101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:8" ht="30.9">
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
         <v>32</v>
@@ -14115,7 +14115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:8" ht="17.149999999999999">
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:8" ht="17.149999999999999">
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
         <v>28</v>
@@ -14160,7 +14160,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -14170,17 +14170,17 @@
     <col min="6" max="6" width="51.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="F2" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="46.3">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="30.9">
       <c r="B7" t="s">
         <v>96</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>96</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="30.9">
       <c r="B9" t="s">
         <v>96</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -14290,7 +14290,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5625" style="14" customWidth="1"/>
@@ -14302,22 +14302,22 @@
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="19.3">
       <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="G2" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="G3" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="B6" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>1</v>
@@ -14354,7 +14354,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="B7" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>2</v>
@@ -14372,7 +14372,7 @@
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="B8" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>3</v>
@@ -14392,7 +14392,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="B9" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>4</v>
@@ -14412,7 +14412,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="B10" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>5</v>
@@ -14432,7 +14432,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="B11" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>6</v>
@@ -14452,7 +14452,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="B12" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
@@ -14472,7 +14472,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="B13" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
@@ -14492,7 +14492,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="B14" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
@@ -14506,7 +14506,7 @@
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="B15" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
@@ -14520,7 +14520,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="B16" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
@@ -14534,7 +14534,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7">
       <c r="B17" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
@@ -14566,7 +14566,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="12.0625" customWidth="1"/>
@@ -14576,17 +14576,17 @@
     <col min="6" max="6" width="47.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="F2" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>142</v>
       </c>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="D7" s="10" t="s">
         <v>143</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="D8" s="10" t="s">
         <v>145</v>
       </c>
@@ -14629,11 +14629,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="30.9">
       <c r="B10" t="s">
         <v>139</v>
       </c>
@@ -14642,7 +14642,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="B12" t="s">
         <v>140</v>
       </c>
@@ -14666,12 +14666,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="4.4375" customWidth="1"/>
@@ -14694,17 +14694,17 @@
     <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14">
       <c r="N2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>195</v>
       </c>
@@ -14715,15 +14715,15 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14">
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14">
       <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14">
       <c r="C6" s="16" t="s">
         <v>67</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14">
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -14789,35 +14789,35 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14">
       <c r="C12" s="3">
         <v>6</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14">
       <c r="C13" s="3">
         <v>7</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14">
       <c r="C14" s="3">
         <v>8</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14">
       <c r="C15" s="3">
         <v>9</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:26">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:26">
       <c r="C19">
         <v>1</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:26">
       <c r="D20" s="8" t="s">
         <v>72</v>
       </c>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:26">
       <c r="D21" s="3" t="s">
         <v>165</v>
       </c>
@@ -14961,7 +14961,7 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:26">
       <c r="D22" s="3" t="s">
         <v>166</v>
       </c>
@@ -15012,7 +15012,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:26">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -15029,7 +15029,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:26">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -15046,7 +15046,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:26">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -15063,10 +15063,10 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:26">
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:26">
       <c r="C27">
         <v>2</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>■作業者マスタ:tmp_worker_mst</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:26">
       <c r="D28" s="8" t="s">
         <v>72</v>
       </c>
@@ -15119,7 +15119,7 @@
       </c>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:26">
       <c r="D29" s="3" t="s">
         <v>201</v>
       </c>
@@ -15172,7 +15172,7 @@
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:26">
       <c r="D30" s="3" t="s">
         <v>202</v>
       </c>
@@ -15223,7 +15223,7 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:26">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -15240,7 +15240,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:26">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -15257,7 +15257,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:26">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -15274,10 +15274,10 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:26">
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:26">
       <c r="C35">
         <v>3</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
       </c>
     </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:26">
       <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
@@ -15330,7 +15330,7 @@
       </c>
       <c r="P36" s="14"/>
     </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:26">
       <c r="D37" s="3" t="s">
         <v>186</v>
       </c>
@@ -15384,7 +15384,7 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:26">
       <c r="D38" s="3" t="s">
         <v>187</v>
       </c>
@@ -15439,7 +15439,7 @@
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
     </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:26">
       <c r="D39" s="3" t="s">
         <v>190</v>
       </c>
@@ -15488,7 +15488,7 @@
       <c r="Y39" s="24"/>
       <c r="Z39" s="24"/>
     </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:26">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -15505,7 +15505,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:26">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -15522,10 +15522,10 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:26">
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:26">
       <c r="C43">
         <v>4</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>■ページマスタ:tmp_page_mst</v>
       </c>
     </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:26">
       <c r="D44" s="8" t="s">
         <v>72</v>
       </c>
@@ -15578,7 +15578,7 @@
       </c>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:26">
       <c r="D45" s="3" t="s">
         <v>221</v>
       </c>
@@ -15629,7 +15629,7 @@
       <c r="Y45" s="24"/>
       <c r="Z45" s="24"/>
     </row>
-    <row r="46" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:26">
       <c r="D46" s="3" t="s">
         <v>223</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
     </row>
-    <row r="47" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:26">
       <c r="D47" s="3" t="s">
         <v>225</v>
       </c>
@@ -15725,7 +15725,7 @@
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
     </row>
-    <row r="48" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:26">
       <c r="D48" s="3" t="s">
         <v>227</v>
       </c>
@@ -15772,7 +15772,7 @@
       <c r="Y48" s="24"/>
       <c r="Z48" s="24"/>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:26">
       <c r="D49" s="3" t="s">
         <v>229</v>
       </c>
@@ -15819,7 +15819,7 @@
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:26">
       <c r="D50" s="3" t="s">
         <v>231</v>
       </c>
@@ -15868,7 +15868,7 @@
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
     </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:26">
       <c r="D51" s="3" t="s">
         <v>233</v>
       </c>
@@ -15915,7 +15915,7 @@
       <c r="Y51" s="24"/>
       <c r="Z51" s="24"/>
     </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:26">
       <c r="D52" s="3" t="s">
         <v>235</v>
       </c>
@@ -15962,7 +15962,7 @@
       <c r="Y52" s="24"/>
       <c r="Z52" s="24"/>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:26">
       <c r="D53" s="3" t="s">
         <v>237</v>
       </c>
@@ -16009,7 +16009,7 @@
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
     </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:26">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -16026,7 +16026,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:26">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -16043,7 +16043,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:26">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -16060,7 +16060,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:26">
       <c r="C58">
         <v>5</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>■採番テーブル:tmp_numbering_tbl</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:26">
       <c r="D59" s="8" t="s">
         <v>72</v>
       </c>
@@ -16113,7 +16113,7 @@
       </c>
       <c r="P59" s="14"/>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:26">
       <c r="D60" s="3" t="s">
         <v>242</v>
       </c>
@@ -16164,7 +16164,7 @@
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:26">
       <c r="D61" s="3" t="s">
         <v>243</v>
       </c>
@@ -16213,7 +16213,7 @@
       <c r="Y61" s="24"/>
       <c r="Z61" s="24"/>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:26">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -16230,7 +16230,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:26">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -16247,7 +16247,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:26">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -16267,17 +16267,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P29:P33 P21:P25 P37:P41">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45:P56">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P60:P64">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P60)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16297,22 +16297,22 @@
       <selection activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:52" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:52">
       <c r="AZ2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:52">
       <c r="AZ3" s="7" t="s">
         <v>153</v>
       </c>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9A8AC6-76B6-46A9-8E29-EF15284ED1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1D816A-381C-4787-9182-E58075B44E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3223" yWindow="2434" windowWidth="17940" windowHeight="12163" tabRatio="860" firstSheet="4" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -1481,17 +1481,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サンプル4画面</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample004View</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像と動画のマスタ情報一覧</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -1725,6 +1714,20 @@
   </si>
   <si>
     <t>WPFのリソースディクショナリーファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル4一覧画面</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample004PageListView</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1732,7 +1735,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12769,7 +12772,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s9199"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18433"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12834,7 +12837,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s9200"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18434"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12899,7 +12902,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s9201"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s18435"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13357,18 +13360,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.3">
+    <row r="1" spans="1:3" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1</v>
       </c>
@@ -13376,7 +13379,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>2</v>
       </c>
@@ -13384,7 +13387,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>3</v>
       </c>
@@ -13409,7 +13412,7 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13424,32 +13427,32 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
         <v>157</v>
       </c>
@@ -13466,7 +13469,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="18.9375" customWidth="1"/>
@@ -13474,25 +13477,25 @@
     <col min="5" max="5" width="27.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3">
+    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>131</v>
       </c>
@@ -13500,7 +13503,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -13508,7 +13511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13516,7 +13519,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -13524,7 +13527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -13538,7 +13541,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>130</v>
       </c>
@@ -13550,7 +13553,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D14" t="str">
         <f>$D$5&amp;".Infrastructure"</f>
         <v>Template2.Infrastructure</v>
@@ -13562,7 +13565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D15" t="str">
         <f>$D$5&amp;".Domain"</f>
         <v>Template2.Domain</v>
@@ -13574,7 +13577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D16" t="str">
         <f>$D$5&amp;"Test.Tests"</f>
         <v>Template2Test.Tests</v>
@@ -13586,7 +13589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -13594,7 +13597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>84</v>
       </c>
@@ -13605,12 +13608,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E21" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>85</v>
       </c>
@@ -13618,17 +13621,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E24" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E25" s="18" t="s">
         <v>124</v>
       </c>
@@ -13650,27 +13653,27 @@
       <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="19.3">
+    <row r="1" spans="1:57" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.4">
       <c r="BE2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.4">
       <c r="BE3" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -13694,7 +13697,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="17.3125" bestFit="1" customWidth="1"/>
@@ -13705,25 +13708,25 @@
     <col min="8" max="8" width="80.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.3">
+    <row r="1" spans="1:8" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -13739,7 +13742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.9">
+    <row r="6" spans="1:8" ht="30.9" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
@@ -13755,7 +13758,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.149999999999999">
+    <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
@@ -13769,7 +13772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.149999999999999">
+    <row r="8" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -13781,7 +13784,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="17.149999999999999">
+    <row r="9" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
         <v>28</v>
@@ -13795,7 +13798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.149999999999999">
+    <row r="10" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -13809,7 +13812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.149999999999999">
+    <row r="11" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
@@ -13823,7 +13826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.149999999999999">
+    <row r="12" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -13837,7 +13840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.149999999999999">
+    <row r="13" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
         <v>28</v>
@@ -13851,7 +13854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.149999999999999">
+    <row r="14" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>28</v>
@@ -13865,7 +13868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.149999999999999">
+    <row r="15" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -13879,7 +13882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.149999999999999">
+    <row r="16" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
@@ -13891,7 +13894,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="3:8" ht="30.9">
+    <row r="17" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>32</v>
@@ -13905,7 +13908,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>32</v>
@@ -13919,7 +13922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="17.149999999999999">
+    <row r="19" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
@@ -13935,7 +13938,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -13949,7 +13952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="17.149999999999999">
+    <row r="21" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
         <v>28</v>
@@ -13963,7 +13966,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -13977,7 +13980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>32</v>
@@ -13991,7 +13994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="17.149999999999999">
+    <row r="24" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
@@ -14007,21 +14010,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="17.149999999999999">
+    <row r="25" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="17.149999999999999">
+    <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
         <v>28</v>
@@ -14033,7 +14036,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="3:8" ht="17.149999999999999">
+    <row r="27" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
@@ -14047,7 +14050,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="17.149999999999999">
+    <row r="28" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
@@ -14061,7 +14064,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="17.149999999999999">
+    <row r="29" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
         <v>28</v>
@@ -14075,7 +14078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="3:8">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -14087,7 +14090,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="3:8" ht="17.149999999999999">
+    <row r="31" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
         <v>28</v>
@@ -14101,7 +14104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="30.9">
+    <row r="32" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
         <v>32</v>
@@ -14115,7 +14118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="17.149999999999999">
+    <row r="33" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
@@ -14131,7 +14134,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="17.149999999999999">
+    <row r="34" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
         <v>28</v>
@@ -14160,7 +14163,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -14170,17 +14173,17 @@
     <col min="6" max="6" width="51.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3">
+    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -14197,7 +14200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.3">
+    <row r="6" spans="1:6" ht="46.3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.9">
+    <row r="7" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>96</v>
       </c>
@@ -14228,7 +14231,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>96</v>
       </c>
@@ -14242,7 +14245,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.9">
+    <row r="9" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>96</v>
       </c>
@@ -14256,7 +14259,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -14286,11 +14289,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5625" style="14" customWidth="1"/>
@@ -14302,22 +14305,22 @@
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3">
+    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
@@ -14337,7 +14340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>1</v>
@@ -14354,7 +14357,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>2</v>
@@ -14372,7 +14375,7 @@
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>3</v>
@@ -14392,7 +14395,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>4</v>
@@ -14412,7 +14415,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>5</v>
@@ -14432,36 +14435,36 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>6</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="E11" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
-        <v>Sample004ViewModel</v>
+        <v>Sample004PageListViewModel</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E12" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D12&amp;"Model")</f>
@@ -14469,19 +14472,19 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E13" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D13&amp;"Model")</f>
@@ -14489,10 +14492,10 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
@@ -14506,7 +14509,7 @@
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
@@ -14520,7 +14523,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
@@ -14534,7 +14537,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
@@ -14566,7 +14569,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="12.0625" customWidth="1"/>
@@ -14576,17 +14579,17 @@
     <col min="6" max="6" width="47.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3">
+    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -14603,7 +14606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>142</v>
       </c>
@@ -14612,7 +14615,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="10" t="s">
         <v>143</v>
       </c>
@@ -14620,7 +14623,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="10" t="s">
         <v>145</v>
       </c>
@@ -14629,11 +14632,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="30.9">
+    <row r="10" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>139</v>
       </c>
@@ -14642,7 +14645,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>140</v>
       </c>
@@ -14666,12 +14669,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D32" sqref="D32"/>
+      <selection pane="topRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="4.4375" customWidth="1"/>
@@ -14694,17 +14697,17 @@
     <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.3">
+    <row r="1" spans="1:14" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>195</v>
       </c>
@@ -14712,18 +14715,18 @@
         <v>196</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C6" s="16" t="s">
         <v>67</v>
       </c>
@@ -14734,7 +14737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -14745,7 +14748,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -14756,7 +14759,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -14767,57 +14770,57 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>6</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>7</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>8</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>9</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
@@ -14825,10 +14828,10 @@
         <v>175</v>
       </c>
       <c r="R18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C19">
         <v>1</v>
       </c>
@@ -14872,7 +14875,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D20" s="8" t="s">
         <v>72</v>
       </c>
@@ -14908,7 +14911,7 @@
       </c>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D21" s="3" t="s">
         <v>165</v>
       </c>
@@ -14961,7 +14964,7 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D22" s="3" t="s">
         <v>166</v>
       </c>
@@ -15012,7 +15015,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -15029,7 +15032,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -15046,7 +15049,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -15063,10 +15066,10 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:26">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C27">
         <v>2</v>
       </c>
@@ -15083,7 +15086,7 @@
         <v>■作業者マスタ:tmp_worker_mst</v>
       </c>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D28" s="8" t="s">
         <v>72</v>
       </c>
@@ -15119,7 +15122,7 @@
       </c>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D29" s="3" t="s">
         <v>201</v>
       </c>
@@ -15172,7 +15175,7 @@
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
     </row>
-    <row r="30" spans="2:26">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D30" s="3" t="s">
         <v>202</v>
       </c>
@@ -15223,7 +15226,7 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
     </row>
-    <row r="31" spans="2:26">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -15240,7 +15243,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -15257,7 +15260,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:26">
+    <row r="33" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -15274,10 +15277,10 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:26">
+    <row r="34" spans="3:26" x14ac:dyDescent="0.4">
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="3:26">
+    <row r="35" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C35">
         <v>3</v>
       </c>
@@ -15294,7 +15297,7 @@
         <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
       </c>
     </row>
-    <row r="36" spans="3:26">
+    <row r="36" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
@@ -15330,7 +15333,7 @@
       </c>
       <c r="P36" s="14"/>
     </row>
-    <row r="37" spans="3:26">
+    <row r="37" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D37" s="3" t="s">
         <v>186</v>
       </c>
@@ -15384,7 +15387,7 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38" spans="3:26">
+    <row r="38" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D38" s="3" t="s">
         <v>187</v>
       </c>
@@ -15439,7 +15442,7 @@
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
     </row>
-    <row r="39" spans="3:26">
+    <row r="39" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D39" s="3" t="s">
         <v>190</v>
       </c>
@@ -15488,7 +15491,7 @@
       <c r="Y39" s="24"/>
       <c r="Z39" s="24"/>
     </row>
-    <row r="40" spans="3:26">
+    <row r="40" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -15505,7 +15508,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:26">
+    <row r="41" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -15522,10 +15525,10 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:26">
+    <row r="42" spans="3:26" x14ac:dyDescent="0.4">
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="3:26">
+    <row r="43" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C43">
         <v>4</v>
       </c>
@@ -15542,7 +15545,7 @@
         <v>■ページマスタ:tmp_page_mst</v>
       </c>
     </row>
-    <row r="44" spans="3:26">
+    <row r="44" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D44" s="8" t="s">
         <v>72</v>
       </c>
@@ -15578,12 +15581,12 @@
       </c>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="3:26">
+    <row r="45" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D45" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -15629,12 +15632,12 @@
       <c r="Y45" s="24"/>
       <c r="Z45" s="24"/>
     </row>
-    <row r="46" spans="3:26">
+    <row r="46" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D46" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3">
@@ -15678,12 +15681,12 @@
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
     </row>
-    <row r="47" spans="3:26">
+    <row r="47" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D47" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -15725,12 +15728,12 @@
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
     </row>
-    <row r="48" spans="3:26">
+    <row r="48" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D48" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -15772,12 +15775,12 @@
       <c r="Y48" s="24"/>
       <c r="Z48" s="24"/>
     </row>
-    <row r="49" spans="3:26">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D49" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -15819,12 +15822,12 @@
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
     </row>
-    <row r="50" spans="3:26">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D50" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
@@ -15868,12 +15871,12 @@
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
     </row>
-    <row r="51" spans="3:26">
+    <row r="51" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D51" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -15915,12 +15918,12 @@
       <c r="Y51" s="24"/>
       <c r="Z51" s="24"/>
     </row>
-    <row r="52" spans="3:26">
+    <row r="52" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D52" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -15962,12 +15965,12 @@
       <c r="Y52" s="24"/>
       <c r="Z52" s="24"/>
     </row>
-    <row r="53" spans="3:26">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D53" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -16009,7 +16012,7 @@
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
     </row>
-    <row r="54" spans="3:26">
+    <row r="54" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -16026,7 +16029,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:26">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -16043,7 +16046,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:26">
+    <row r="56" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -16060,7 +16063,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:26">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C58">
         <v>5</v>
       </c>
@@ -16077,7 +16080,7 @@
         <v>■採番テーブル:tmp_numbering_tbl</v>
       </c>
     </row>
-    <row r="59" spans="3:26">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D59" s="8" t="s">
         <v>72</v>
       </c>
@@ -16113,12 +16116,12 @@
       </c>
       <c r="P59" s="14"/>
     </row>
-    <row r="60" spans="3:26">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D60" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -16164,12 +16167,12 @@
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61" spans="3:26">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D61" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3">
@@ -16213,7 +16216,7 @@
       <c r="Y61" s="24"/>
       <c r="Z61" s="24"/>
     </row>
-    <row r="62" spans="3:26">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -16230,7 +16233,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:26">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -16247,7 +16250,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:26">
+    <row r="64" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -16297,22 +16300,22 @@
       <selection activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="19.3">
+    <row r="1" spans="1:52" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ3" s="7" t="s">
         <v>153</v>
       </c>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1D816A-381C-4787-9182-E58075B44E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E642C-55F1-47FE-A833-AA5B0FDF7149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="1" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -1556,16 +1556,6 @@
     <t>movie_link</t>
   </si>
   <si>
-    <t>画像リンク</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image_link</t>
-  </si>
-  <si>
     <t>画像ページNo</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -1728,6 +1718,17 @@
   </si>
   <si>
     <t>Sample004PageListView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像フォルダリンク</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_folder_link</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1986,7 +1987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2106,6 +2107,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12772,7 +12776,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18433"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18454"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12837,7 +12841,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18434"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18455"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12902,7 +12906,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s18435"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s18456"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13467,7 +13471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C07FD-A30E-4188-B351-61DF0FF68E85}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13489,7 +13493,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -13609,7 +13613,7 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="40" t="s">
         <v>148</v>
       </c>
     </row>
@@ -13723,7 +13727,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -14016,12 +14020,12 @@
         <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
@@ -14289,7 +14293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -14441,10 +14445,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E11" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
@@ -14472,7 +14476,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -14492,7 +14496,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -14671,7 +14675,7 @@
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E52" sqref="E52"/>
+      <selection pane="topRight" activeCell="D48" sqref="D48:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -14715,7 +14719,7 @@
         <v>196</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -14786,10 +14790,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -14828,7 +14832,7 @@
         <v>175</v>
       </c>
       <c r="R18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
@@ -15730,10 +15734,10 @@
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D48" s="3" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -15748,15 +15752,15 @@
       <c r="N48" s="3"/>
       <c r="P48" s="15" t="str">
         <f t="shared" ref="P48:P54" si="15">IF(E48="","",D48&amp;":"&amp;E48&amp;IF(F48=1,"(PK)","")&amp;IF(I48=1,"(FK)",""))</f>
-        <v>画像リンク:image_link</v>
+        <v>画像フォルダリンク:image_folder_link</v>
       </c>
       <c r="R48" s="24" t="str">
         <f t="shared" ref="R48:R53" si="16">D48</f>
-        <v>画像リンク</v>
+        <v>画像フォルダリンク</v>
       </c>
       <c r="S48" s="24" t="str">
         <f t="shared" ref="S48:S53" si="17">E48</f>
-        <v>image_link</v>
+        <v>image_folder_link</v>
       </c>
       <c r="T48" s="24">
         <f t="shared" ref="T48:T53" si="18">L48</f>
@@ -15777,10 +15781,10 @@
     </row>
     <row r="49" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D49" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -15824,10 +15828,10 @@
     </row>
     <row r="50" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D50" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3">
@@ -15873,10 +15877,10 @@
     </row>
     <row r="51" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D51" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -15920,10 +15924,10 @@
     </row>
     <row r="52" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D52" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -15967,10 +15971,10 @@
     </row>
     <row r="53" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D53" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -16118,10 +16122,10 @@
     </row>
     <row r="60" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D60" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -16169,10 +16173,10 @@
     </row>
     <row r="61" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D61" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3">

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E642C-55F1-47FE-A833-AA5B0FDF7149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E0C9C-0568-4BD4-AC05-B0CE6C46D510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="1" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="262">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1729,6 +1729,54 @@
   </si>
   <si>
     <t>image_folder_link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_worker_group_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者グループマスタ</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者グループコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者グループ名称</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6[</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worker_group_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worker_group_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1736,7 +1784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1987,7 +2035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2108,7 +2156,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2116,7 +2170,75 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2256,36 +2378,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -12690,64 +12782,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>108556</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>175380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12097</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3636CF1-D05A-7A39-38D9-B7302460246E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="8741" idx="2"/>
-          <a:endCxn id="8742" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2145242" y="2559503"/>
-          <a:ext cx="1647977" cy="1246112"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -12776,7 +12810,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18454"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18466"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12841,7 +12875,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18455"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18467"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12906,7 +12940,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s18456"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18468"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13021,17 +13055,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="B5:G17" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="18">
       <calculatedColumnFormula>ROW(テーブル3[[#This Row],[No]])-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13052,12 +13086,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="C6:E15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:F15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="C6:F15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3DDA8FA4-E8A2-48D4-B50A-F74192711AA9}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13352,7 +13387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13364,18 +13399,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -13383,7 +13418,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -13391,7 +13426,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -13416,7 +13451,7 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13431,32 +13466,32 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2">
       <c r="B2" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2">
       <c r="B3" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2">
       <c r="B4" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2">
       <c r="B5" s="22" t="s">
         <v>157</v>
       </c>
@@ -13471,9 +13506,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C07FD-A30E-4188-B351-61DF0FF68E85}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="18.9375" customWidth="1"/>
@@ -13481,25 +13518,25 @@
     <col min="5" max="5" width="27.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="G2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="G3" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>131</v>
       </c>
@@ -13507,7 +13544,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -13515,7 +13552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13523,7 +13560,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -13531,7 +13568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -13545,7 +13582,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="C13" t="s">
         <v>130</v>
       </c>
@@ -13557,7 +13594,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="D14" t="str">
         <f>$D$5&amp;".Infrastructure"</f>
         <v>Template2.Infrastructure</v>
@@ -13569,7 +13606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="D15" t="str">
         <f>$D$5&amp;".Domain"</f>
         <v>Template2.Domain</v>
@@ -13581,7 +13618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="D16" t="str">
         <f>$D$5&amp;"Test.Tests"</f>
         <v>Template2Test.Tests</v>
@@ -13593,7 +13630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -13601,7 +13638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:5">
       <c r="C20" t="s">
         <v>84</v>
       </c>
@@ -13612,12 +13649,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E21" s="40" t="s">
+    <row r="21" spans="3:5">
+      <c r="E21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:5">
       <c r="D22" t="s">
         <v>85</v>
       </c>
@@ -13625,17 +13662,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:5">
       <c r="E23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:5">
       <c r="E24" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:5">
       <c r="E25" s="18" t="s">
         <v>124</v>
       </c>
@@ -13657,27 +13694,27 @@
       <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:57" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:57">
       <c r="BE2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:57">
       <c r="BE3" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:57">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -13701,7 +13738,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="17.3125" bestFit="1" customWidth="1"/>
@@ -13712,17 +13749,17 @@
     <col min="8" max="8" width="80.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="H2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>18</v>
       </c>
@@ -13730,7 +13767,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -13746,7 +13783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="30.9">
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
@@ -13762,7 +13799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="17.149999999999999">
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
@@ -13776,7 +13813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="17.149999999999999">
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -13788,7 +13825,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="17.149999999999999">
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
         <v>28</v>
@@ -13802,7 +13839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="17.149999999999999">
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -13816,7 +13853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="17.149999999999999">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
@@ -13830,7 +13867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="17.149999999999999">
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -13844,7 +13881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="17.149999999999999">
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
         <v>28</v>
@@ -13858,7 +13895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="17.149999999999999">
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>28</v>
@@ -13872,7 +13909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="17.149999999999999">
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -13886,7 +13923,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="17.149999999999999">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
@@ -13898,7 +13935,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:8" ht="30.9">
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>32</v>
@@ -13912,7 +13949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:8">
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>32</v>
@@ -13926,7 +13963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:8" ht="17.149999999999999">
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
@@ -13942,7 +13979,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:8">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -13956,7 +13993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:8" ht="17.149999999999999">
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
         <v>28</v>
@@ -13970,7 +14007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:8">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -13984,7 +14021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:8">
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>32</v>
@@ -13998,7 +14035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:8" ht="17.149999999999999">
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
@@ -14014,7 +14051,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:8" ht="17.149999999999999">
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
         <v>28</v>
@@ -14028,7 +14065,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:8" ht="17.149999999999999">
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
         <v>28</v>
@@ -14040,7 +14077,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:8" ht="17.149999999999999">
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
@@ -14054,7 +14091,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:8" ht="17.149999999999999">
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
@@ -14068,7 +14105,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:8" ht="17.149999999999999">
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
         <v>28</v>
@@ -14082,7 +14119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:8">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -14094,7 +14131,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:8" ht="17.149999999999999">
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
         <v>28</v>
@@ -14108,7 +14145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:8" ht="30.9">
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
         <v>32</v>
@@ -14122,7 +14159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:8" ht="17.149999999999999">
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
@@ -14138,7 +14175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:8" ht="17.149999999999999">
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
         <v>28</v>
@@ -14167,7 +14204,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -14177,17 +14214,17 @@
     <col min="6" max="6" width="51.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="F2" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -14204,7 +14241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="46.3">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -14218,7 +14255,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="30.9">
       <c r="B7" t="s">
         <v>96</v>
       </c>
@@ -14235,7 +14272,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>96</v>
       </c>
@@ -14249,7 +14286,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="30.9">
       <c r="B9" t="s">
         <v>96</v>
       </c>
@@ -14263,7 +14300,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -14297,7 +14334,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5625" style="14" customWidth="1"/>
@@ -14309,22 +14346,22 @@
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="19.3">
       <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="G2" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="G3" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
@@ -14344,7 +14381,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="B6" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>1</v>
@@ -14361,7 +14398,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="B7" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>2</v>
@@ -14379,7 +14416,7 @@
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="B8" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>3</v>
@@ -14399,7 +14436,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="B9" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>4</v>
@@ -14419,7 +14456,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="B10" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>5</v>
@@ -14439,7 +14476,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="B11" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>6</v>
@@ -14459,7 +14496,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="B12" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
@@ -14479,7 +14516,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="B13" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
@@ -14499,7 +14536,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="B14" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
@@ -14513,7 +14550,7 @@
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="B15" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
@@ -14527,7 +14564,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="B16" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
@@ -14541,7 +14578,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7">
       <c r="B17" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
@@ -14573,7 +14610,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="12.0625" customWidth="1"/>
@@ -14583,17 +14620,17 @@
     <col min="6" max="6" width="47.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="F2" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -14610,7 +14647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>142</v>
       </c>
@@ -14619,7 +14656,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="D7" s="10" t="s">
         <v>143</v>
       </c>
@@ -14627,7 +14664,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="D8" s="10" t="s">
         <v>145</v>
       </c>
@@ -14636,11 +14673,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="30.9">
       <c r="B10" t="s">
         <v>139</v>
       </c>
@@ -14649,7 +14686,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="B12" t="s">
         <v>140</v>
       </c>
@@ -14671,14 +14708,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D48" sqref="D48:E48"/>
+      <selection pane="topRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="4.4375" customWidth="1"/>
@@ -14701,17 +14738,17 @@
     <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14">
       <c r="N2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>195</v>
       </c>
@@ -14722,15 +14759,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14">
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14">
       <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14">
       <c r="C6" s="16" t="s">
         <v>67</v>
       </c>
@@ -14740,8 +14777,11 @@
       <c r="E6" s="17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F6" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -14751,80 +14791,95 @@
       <c r="E7" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+      <c r="F10" s="40"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+      <c r="F11" s="40"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="C12" s="3">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="D12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="C13" s="3">
         <v>7</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="C14" s="3">
         <v>8</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="C15" s="3">
         <v>9</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="F15" s="42"/>
+    </row>
+    <row r="18" spans="2:26">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
@@ -14835,7 +14890,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:26">
       <c r="C19">
         <v>1</v>
       </c>
@@ -14879,7 +14934,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:26">
       <c r="D20" s="8" t="s">
         <v>72</v>
       </c>
@@ -14915,7 +14970,7 @@
       </c>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:26">
       <c r="D21" s="3" t="s">
         <v>165</v>
       </c>
@@ -14968,7 +15023,7 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:26">
       <c r="D22" s="3" t="s">
         <v>166</v>
       </c>
@@ -15019,7 +15074,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:26">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -15036,7 +15091,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:26">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -15053,7 +15108,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:26">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -15070,27 +15125,27 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:26">
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:26">
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="str">
         <f>_xlfn.XLOOKUP(C27,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>作業者マスタ</v>
+        <v>作業者グループマスタ</v>
       </c>
       <c r="E27" t="str">
         <f>_xlfn.XLOOKUP($C27,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_worker_mst</v>
+        <v>tmp_worker_group_mst</v>
       </c>
       <c r="P27" s="14" t="str">
         <f>"■"&amp;D27&amp;":"&amp;E27</f>
-        <v>■作業者マスタ:tmp_worker_mst</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.4">
+        <v>■作業者グループマスタ:tmp_worker_group_mst</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26">
       <c r="D28" s="8" t="s">
         <v>72</v>
       </c>
@@ -15126,12 +15181,12 @@
       </c>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:26">
       <c r="D29" s="3" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -15152,15 +15207,15 @@
       <c r="N29" s="3"/>
       <c r="P29" s="15" t="str">
         <f t="shared" ref="P29:P33" si="4">IF(E29="","",D29&amp;":"&amp;E29&amp;IF(F29=1,"(PK)","")&amp;IF(I29=1,"(FK)",""))</f>
-        <v>作業者コード:worker_code(PK)</v>
+        <v>作業者グループコード:worker_group_code(PK)</v>
       </c>
       <c r="R29" s="24" t="str">
         <f>D29</f>
-        <v>作業者コード</v>
+        <v>作業者グループコード</v>
       </c>
       <c r="S29" s="24" t="str">
         <f>E29</f>
-        <v>worker_code</v>
+        <v>worker_group_code</v>
       </c>
       <c r="T29" s="24" t="str">
         <f>L29</f>
@@ -15179,12 +15234,12 @@
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:26">
       <c r="D30" s="3" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3">
@@ -15203,15 +15258,15 @@
       <c r="N30" s="3"/>
       <c r="P30" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>作業者名称:worker_name</v>
+        <v>作業者グループ名称:worker_group_name</v>
       </c>
       <c r="R30" s="24" t="str">
         <f>D30</f>
-        <v>作業者名称</v>
+        <v>作業者グループ名称</v>
       </c>
       <c r="S30" s="24" t="str">
         <f>E30</f>
-        <v>worker_name</v>
+        <v>worker_group_name</v>
       </c>
       <c r="T30" s="24" t="str">
         <f>L30</f>
@@ -15230,7 +15285,7 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:26">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -15247,7 +15302,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:26">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -15264,7 +15319,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:26">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -15281,27 +15336,27 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:26">
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:26">
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="str">
         <f>_xlfn.XLOOKUP(C35,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>勤務予定マスタ</v>
+        <v>作業者マスタ</v>
       </c>
       <c r="E35" t="str">
         <f>_xlfn.XLOOKUP($C35,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_working_time_plan_mst</v>
+        <v>tmp_worker_mst</v>
       </c>
       <c r="P35" s="14" t="str">
         <f>"■"&amp;D35&amp;":"&amp;E35</f>
-        <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
-      </c>
-    </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.4">
+        <v>■作業者マスタ:tmp_worker_mst</v>
+      </c>
+    </row>
+    <row r="36" spans="3:26">
       <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
@@ -15337,9 +15392,9 @@
       </c>
       <c r="P36" s="14"/>
     </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:26">
       <c r="D37" s="3" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>162</v>
@@ -15356,9 +15411,8 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3" t="str">
-        <f>L29</f>
-        <v>VARCHAR2(20)</v>
+      <c r="L37" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="3"/>
@@ -15367,7 +15421,7 @@
         <v>作業者コード:worker_code(PK)</v>
       </c>
       <c r="R37" s="24" t="str">
-        <f t="shared" ref="R37:R39" si="8">D37</f>
+        <f>D37</f>
         <v>作業者コード</v>
       </c>
       <c r="S37" s="24" t="str">
@@ -15379,7 +15433,7 @@
         <v>VARCHAR2(20)</v>
       </c>
       <c r="U37" s="24" t="str">
-        <f>IF(G37=1,"NOT NULL","")</f>
+        <f t="shared" ref="U37:U38" si="8">IF(G37=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
       <c r="V37" s="24">
@@ -15391,111 +15445,75 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:26">
       <c r="D38" s="3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3">
         <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M38" s="9"/>
-      <c r="N38" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="N38" s="3"/>
       <c r="P38" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>曜日番号:weekday</v>
+        <v>作業者名称:worker_name</v>
       </c>
       <c r="R38" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v>曜日番号</v>
+        <f>D38</f>
+        <v>作業者名称</v>
       </c>
       <c r="S38" s="24" t="str">
         <f>E38</f>
-        <v>weekday</v>
+        <v>worker_name</v>
       </c>
       <c r="T38" s="24" t="str">
         <f>L38</f>
-        <v>NUMBER(1,0)</v>
+        <v>VARCHAR2(40)</v>
       </c>
       <c r="U38" s="24" t="str">
-        <f>IF(G38=1,"NOT NULL","")</f>
+        <f t="shared" si="8"/>
         <v>NOT NULL</v>
       </c>
-      <c r="V38" s="24">
-        <f>IF(F38="","",F38)</f>
-        <v>2</v>
+      <c r="V38" s="24" t="str">
+        <f t="shared" ref="V38" si="9">IF(F38="","",F38)</f>
+        <v/>
       </c>
       <c r="W38" s="24"/>
       <c r="X38" s="24"/>
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
     </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>191</v>
-      </c>
+    <row r="39" spans="3:26">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="L39" s="3"/>
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
       <c r="P39" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>勤務時間:working_time</v>
-      </c>
-      <c r="R39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v>勤務時間</v>
-      </c>
-      <c r="S39" s="24" t="str">
-        <f>E39</f>
-        <v>working_time</v>
-      </c>
-      <c r="T39" s="24" t="str">
-        <f>L39</f>
-        <v>NUMBER(4,2)</v>
-      </c>
-      <c r="U39" s="24" t="str">
-        <f>IF(G39=1,"NOT NULL","")</f>
         <v/>
       </c>
-      <c r="V39" s="24" t="str">
-        <f>IF(F39="","",F39)</f>
-        <v/>
-      </c>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-    </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="3:26">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -15512,7 +15530,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:26">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -15529,27 +15547,27 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:26">
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:26">
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43" t="str">
         <f>_xlfn.XLOOKUP(C43,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>ページマスタ</v>
+        <v>勤務予定マスタ</v>
       </c>
       <c r="E43" t="str">
         <f>_xlfn.XLOOKUP($C43,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_page_mst</v>
+        <v>tmp_working_time_plan_mst</v>
       </c>
       <c r="P43" s="14" t="str">
         <f>"■"&amp;D43&amp;":"&amp;E43</f>
-        <v>■ページマスタ:tmp_page_mst</v>
-      </c>
-    </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.4">
+        <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
+      </c>
+    </row>
+    <row r="44" spans="3:26">
       <c r="D44" s="8" t="s">
         <v>72</v>
       </c>
@@ -15585,12 +15603,12 @@
       </c>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:26">
       <c r="D45" s="3" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -15599,36 +15617,39 @@
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="3" t="str">
+        <f>L37</f>
+        <v>VARCHAR2(20)</v>
+      </c>
       <c r="M45" s="9"/>
       <c r="N45" s="3"/>
       <c r="P45" s="15" t="str">
-        <f t="shared" ref="P45:P56" si="9">IF(E45="","",D45&amp;":"&amp;E45&amp;IF(F45=1,"(PK)","")&amp;IF(I45=1,"(FK)",""))</f>
-        <v>ページID:page_id(PK)</v>
+        <f t="shared" ref="P45:P49" si="10">IF(E45="","",D45&amp;":"&amp;E45&amp;IF(F45=1,"(PK)","")&amp;IF(I45=1,"(FK)",""))</f>
+        <v>作業者コード:worker_code(PK)</v>
       </c>
       <c r="R45" s="24" t="str">
-        <f t="shared" ref="R45:R47" si="10">D45</f>
-        <v>ページID</v>
+        <f t="shared" ref="R45:R47" si="11">D45</f>
+        <v>作業者コード</v>
       </c>
       <c r="S45" s="24" t="str">
-        <f t="shared" ref="S45:S47" si="11">E45</f>
-        <v>page_id</v>
-      </c>
-      <c r="T45" s="24">
-        <f t="shared" ref="T45:T47" si="12">L45</f>
-        <v>0</v>
+        <f>E45</f>
+        <v>worker_code</v>
+      </c>
+      <c r="T45" s="24" t="str">
+        <f>L45</f>
+        <v>VARCHAR2(20)</v>
       </c>
       <c r="U45" s="24" t="str">
-        <f t="shared" ref="U45:U47" si="13">IF(G45=1,"NOT NULL","")</f>
+        <f>IF(G45=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
       <c r="V45" s="24">
-        <f t="shared" ref="V45:V47" si="14">IF(F45="","",F45)</f>
+        <f>IF(F45="","",F45)</f>
         <v>1</v>
       </c>
       <c r="W45" s="24"/>
@@ -15636,95 +15657,103 @@
       <c r="Y45" s="24"/>
       <c r="Z45" s="24"/>
     </row>
-    <row r="46" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:26">
       <c r="D46" s="3" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
       <c r="G46" s="3">
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="M46" s="9"/>
-      <c r="N46" s="3"/>
+      <c r="N46" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="P46" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>ページ名称:page_name</v>
+        <f t="shared" si="10"/>
+        <v>曜日番号:weekday</v>
       </c>
       <c r="R46" s="24" t="str">
-        <f t="shared" si="10"/>
-        <v>ページ名称</v>
+        <f t="shared" si="11"/>
+        <v>曜日番号</v>
       </c>
       <c r="S46" s="24" t="str">
-        <f t="shared" si="11"/>
-        <v>page_name</v>
-      </c>
-      <c r="T46" s="24">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>E46</f>
+        <v>weekday</v>
+      </c>
+      <c r="T46" s="24" t="str">
+        <f>L46</f>
+        <v>NUMBER(1,0)</v>
       </c>
       <c r="U46" s="24" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(G46=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
-      <c r="V46" s="24" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+      <c r="V46" s="24">
+        <f>IF(F46="","",F46)</f>
+        <v>2</v>
       </c>
       <c r="W46" s="24"/>
       <c r="X46" s="24"/>
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
     </row>
-    <row r="47" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:26">
       <c r="D47" s="3" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="M47" s="9"/>
       <c r="N47" s="3"/>
       <c r="P47" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>動画リンク:movie_link</v>
+        <f t="shared" si="10"/>
+        <v>勤務時間:working_time</v>
       </c>
       <c r="R47" s="24" t="str">
-        <f t="shared" si="10"/>
-        <v>動画リンク</v>
+        <f t="shared" si="11"/>
+        <v>勤務時間</v>
       </c>
       <c r="S47" s="24" t="str">
-        <f t="shared" si="11"/>
-        <v>movie_link</v>
-      </c>
-      <c r="T47" s="24">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>E47</f>
+        <v>working_time</v>
+      </c>
+      <c r="T47" s="24" t="str">
+        <f>L47</f>
+        <v>NUMBER(4,2)</v>
       </c>
       <c r="U47" s="24" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(G47=1,"NOT NULL","")</f>
         <v/>
       </c>
       <c r="V47" s="24" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(F47="","",F47)</f>
         <v/>
       </c>
       <c r="W47" s="24"/>
@@ -15732,18 +15761,12 @@
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
     </row>
-    <row r="48" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D48" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>252</v>
-      </c>
+    <row r="48" spans="3:26">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -15751,46 +15774,16 @@
       <c r="M48" s="9"/>
       <c r="N48" s="3"/>
       <c r="P48" s="15" t="str">
-        <f t="shared" ref="P48:P54" si="15">IF(E48="","",D48&amp;":"&amp;E48&amp;IF(F48=1,"(PK)","")&amp;IF(I48=1,"(FK)",""))</f>
-        <v>画像フォルダリンク:image_folder_link</v>
-      </c>
-      <c r="R48" s="24" t="str">
-        <f t="shared" ref="R48:R53" si="16">D48</f>
-        <v>画像フォルダリンク</v>
-      </c>
-      <c r="S48" s="24" t="str">
-        <f t="shared" ref="S48:S53" si="17">E48</f>
-        <v>image_folder_link</v>
-      </c>
-      <c r="T48" s="24">
-        <f t="shared" ref="T48:T53" si="18">L48</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="24" t="str">
-        <f t="shared" ref="U48:U53" si="19">IF(G48=1,"NOT NULL","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V48" s="24" t="str">
-        <f t="shared" ref="V48:V53" si="20">IF(F48="","",F48)</f>
-        <v/>
-      </c>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D49" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>226</v>
-      </c>
+    </row>
+    <row r="49" spans="3:26">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -15798,188 +15791,81 @@
       <c r="M49" s="9"/>
       <c r="N49" s="3"/>
       <c r="P49" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>画像ページNo:image_page_no</v>
-      </c>
-      <c r="R49" s="24" t="str">
-        <f t="shared" si="16"/>
-        <v>画像ページNo</v>
-      </c>
-      <c r="S49" s="24" t="str">
-        <f t="shared" si="17"/>
-        <v>image_page_no</v>
-      </c>
-      <c r="T49" s="24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V49" s="24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D50" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3">
+    </row>
+    <row r="50" spans="3:26">
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" spans="3:26">
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="str">
+        <f>_xlfn.XLOOKUP(C51,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>ページマスタ</v>
+      </c>
+      <c r="E51" t="str">
+        <f>_xlfn.XLOOKUP($C51,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_page_mst</v>
+      </c>
+      <c r="P51" s="14" t="str">
+        <f>"■"&amp;D51&amp;":"&amp;E51</f>
+        <v>■ページマスタ:tmp_page_mst</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26">
+      <c r="D52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52" s="14"/>
+    </row>
+    <row r="53" spans="3:26">
+      <c r="D53" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" s="3">
         <v>1</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="3"/>
-      <c r="P50" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>スライド停止時間:slide_waiting_time</v>
-      </c>
-      <c r="R50" s="24" t="str">
-        <f t="shared" si="16"/>
-        <v>スライド停止時間</v>
-      </c>
-      <c r="S50" s="24" t="str">
-        <f t="shared" si="17"/>
-        <v>slide_waiting_time</v>
-      </c>
-      <c r="T50" s="24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="24" t="str">
-        <f t="shared" si="19"/>
-        <v>NOT NULL</v>
-      </c>
-      <c r="V50" s="24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D51" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="3"/>
-      <c r="P51" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>説明1:note1</v>
-      </c>
-      <c r="R51" s="24" t="str">
-        <f t="shared" si="16"/>
-        <v>説明1</v>
-      </c>
-      <c r="S51" s="24" t="str">
-        <f t="shared" si="17"/>
-        <v>note1</v>
-      </c>
-      <c r="T51" s="24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="24" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="V51" s="24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D52" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="3"/>
-      <c r="P52" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>説明2:note2</v>
-      </c>
-      <c r="R52" s="24" t="str">
-        <f t="shared" si="16"/>
-        <v>説明2</v>
-      </c>
-      <c r="S52" s="24" t="str">
-        <f t="shared" si="17"/>
-        <v>note2</v>
-      </c>
-      <c r="T52" s="24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="24" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="V52" s="24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W52" s="24"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="24"/>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D53" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
       <c r="H53" s="3" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -15988,40 +15874,48 @@
       <c r="M53" s="9"/>
       <c r="N53" s="3"/>
       <c r="P53" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>説明3:note3</v>
+        <f t="shared" ref="P53:P64" si="12">IF(E53="","",D53&amp;":"&amp;E53&amp;IF(F53=1,"(PK)","")&amp;IF(I53=1,"(FK)",""))</f>
+        <v>ページID:page_id(PK)</v>
       </c>
       <c r="R53" s="24" t="str">
-        <f t="shared" si="16"/>
-        <v>説明3</v>
+        <f t="shared" ref="R53:R55" si="13">D53</f>
+        <v>ページID</v>
       </c>
       <c r="S53" s="24" t="str">
-        <f t="shared" si="17"/>
-        <v>note3</v>
+        <f t="shared" ref="S53:S55" si="14">E53</f>
+        <v>page_id</v>
       </c>
       <c r="T53" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="T53:T55" si="15">L53</f>
         <v>0</v>
       </c>
       <c r="U53" s="24" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="V53" s="24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" ref="U53:U55" si="16">IF(G53=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V53" s="24">
+        <f t="shared" ref="V53:V55" si="17">IF(F53="","",F53)</f>
+        <v>1</v>
       </c>
       <c r="W53" s="24"/>
       <c r="X53" s="24"/>
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
     </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+    <row r="54" spans="3:26">
+      <c r="D54" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -16029,16 +15923,46 @@
       <c r="M54" s="9"/>
       <c r="N54" s="3"/>
       <c r="P54" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>ページ名称:page_name</v>
+      </c>
+      <c r="R54" s="24" t="str">
+        <f t="shared" si="13"/>
+        <v>ページ名称</v>
+      </c>
+      <c r="S54" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>page_name</v>
+      </c>
+      <c r="T54" s="24">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V54" s="24" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+    </row>
+    <row r="55" spans="3:26">
+      <c r="D55" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -16046,16 +15970,46 @@
       <c r="M55" s="9"/>
       <c r="N55" s="3"/>
       <c r="P55" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
+        <v>動画リンク:movie_link</v>
+      </c>
+      <c r="R55" s="24" t="str">
+        <f t="shared" si="13"/>
+        <v>動画リンク</v>
+      </c>
+      <c r="S55" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>movie_link</v>
+      </c>
+      <c r="T55" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="24" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="V55" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+    </row>
+    <row r="56" spans="3:26">
+      <c r="D56" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -16063,76 +16017,186 @@
       <c r="M56" s="9"/>
       <c r="N56" s="3"/>
       <c r="P56" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P56:P62" si="18">IF(E56="","",D56&amp;":"&amp;E56&amp;IF(F56=1,"(PK)","")&amp;IF(I56=1,"(FK)",""))</f>
+        <v>画像フォルダリンク:image_folder_link</v>
+      </c>
+      <c r="R56" s="24" t="str">
+        <f t="shared" ref="R56:R61" si="19">D56</f>
+        <v>画像フォルダリンク</v>
+      </c>
+      <c r="S56" s="24" t="str">
+        <f t="shared" ref="S56:S61" si="20">E56</f>
+        <v>image_folder_link</v>
+      </c>
+      <c r="T56" s="24">
+        <f t="shared" ref="T56:T61" si="21">L56</f>
+        <v>0</v>
+      </c>
+      <c r="U56" s="24" t="str">
+        <f t="shared" ref="U56:U61" si="22">IF(G56=1,"NOT NULL","")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C58">
-        <v>5</v>
-      </c>
-      <c r="D58" t="str">
-        <f>_xlfn.XLOOKUP(C58,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>採番テーブル</v>
-      </c>
-      <c r="E58" t="str">
-        <f>_xlfn.XLOOKUP($C58,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_numbering_tbl</v>
-      </c>
-      <c r="P58" s="14" t="str">
-        <f>"■"&amp;D58&amp;":"&amp;E58</f>
-        <v>■採番テーブル:tmp_numbering_tbl</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D59" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L59" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P59" s="14"/>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="V56" s="24" t="str">
+        <f t="shared" ref="V56:V61" si="23">IF(F56="","",F56)</f>
+        <v/>
+      </c>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+    </row>
+    <row r="57" spans="3:26">
+      <c r="D57" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="3"/>
+      <c r="P57" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>画像ページNo:image_page_no</v>
+      </c>
+      <c r="R57" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v>画像ページNo</v>
+      </c>
+      <c r="S57" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v>image_page_no</v>
+      </c>
+      <c r="T57" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="24" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V57" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="W57" s="24"/>
+      <c r="X57" s="24"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="24"/>
+    </row>
+    <row r="58" spans="3:26">
+      <c r="D58" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="3"/>
+      <c r="P58" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>スライド停止時間:slide_waiting_time</v>
+      </c>
+      <c r="R58" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v>スライド停止時間</v>
+      </c>
+      <c r="S58" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v>slide_waiting_time</v>
+      </c>
+      <c r="T58" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="24" t="str">
+        <f t="shared" si="22"/>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V58" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
+    </row>
+    <row r="59" spans="3:26">
+      <c r="D59" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="3"/>
+      <c r="P59" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>説明1:note1</v>
+      </c>
+      <c r="R59" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v>説明1</v>
+      </c>
+      <c r="S59" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v>note1</v>
+      </c>
+      <c r="T59" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="24" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V59" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
+    </row>
+    <row r="60" spans="3:26">
       <c r="D60" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
         <v>158</v>
       </c>
@@ -16143,47 +16207,45 @@
       <c r="M60" s="9"/>
       <c r="N60" s="3"/>
       <c r="P60" s="15" t="str">
-        <f t="shared" ref="P60:P64" si="21">IF(E60="","",D60&amp;":"&amp;E60&amp;IF(F60=1,"(PK)","")&amp;IF(I60=1,"(FK)",""))</f>
-        <v>採番項目:numbering_item(PK)</v>
+        <f t="shared" si="18"/>
+        <v>説明2:note2</v>
       </c>
       <c r="R60" s="24" t="str">
-        <f t="shared" ref="R60:R61" si="22">D60</f>
-        <v>採番項目</v>
+        <f t="shared" si="19"/>
+        <v>説明2</v>
       </c>
       <c r="S60" s="24" t="str">
-        <f>E60</f>
-        <v>numbering_item</v>
+        <f t="shared" si="20"/>
+        <v>note2</v>
       </c>
       <c r="T60" s="24">
-        <f>L60</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U60" s="24" t="str">
-        <f>IF(G60=1,"NOT NULL","")</f>
-        <v>NOT NULL</v>
-      </c>
-      <c r="V60" s="24">
-        <f>IF(F60="","",F60)</f>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V60" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v/>
       </c>
       <c r="W60" s="24"/>
       <c r="X60" s="24"/>
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:26">
       <c r="D61" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
+      <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -16192,27 +16254,27 @@
       <c r="M61" s="9"/>
       <c r="N61" s="3"/>
       <c r="P61" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>説明3:note3</v>
+      </c>
+      <c r="R61" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v>説明3</v>
+      </c>
+      <c r="S61" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v>note3</v>
+      </c>
+      <c r="T61" s="24">
         <f t="shared" si="21"/>
-        <v>最終発行番号:last_insert_id</v>
-      </c>
-      <c r="R61" s="24" t="str">
+        <v>0</v>
+      </c>
+      <c r="U61" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>最終発行番号</v>
-      </c>
-      <c r="S61" s="24" t="str">
-        <f>E61</f>
-        <v>last_insert_id</v>
-      </c>
-      <c r="T61" s="24">
-        <f>L61</f>
-        <v>0</v>
-      </c>
-      <c r="U61" s="24" t="str">
-        <f>IF(G61=1,"NOT NULL","")</f>
-        <v>NOT NULL</v>
+        <v/>
       </c>
       <c r="V61" s="24" t="str">
-        <f>IF(F61="","",F61)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W61" s="24"/>
@@ -16220,7 +16282,7 @@
       <c r="Y61" s="24"/>
       <c r="Z61" s="24"/>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:26">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -16233,11 +16295,11 @@
       <c r="M62" s="9"/>
       <c r="N62" s="3"/>
       <c r="P62" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:26">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -16250,11 +16312,11 @@
       <c r="M63" s="9"/>
       <c r="N63" s="3"/>
       <c r="P63" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:26">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -16267,25 +16329,234 @@
       <c r="M64" s="9"/>
       <c r="N64" s="3"/>
       <c r="P64" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:26">
+      <c r="C66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" t="e">
+        <f>_xlfn.XLOOKUP(C66,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E66" t="e">
+        <f>_xlfn.XLOOKUP($C66,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P66" s="14" t="e">
+        <f>"■"&amp;D66&amp;":"&amp;E66</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="3:26">
+      <c r="D67" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L67" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67" s="14"/>
+    </row>
+    <row r="68" spans="3:26">
+      <c r="D68" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="3"/>
+      <c r="P68" s="15" t="str">
+        <f t="shared" ref="P68:P72" si="24">IF(E68="","",D68&amp;":"&amp;E68&amp;IF(F68=1,"(PK)","")&amp;IF(I68=1,"(FK)",""))</f>
+        <v>採番項目:numbering_item(PK)</v>
+      </c>
+      <c r="R68" s="24" t="str">
+        <f t="shared" ref="R68:R69" si="25">D68</f>
+        <v>採番項目</v>
+      </c>
+      <c r="S68" s="24" t="str">
+        <f>E68</f>
+        <v>numbering_item</v>
+      </c>
+      <c r="T68" s="24">
+        <f>L68</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="24" t="str">
+        <f>IF(G68=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V68" s="24">
+        <f>IF(F68="","",F68)</f>
+        <v>1</v>
+      </c>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+    </row>
+    <row r="69" spans="3:26">
+      <c r="D69" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="3"/>
+      <c r="P69" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v>最終発行番号:last_insert_id</v>
+      </c>
+      <c r="R69" s="24" t="str">
+        <f t="shared" si="25"/>
+        <v>最終発行番号</v>
+      </c>
+      <c r="S69" s="24" t="str">
+        <f>E69</f>
+        <v>last_insert_id</v>
+      </c>
+      <c r="T69" s="24">
+        <f>L69</f>
+        <v>0</v>
+      </c>
+      <c r="U69" s="24" t="str">
+        <f>IF(G69=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V69" s="24" t="str">
+        <f>IF(F69="","",F69)</f>
+        <v/>
+      </c>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+    </row>
+    <row r="70" spans="3:26">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="3"/>
+      <c r="P70" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="3:26">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="3"/>
+      <c r="P71" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:26">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="3"/>
+      <c r="P72" s="15" t="str">
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P29:P33 P21:P25 P37:P41">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="PK">
+  <conditionalFormatting sqref="P37:P41 P21:P25 P45:P49">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P45:P56">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P45)))</formula>
+  <conditionalFormatting sqref="P53:P64">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P60:P64">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P60)))</formula>
+  <conditionalFormatting sqref="P68:P72">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29:P33">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16301,25 +16572,25 @@
   <dimension ref="A1:AZ3"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BA14" sqref="BA14"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:52" ht="19.3">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:52">
       <c r="AZ2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:52">
       <c r="AZ3" s="7" t="s">
         <v>153</v>
       </c>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E0C9C-0568-4BD4-AC05-B0CE6C46D510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF09A39-1C0E-4114-B63C-3C45EFB72724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="262">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -12810,7 +12810,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18466"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18472"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12875,7 +12875,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18467"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18473"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12940,7 +12940,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18468"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18474"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14712,7 +14712,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E31" sqref="E31"/>
+      <selection pane="topRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -15497,20 +15497,28 @@
       <c r="Z38" s="24"/>
     </row>
     <row r="39" spans="3:26">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="L39" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
       <c r="P39" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>作業者グループコード:worker_group_code</v>
       </c>
     </row>
     <row r="40" spans="3:26">

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF09A39-1C0E-4114-B63C-3C45EFB72724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5EE5E6-EAC9-4E84-8AC7-76B05C62222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
@@ -12810,7 +12810,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18472"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18478"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12875,7 +12875,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18473"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18479"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12940,7 +12940,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18474"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18480"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14712,7 +14712,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L39" sqref="L39"/>
+      <selection pane="topRight" activeCell="D39" sqref="D39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5EE5E6-EAC9-4E84-8AC7-76B05C62222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651AAFA0-164E-422E-BF19-1ADCD22EBAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="265">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1203,13 +1203,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サンプルマスタテーブルを編集</t>
-    <rPh sb="12" eb="14">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sample001View</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1777,6 +1770,37 @@
   </si>
   <si>
     <t>worker_group_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル5画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample005View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者グループマスタを編集</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者グループと作業者のツリービュー</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サギョウシャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1784,7 +1808,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1898,7 +1922,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2024,6 +2048,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2156,14 +2191,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2198,46 +2233,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2378,6 +2373,46 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -12810,7 +12845,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18478"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18481"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12875,7 +12910,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18479"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18482"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12940,7 +12975,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18480"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18483"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13055,8 +13090,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="B5:G17" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G26" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="B5:G26" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="18">
       <calculatedColumnFormula>ROW(テーブル3[[#This Row],[No]])-5</calculatedColumnFormula>
@@ -13086,12 +13121,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:F15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:F15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="C6:F15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{3DDA8FA4-E8A2-48D4-B50A-F74192711AA9}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13399,18 +13434,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.3">
+    <row r="1" spans="1:3" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1</v>
       </c>
@@ -13418,7 +13453,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>2</v>
       </c>
@@ -13426,7 +13461,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>3</v>
       </c>
@@ -13451,7 +13486,7 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13466,32 +13501,32 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
         <v>157</v>
       </c>
@@ -13510,7 +13545,7 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="18.9375" customWidth="1"/>
@@ -13518,25 +13553,25 @@
     <col min="5" max="5" width="27.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3">
+    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>131</v>
       </c>
@@ -13544,7 +13579,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -13552,7 +13587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13560,7 +13595,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -13568,7 +13603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -13582,7 +13617,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>130</v>
       </c>
@@ -13594,7 +13629,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D14" t="str">
         <f>$D$5&amp;".Infrastructure"</f>
         <v>Template2.Infrastructure</v>
@@ -13606,7 +13641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D15" t="str">
         <f>$D$5&amp;".Domain"</f>
         <v>Template2.Domain</v>
@@ -13618,7 +13653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D16" t="str">
         <f>$D$5&amp;"Test.Tests"</f>
         <v>Template2Test.Tests</v>
@@ -13630,7 +13665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -13638,7 +13673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>84</v>
       </c>
@@ -13649,12 +13684,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>85</v>
       </c>
@@ -13662,17 +13697,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E24" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E25" s="18" t="s">
         <v>124</v>
       </c>
@@ -13694,27 +13729,27 @@
       <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="19.3">
+    <row r="1" spans="1:57" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.4">
       <c r="BE2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.4">
       <c r="BE3" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -13738,7 +13773,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="17.3125" bestFit="1" customWidth="1"/>
@@ -13749,25 +13784,25 @@
     <col min="8" max="8" width="80.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.3">
+    <row r="1" spans="1:8" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -13783,7 +13818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.9">
+    <row r="6" spans="1:8" ht="30.9" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
@@ -13799,7 +13834,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.149999999999999">
+    <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
@@ -13813,7 +13848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.149999999999999">
+    <row r="8" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -13825,7 +13860,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="17.149999999999999">
+    <row r="9" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
         <v>28</v>
@@ -13839,7 +13874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.149999999999999">
+    <row r="10" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -13853,7 +13888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.149999999999999">
+    <row r="11" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
@@ -13867,7 +13902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.149999999999999">
+    <row r="12" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -13881,7 +13916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.149999999999999">
+    <row r="13" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
         <v>28</v>
@@ -13895,7 +13930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.149999999999999">
+    <row r="14" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>28</v>
@@ -13909,7 +13944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.149999999999999">
+    <row r="15" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -13923,7 +13958,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.149999999999999">
+    <row r="16" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
@@ -13935,7 +13970,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="3:8" ht="30.9">
+    <row r="17" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>32</v>
@@ -13949,7 +13984,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>32</v>
@@ -13963,7 +13998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="17.149999999999999">
+    <row r="19" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
@@ -13979,7 +14014,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -13993,7 +14028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="17.149999999999999">
+    <row r="21" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
         <v>28</v>
@@ -14007,7 +14042,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="3:8">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -14021,7 +14056,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="3:8">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>32</v>
@@ -14035,7 +14070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="17.149999999999999">
+    <row r="24" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
@@ -14051,21 +14086,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="17.149999999999999">
+    <row r="25" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="17.149999999999999">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
         <v>28</v>
@@ -14077,7 +14112,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="3:8" ht="17.149999999999999">
+    <row r="27" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
@@ -14091,7 +14126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="17.149999999999999">
+    <row r="28" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
@@ -14105,7 +14140,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="17.149999999999999">
+    <row r="29" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
         <v>28</v>
@@ -14119,7 +14154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="3:8">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -14131,7 +14166,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="3:8" ht="17.149999999999999">
+    <row r="31" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
         <v>28</v>
@@ -14145,7 +14180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="30.9">
+    <row r="32" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
         <v>32</v>
@@ -14159,7 +14194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="17.149999999999999">
+    <row r="33" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
@@ -14175,7 +14210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="17.149999999999999">
+    <row r="34" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
         <v>28</v>
@@ -14204,7 +14239,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -14214,17 +14249,17 @@
     <col min="6" max="6" width="51.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3">
+    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -14241,7 +14276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.3">
+    <row r="6" spans="1:6" ht="46.3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -14255,7 +14290,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.9">
+    <row r="7" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>96</v>
       </c>
@@ -14272,7 +14307,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>96</v>
       </c>
@@ -14286,7 +14321,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.9">
+    <row r="9" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>96</v>
       </c>
@@ -14300,7 +14335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -14328,13 +14363,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5625" style="14" customWidth="1"/>
@@ -14346,22 +14381,22 @@
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3">
+    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
@@ -14381,7 +14416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>1</v>
@@ -14398,13 +14433,13 @@
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>2</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>169</v>
@@ -14416,16 +14451,16 @@
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>3</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D8&amp;"Model")</f>
@@ -14433,19 +14468,19 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>4</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D9&amp;"Model")</f>
@@ -14453,19 +14488,19 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D10&amp;"Model")</f>
@@ -14473,19 +14508,19 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>6</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>249</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>250</v>
       </c>
       <c r="E11" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
@@ -14493,19 +14528,19 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="E12" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D12&amp;"Model")</f>
@@ -14513,19 +14548,19 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D13&amp;"Model")</f>
@@ -14533,24 +14568,30 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>262</v>
+      </c>
       <c r="E14" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D14&amp;"Model")</f>
-        <v/>
+        <v>Sample005ViewModel</v>
       </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
@@ -14564,7 +14605,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
@@ -14578,7 +14619,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
@@ -14591,6 +14632,105 @@
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>13</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>14</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>15</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>16</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>17</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>18</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>19</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>20</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="40">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>21</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -14610,7 +14750,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="12.0625" customWidth="1"/>
@@ -14620,17 +14760,17 @@
     <col min="6" max="6" width="47.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3">
+    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -14647,7 +14787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>142</v>
       </c>
@@ -14656,7 +14796,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="10" t="s">
         <v>143</v>
       </c>
@@ -14664,7 +14804,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="10" t="s">
         <v>145</v>
       </c>
@@ -14673,11 +14813,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="30.9">
+    <row r="10" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>139</v>
       </c>
@@ -14686,7 +14826,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>140</v>
       </c>
@@ -14710,12 +14850,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D39" sqref="D39:H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
     <col min="3" max="3" width="4.4375" customWidth="1"/>
@@ -14738,36 +14878,36 @@
     <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.3">
+    <row r="1" spans="1:14" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
       <c r="N3" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C6" s="16" t="s">
         <v>67</v>
       </c>
@@ -14777,11 +14917,11 @@
       <c r="E6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="F6" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -14791,106 +14931,106 @@
       <c r="E7" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F8" s="40"/>
-    </row>
-    <row r="9" spans="1:14">
+        <v>252</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="40"/>
-    </row>
-    <row r="11" spans="1:14">
+        <v>196</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="40"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="F12" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>7</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>8</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>9</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="42"/>
-    </row>
-    <row r="18" spans="2:26">
+      <c r="F15" s="21"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C19">
         <v>1</v>
       </c>
@@ -14913,28 +15053,28 @@
         <v>73</v>
       </c>
       <c r="T19" t="s">
+        <v>175</v>
+      </c>
+      <c r="U19" t="s">
         <v>176</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>177</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
         <v>178</v>
       </c>
-      <c r="W19" t="s">
+      <c r="Y19" t="s">
         <v>180</v>
       </c>
-      <c r="X19" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>181</v>
       </c>
-      <c r="Z19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26">
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D20" s="8" t="s">
         <v>72</v>
       </c>
@@ -14960,7 +15100,7 @@
         <v>77</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>78</v>
@@ -14970,7 +15110,7 @@
       </c>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D21" s="3" t="s">
         <v>165</v>
       </c>
@@ -14990,7 +15130,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="3"/>
@@ -15023,7 +15163,7 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D22" s="3" t="s">
         <v>166</v>
       </c>
@@ -15041,7 +15181,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="3"/>
@@ -15074,7 +15214,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -15091,7 +15231,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -15108,7 +15248,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -15125,10 +15265,10 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:26">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C27">
         <v>2</v>
       </c>
@@ -15145,7 +15285,7 @@
         <v>■作業者グループマスタ:tmp_worker_group_mst</v>
       </c>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D28" s="8" t="s">
         <v>72</v>
       </c>
@@ -15171,7 +15311,7 @@
         <v>77</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>78</v>
@@ -15181,12 +15321,12 @@
       </c>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D29" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -15201,7 +15341,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="3"/>
@@ -15234,12 +15374,12 @@
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
     </row>
-    <row r="30" spans="2:26">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D30" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3">
@@ -15252,7 +15392,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
@@ -15285,7 +15425,7 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
     </row>
-    <row r="31" spans="2:26">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -15302,7 +15442,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -15319,7 +15459,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:26">
+    <row r="33" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -15336,10 +15476,10 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:26">
+    <row r="34" spans="3:26" x14ac:dyDescent="0.4">
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="3:26">
+    <row r="35" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C35">
         <v>3</v>
       </c>
@@ -15356,7 +15496,7 @@
         <v>■作業者マスタ:tmp_worker_mst</v>
       </c>
     </row>
-    <row r="36" spans="3:26">
+    <row r="36" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
@@ -15382,7 +15522,7 @@
         <v>77</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>78</v>
@@ -15392,9 +15532,9 @@
       </c>
       <c r="P36" s="14"/>
     </row>
-    <row r="37" spans="3:26">
+    <row r="37" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D37" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>162</v>
@@ -15412,7 +15552,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="3"/>
@@ -15445,12 +15585,12 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38" spans="3:26">
+    <row r="38" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D38" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3">
@@ -15463,7 +15603,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="3"/>
@@ -15496,12 +15636,12 @@
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
     </row>
-    <row r="39" spans="3:26">
+    <row r="39" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D39" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -15512,7 +15652,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
@@ -15521,7 +15661,7 @@
         <v>作業者グループコード:worker_group_code</v>
       </c>
     </row>
-    <row r="40" spans="3:26">
+    <row r="40" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -15538,7 +15678,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:26">
+    <row r="41" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -15555,10 +15695,10 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:26">
+    <row r="42" spans="3:26" x14ac:dyDescent="0.4">
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="3:26">
+    <row r="43" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C43">
         <v>4</v>
       </c>
@@ -15575,7 +15715,7 @@
         <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
       </c>
     </row>
-    <row r="44" spans="3:26">
+    <row r="44" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D44" s="8" t="s">
         <v>72</v>
       </c>
@@ -15601,7 +15741,7 @@
         <v>77</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>78</v>
@@ -15611,9 +15751,9 @@
       </c>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="3:26">
+    <row r="45" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D45" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>162</v>
@@ -15665,12 +15805,12 @@
       <c r="Y45" s="24"/>
       <c r="Z45" s="24"/>
     </row>
-    <row r="46" spans="3:26">
+    <row r="46" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D46" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="F46" s="3">
         <v>2</v>
@@ -15679,17 +15819,17 @@
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P46" s="15" t="str">
         <f t="shared" si="10"/>
@@ -15720,23 +15860,23 @@
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
     </row>
-    <row r="47" spans="3:26">
+    <row r="47" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="3"/>
@@ -15769,7 +15909,7 @@
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
     </row>
-    <row r="48" spans="3:26">
+    <row r="48" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -15786,7 +15926,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:26">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -15803,10 +15943,10 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:26">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.4">
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="3:26">
+    <row r="51" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C51">
         <v>5</v>
       </c>
@@ -15823,7 +15963,7 @@
         <v>■ページマスタ:tmp_page_mst</v>
       </c>
     </row>
-    <row r="52" spans="3:26">
+    <row r="52" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D52" s="8" t="s">
         <v>72</v>
       </c>
@@ -15849,7 +15989,7 @@
         <v>77</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>78</v>
@@ -15859,12 +15999,12 @@
       </c>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="3:26">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -15873,7 +16013,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -15910,12 +16050,12 @@
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
     </row>
-    <row r="54" spans="3:26">
+    <row r="54" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D54" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3">
@@ -15959,12 +16099,12 @@
       <c r="Y54" s="24"/>
       <c r="Z54" s="24"/>
     </row>
-    <row r="55" spans="3:26">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D55" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -16006,12 +16146,12 @@
       <c r="Y55" s="24"/>
       <c r="Z55" s="24"/>
     </row>
-    <row r="56" spans="3:26">
+    <row r="56" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D56" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -16053,17 +16193,17 @@
       <c r="Y56" s="24"/>
       <c r="Z56" s="24"/>
     </row>
-    <row r="57" spans="3:26">
+    <row r="57" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -16100,19 +16240,19 @@
       <c r="Y57" s="24"/>
       <c r="Z57" s="24"/>
     </row>
-    <row r="58" spans="3:26">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3">
         <v>1</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -16149,12 +16289,12 @@
       <c r="Y58" s="24"/>
       <c r="Z58" s="24"/>
     </row>
-    <row r="59" spans="3:26">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -16196,12 +16336,12 @@
       <c r="Y59" s="24"/>
       <c r="Z59" s="24"/>
     </row>
-    <row r="60" spans="3:26">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D60" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -16243,12 +16383,12 @@
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61" spans="3:26">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D61" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -16290,7 +16430,7 @@
       <c r="Y61" s="24"/>
       <c r="Z61" s="24"/>
     </row>
-    <row r="62" spans="3:26">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -16307,7 +16447,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:26">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -16324,7 +16464,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:26">
+    <row r="64" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -16341,9 +16481,9 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:26">
+    <row r="66" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D66" t="e">
         <f>_xlfn.XLOOKUP(C66,テーブル一覧[No],テーブル一覧[論理名])</f>
@@ -16358,7 +16498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="3:26">
+    <row r="67" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D67" s="8" t="s">
         <v>72</v>
       </c>
@@ -16384,7 +16524,7 @@
         <v>77</v>
       </c>
       <c r="L67" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>78</v>
@@ -16394,12 +16534,12 @@
       </c>
       <c r="P67" s="14"/>
     </row>
-    <row r="68" spans="3:26">
+    <row r="68" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D68" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
@@ -16445,19 +16585,19 @@
       <c r="Y68" s="24"/>
       <c r="Z68" s="24"/>
     </row>
-    <row r="69" spans="3:26">
+    <row r="69" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D69" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3">
         <v>1</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -16494,7 +16634,7 @@
       <c r="Y69" s="24"/>
       <c r="Z69" s="24"/>
     </row>
-    <row r="70" spans="3:26">
+    <row r="70" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -16511,7 +16651,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:26">
+    <row r="71" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -16528,7 +16668,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:26">
+    <row r="72" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -16548,22 +16688,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P37:P41 P21:P25 P45:P49">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P64">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P68:P72">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:P33">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P29)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16583,22 +16723,22 @@
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="2.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="19.3">
+    <row r="1" spans="1:52" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ2" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ3" s="7" t="s">
         <v>153</v>
       </c>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E642C-55F1-47FE-A833-AA5B0FDF7149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F4CFE-9739-4363-8423-23DEA06E768D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="1" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="265">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1203,13 +1203,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サンプルマスタテーブルを編集</t>
-    <rPh sb="12" eb="14">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sample001View</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1451,13 +1444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新日:2023/01/15</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業者マスタを編集</t>
     <rPh sb="0" eb="3">
       <t>サギョウシャ</t>
@@ -1729,6 +1715,92 @@
   </si>
   <si>
     <t>image_folder_link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_worker_group_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者グループマスタ</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者グループコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者グループ名称</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6[</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worker_group_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worker_group_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル5画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample005View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者グループマスタを編集</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者グループと作業者のツリービュー</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サギョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日:2023/02/05</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1850,7 +1922,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1978,6 +2050,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1987,7 +2070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2108,15 +2191,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2256,6 +2373,16 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -12690,64 +12817,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>108556</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>175380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12097</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3636CF1-D05A-7A39-38D9-B7302460246E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="8741" idx="2"/>
-          <a:endCxn id="8742" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2145242" y="2559503"/>
-          <a:ext cx="1647977" cy="1246112"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -12776,7 +12845,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18454"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18484"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12841,7 +12910,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18455"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18485"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12906,7 +12975,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$27:$P$33" spid="_x0000_s18456"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18486"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13021,17 +13090,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="B5:G17" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}" name="テーブル3" displayName="テーブル3" ref="B5:G26" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="B5:G26" xr:uid="{022DCB47-007C-4AFD-B9BE-B881D12B5E8D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{B746BDD8-A2B0-4616-8D41-EE1B78D9BF2D}" name="No" dataDxfId="18">
       <calculatedColumnFormula>ROW(テーブル3[[#This Row],[No]])-5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BF0893FC-2791-4E4A-B8A1-A8CFA6AD64E6}" name="画面遷移" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{4C4038E3-3CB3-44C2-9054-FAF2A37767E0}" name="View" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{6A50A436-2CFD-4E58-A22D-0E81FEF74536}" name="ViewModel" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{7BE69630-41BB-4E48-A6EE-B25EE632A32C}" name="ViewModelEntity" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{F086094E-467C-4CFC-A4E2-5F970E900BF9}" name="説明" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13052,12 +13121,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="C6:E15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:F15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="C6:F15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3DDA8FA4-E8A2-48D4-B50A-F74192711AA9}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13352,7 +13422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13471,7 +13541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C07FD-A30E-4188-B351-61DF0FF68E85}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13493,7 +13565,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -13613,7 +13685,7 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E21" s="40" t="s">
+      <c r="E21" t="s">
         <v>148</v>
       </c>
     </row>
@@ -13727,7 +13799,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -14020,12 +14092,12 @@
         <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
@@ -14291,10 +14363,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -14321,7 +14393,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="27" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -14367,7 +14439,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>169</v>
@@ -14385,10 +14457,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D8&amp;"Model")</f>
@@ -14396,7 +14468,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="35" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -14405,10 +14477,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D9&amp;"Model")</f>
@@ -14416,7 +14488,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -14425,10 +14497,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D10&amp;"Model")</f>
@@ -14436,7 +14508,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -14445,10 +14517,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E11" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
@@ -14456,7 +14528,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -14465,10 +14537,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E12" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D12&amp;"Model")</f>
@@ -14476,7 +14548,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -14485,10 +14557,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E13" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D13&amp;"Model")</f>
@@ -14496,7 +14568,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -14504,14 +14576,20 @@
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>261</v>
+      </c>
       <c r="E14" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D14&amp;"Model")</f>
-        <v/>
+        <v>Sample005ViewModel</v>
       </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="36"/>
+      <c r="G14" s="36" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="31">
@@ -14554,6 +14632,105 @@
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>13</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>14</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>15</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>16</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>17</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>18</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>19</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="31">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>20</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="40">
+        <f>ROW(テーブル3[[#This Row],[No]])-5</f>
+        <v>21</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -14671,11 +14848,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D48" sqref="D48:E48"/>
+      <selection pane="topRight" activeCell="D39" sqref="D39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -14713,13 +14890,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
       <c r="N3" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -14740,6 +14917,9 @@
       <c r="E6" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="F6" s="22" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
@@ -14751,57 +14931,69 @@
       <c r="E7" s="3" t="s">
         <v>164</v>
       </c>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>199</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>197</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>218</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
@@ -14809,6 +15001,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
@@ -14816,6 +15009,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
@@ -14823,16 +15017,17 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
@@ -14858,25 +15053,25 @@
         <v>73</v>
       </c>
       <c r="T19" t="s">
+        <v>175</v>
+      </c>
+      <c r="U19" t="s">
         <v>176</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>177</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
         <v>178</v>
       </c>
-      <c r="W19" t="s">
+      <c r="Y19" t="s">
         <v>180</v>
       </c>
-      <c r="X19" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>181</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.4">
@@ -14905,7 +15100,7 @@
         <v>77</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>78</v>
@@ -14935,7 +15130,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="3"/>
@@ -14986,7 +15181,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="3"/>
@@ -15079,15 +15274,15 @@
       </c>
       <c r="D27" t="str">
         <f>_xlfn.XLOOKUP(C27,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>作業者マスタ</v>
+        <v>作業者グループマスタ</v>
       </c>
       <c r="E27" t="str">
         <f>_xlfn.XLOOKUP($C27,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_worker_mst</v>
+        <v>tmp_worker_group_mst</v>
       </c>
       <c r="P27" s="14" t="str">
         <f>"■"&amp;D27&amp;":"&amp;E27</f>
-        <v>■作業者マスタ:tmp_worker_mst</v>
+        <v>■作業者グループマスタ:tmp_worker_group_mst</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.4">
@@ -15116,7 +15311,7 @@
         <v>77</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>78</v>
@@ -15128,10 +15323,10 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D29" s="3" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -15146,21 +15341,21 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="3"/>
       <c r="P29" s="15" t="str">
         <f t="shared" ref="P29:P33" si="4">IF(E29="","",D29&amp;":"&amp;E29&amp;IF(F29=1,"(PK)","")&amp;IF(I29=1,"(FK)",""))</f>
-        <v>作業者コード:worker_code(PK)</v>
+        <v>作業者グループコード:worker_group_code(PK)</v>
       </c>
       <c r="R29" s="24" t="str">
         <f>D29</f>
-        <v>作業者コード</v>
+        <v>作業者グループコード</v>
       </c>
       <c r="S29" s="24" t="str">
         <f>E29</f>
-        <v>worker_code</v>
+        <v>worker_group_code</v>
       </c>
       <c r="T29" s="24" t="str">
         <f>L29</f>
@@ -15181,10 +15376,10 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D30" s="3" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3">
@@ -15197,21 +15392,21 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
       <c r="P30" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>作業者名称:worker_name</v>
+        <v>作業者グループ名称:worker_group_name</v>
       </c>
       <c r="R30" s="24" t="str">
         <f>D30</f>
-        <v>作業者名称</v>
+        <v>作業者グループ名称</v>
       </c>
       <c r="S30" s="24" t="str">
         <f>E30</f>
-        <v>worker_name</v>
+        <v>worker_group_name</v>
       </c>
       <c r="T30" s="24" t="str">
         <f>L30</f>
@@ -15290,15 +15485,15 @@
       </c>
       <c r="D35" t="str">
         <f>_xlfn.XLOOKUP(C35,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>勤務予定マスタ</v>
+        <v>作業者マスタ</v>
       </c>
       <c r="E35" t="str">
         <f>_xlfn.XLOOKUP($C35,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_working_time_plan_mst</v>
+        <v>tmp_worker_mst</v>
       </c>
       <c r="P35" s="14" t="str">
         <f>"■"&amp;D35&amp;":"&amp;E35</f>
-        <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
+        <v>■作業者マスタ:tmp_worker_mst</v>
       </c>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.4">
@@ -15327,7 +15522,7 @@
         <v>77</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>78</v>
@@ -15339,7 +15534,7 @@
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D37" s="3" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>162</v>
@@ -15356,9 +15551,8 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3" t="str">
-        <f>L29</f>
-        <v>VARCHAR2(20)</v>
+      <c r="L37" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="3"/>
@@ -15367,7 +15561,7 @@
         <v>作業者コード:worker_code(PK)</v>
       </c>
       <c r="R37" s="24" t="str">
-        <f t="shared" ref="R37:R39" si="8">D37</f>
+        <f>D37</f>
         <v>作業者コード</v>
       </c>
       <c r="S37" s="24" t="str">
@@ -15379,7 +15573,7 @@
         <v>VARCHAR2(20)</v>
       </c>
       <c r="U37" s="24" t="str">
-        <f>IF(G37=1,"NOT NULL","")</f>
+        <f t="shared" ref="U37:U38" si="8">IF(G37=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
       <c r="V37" s="24">
@@ -15393,53 +15587,49 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D38" s="3" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3">
         <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="M38" s="9"/>
-      <c r="N38" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="N38" s="3"/>
       <c r="P38" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>曜日番号:weekday</v>
+        <v>作業者名称:worker_name</v>
       </c>
       <c r="R38" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v>曜日番号</v>
+        <f>D38</f>
+        <v>作業者名称</v>
       </c>
       <c r="S38" s="24" t="str">
         <f>E38</f>
-        <v>weekday</v>
+        <v>worker_name</v>
       </c>
       <c r="T38" s="24" t="str">
         <f>L38</f>
-        <v>NUMBER(1,0)</v>
+        <v>VARCHAR2(40)</v>
       </c>
       <c r="U38" s="24" t="str">
-        <f>IF(G38=1,"NOT NULL","")</f>
+        <f t="shared" si="8"/>
         <v>NOT NULL</v>
       </c>
-      <c r="V38" s="24">
-        <f>IF(F38="","",F38)</f>
-        <v>2</v>
+      <c r="V38" s="24" t="str">
+        <f t="shared" ref="V38" si="9">IF(F38="","",F38)</f>
+        <v/>
       </c>
       <c r="W38" s="24"/>
       <c r="X38" s="24"/>
@@ -15448,52 +15638,28 @@
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D39" s="3" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
       <c r="P39" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>勤務時間:working_time</v>
-      </c>
-      <c r="R39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v>勤務時間</v>
-      </c>
-      <c r="S39" s="24" t="str">
-        <f>E39</f>
-        <v>working_time</v>
-      </c>
-      <c r="T39" s="24" t="str">
-        <f>L39</f>
-        <v>NUMBER(4,2)</v>
-      </c>
-      <c r="U39" s="24" t="str">
-        <f>IF(G39=1,"NOT NULL","")</f>
-        <v/>
-      </c>
-      <c r="V39" s="24" t="str">
-        <f>IF(F39="","",F39)</f>
-        <v/>
-      </c>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
+        <v>作業者グループコード:worker_group_code</v>
+      </c>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D40" s="3"/>
@@ -15538,15 +15704,15 @@
       </c>
       <c r="D43" t="str">
         <f>_xlfn.XLOOKUP(C43,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>ページマスタ</v>
+        <v>勤務予定マスタ</v>
       </c>
       <c r="E43" t="str">
         <f>_xlfn.XLOOKUP($C43,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_page_mst</v>
+        <v>tmp_working_time_plan_mst</v>
       </c>
       <c r="P43" s="14" t="str">
         <f>"■"&amp;D43&amp;":"&amp;E43</f>
-        <v>■ページマスタ:tmp_page_mst</v>
+        <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.4">
@@ -15575,7 +15741,7 @@
         <v>77</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>78</v>
@@ -15587,10 +15753,10 @@
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D45" s="3" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -15599,36 +15765,39 @@
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="3" t="str">
+        <f>L37</f>
+        <v>VARCHAR2(20)</v>
+      </c>
       <c r="M45" s="9"/>
       <c r="N45" s="3"/>
       <c r="P45" s="15" t="str">
-        <f t="shared" ref="P45:P56" si="9">IF(E45="","",D45&amp;":"&amp;E45&amp;IF(F45=1,"(PK)","")&amp;IF(I45=1,"(FK)",""))</f>
-        <v>ページID:page_id(PK)</v>
+        <f t="shared" ref="P45:P49" si="10">IF(E45="","",D45&amp;":"&amp;E45&amp;IF(F45=1,"(PK)","")&amp;IF(I45=1,"(FK)",""))</f>
+        <v>作業者コード:worker_code(PK)</v>
       </c>
       <c r="R45" s="24" t="str">
-        <f t="shared" ref="R45:R47" si="10">D45</f>
-        <v>ページID</v>
+        <f t="shared" ref="R45:R47" si="11">D45</f>
+        <v>作業者コード</v>
       </c>
       <c r="S45" s="24" t="str">
-        <f t="shared" ref="S45:S47" si="11">E45</f>
-        <v>page_id</v>
-      </c>
-      <c r="T45" s="24">
-        <f t="shared" ref="T45:T47" si="12">L45</f>
-        <v>0</v>
+        <f>E45</f>
+        <v>worker_code</v>
+      </c>
+      <c r="T45" s="24" t="str">
+        <f>L45</f>
+        <v>VARCHAR2(20)</v>
       </c>
       <c r="U45" s="24" t="str">
-        <f t="shared" ref="U45:U47" si="13">IF(G45=1,"NOT NULL","")</f>
+        <f>IF(G45=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
       <c r="V45" s="24">
-        <f t="shared" ref="V45:V47" si="14">IF(F45="","",F45)</f>
+        <f>IF(F45="","",F45)</f>
         <v>1</v>
       </c>
       <c r="W45" s="24"/>
@@ -15638,47 +15807,53 @@
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D46" s="3" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
       <c r="G46" s="3">
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="M46" s="9"/>
-      <c r="N46" s="3"/>
+      <c r="N46" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="P46" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>ページ名称:page_name</v>
+        <f t="shared" si="10"/>
+        <v>曜日番号:weekday</v>
       </c>
       <c r="R46" s="24" t="str">
-        <f t="shared" si="10"/>
-        <v>ページ名称</v>
+        <f t="shared" si="11"/>
+        <v>曜日番号</v>
       </c>
       <c r="S46" s="24" t="str">
-        <f t="shared" si="11"/>
-        <v>page_name</v>
-      </c>
-      <c r="T46" s="24">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>E46</f>
+        <v>weekday</v>
+      </c>
+      <c r="T46" s="24" t="str">
+        <f>L46</f>
+        <v>NUMBER(1,0)</v>
       </c>
       <c r="U46" s="24" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(G46=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
-      <c r="V46" s="24" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+      <c r="V46" s="24">
+        <f>IF(F46="","",F46)</f>
+        <v>2</v>
       </c>
       <c r="W46" s="24"/>
       <c r="X46" s="24"/>
@@ -15687,44 +15862,46 @@
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D47" s="3" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="M47" s="9"/>
       <c r="N47" s="3"/>
       <c r="P47" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>動画リンク:movie_link</v>
+        <f t="shared" si="10"/>
+        <v>勤務時間:working_time</v>
       </c>
       <c r="R47" s="24" t="str">
-        <f t="shared" si="10"/>
-        <v>動画リンク</v>
+        <f t="shared" si="11"/>
+        <v>勤務時間</v>
       </c>
       <c r="S47" s="24" t="str">
-        <f t="shared" si="11"/>
-        <v>movie_link</v>
-      </c>
-      <c r="T47" s="24">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>E47</f>
+        <v>working_time</v>
+      </c>
+      <c r="T47" s="24" t="str">
+        <f>L47</f>
+        <v>NUMBER(4,2)</v>
       </c>
       <c r="U47" s="24" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(G47=1,"NOT NULL","")</f>
         <v/>
       </c>
       <c r="V47" s="24" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(F47="","",F47)</f>
         <v/>
       </c>
       <c r="W47" s="24"/>
@@ -15733,17 +15910,11 @@
       <c r="Z47" s="24"/>
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D48" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -15751,46 +15922,16 @@
       <c r="M48" s="9"/>
       <c r="N48" s="3"/>
       <c r="P48" s="15" t="str">
-        <f t="shared" ref="P48:P54" si="15">IF(E48="","",D48&amp;":"&amp;E48&amp;IF(F48=1,"(PK)","")&amp;IF(I48=1,"(FK)",""))</f>
-        <v>画像フォルダリンク:image_folder_link</v>
-      </c>
-      <c r="R48" s="24" t="str">
-        <f t="shared" ref="R48:R53" si="16">D48</f>
-        <v>画像フォルダリンク</v>
-      </c>
-      <c r="S48" s="24" t="str">
-        <f t="shared" ref="S48:S53" si="17">E48</f>
-        <v>image_folder_link</v>
-      </c>
-      <c r="T48" s="24">
-        <f t="shared" ref="T48:T53" si="18">L48</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="24" t="str">
-        <f t="shared" ref="U48:U53" si="19">IF(G48=1,"NOT NULL","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V48" s="24" t="str">
-        <f t="shared" ref="V48:V53" si="20">IF(F48="","",F48)</f>
-        <v/>
-      </c>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
     </row>
     <row r="49" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D49" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -15798,188 +15939,81 @@
       <c r="M49" s="9"/>
       <c r="N49" s="3"/>
       <c r="P49" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>画像ページNo:image_page_no</v>
-      </c>
-      <c r="R49" s="24" t="str">
-        <f t="shared" si="16"/>
-        <v>画像ページNo</v>
-      </c>
-      <c r="S49" s="24" t="str">
-        <f t="shared" si="17"/>
-        <v>image_page_no</v>
-      </c>
-      <c r="T49" s="24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V49" s="24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
     </row>
     <row r="50" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D50" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="3"/>
-      <c r="P50" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>スライド停止時間:slide_waiting_time</v>
-      </c>
-      <c r="R50" s="24" t="str">
-        <f t="shared" si="16"/>
-        <v>スライド停止時間</v>
-      </c>
-      <c r="S50" s="24" t="str">
-        <f t="shared" si="17"/>
-        <v>slide_waiting_time</v>
-      </c>
-      <c r="T50" s="24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="24" t="str">
-        <f t="shared" si="19"/>
-        <v>NOT NULL</v>
-      </c>
-      <c r="V50" s="24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
+      <c r="P50" s="14"/>
     </row>
     <row r="51" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D51" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="3"/>
-      <c r="P51" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>説明1:note1</v>
-      </c>
-      <c r="R51" s="24" t="str">
-        <f t="shared" si="16"/>
-        <v>説明1</v>
-      </c>
-      <c r="S51" s="24" t="str">
-        <f t="shared" si="17"/>
-        <v>note1</v>
-      </c>
-      <c r="T51" s="24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="24" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="V51" s="24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="str">
+        <f>_xlfn.XLOOKUP(C51,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>ページマスタ</v>
+      </c>
+      <c r="E51" t="str">
+        <f>_xlfn.XLOOKUP($C51,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_page_mst</v>
+      </c>
+      <c r="P51" s="14" t="str">
+        <f>"■"&amp;D51&amp;":"&amp;E51</f>
+        <v>■ページマスタ:tmp_page_mst</v>
+      </c>
     </row>
     <row r="52" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D52" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="3"/>
-      <c r="P52" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>説明2:note2</v>
-      </c>
-      <c r="R52" s="24" t="str">
-        <f t="shared" si="16"/>
-        <v>説明2</v>
-      </c>
-      <c r="S52" s="24" t="str">
-        <f t="shared" si="17"/>
-        <v>note2</v>
-      </c>
-      <c r="T52" s="24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="24" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="V52" s="24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="W52" s="24"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="24"/>
+      <c r="D52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52" s="14"/>
     </row>
     <row r="53" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D53" s="3" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
       <c r="H53" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -15988,28 +16022,28 @@
       <c r="M53" s="9"/>
       <c r="N53" s="3"/>
       <c r="P53" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>説明3:note3</v>
+        <f t="shared" ref="P53:P64" si="12">IF(E53="","",D53&amp;":"&amp;E53&amp;IF(F53=1,"(PK)","")&amp;IF(I53=1,"(FK)",""))</f>
+        <v>ページID:page_id(PK)</v>
       </c>
       <c r="R53" s="24" t="str">
-        <f t="shared" si="16"/>
-        <v>説明3</v>
+        <f t="shared" ref="R53:R55" si="13">D53</f>
+        <v>ページID</v>
       </c>
       <c r="S53" s="24" t="str">
-        <f t="shared" si="17"/>
-        <v>note3</v>
+        <f t="shared" ref="S53:S55" si="14">E53</f>
+        <v>page_id</v>
       </c>
       <c r="T53" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="T53:T55" si="15">L53</f>
         <v>0</v>
       </c>
       <c r="U53" s="24" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="V53" s="24" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" ref="U53:U55" si="16">IF(G53=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V53" s="24">
+        <f t="shared" ref="V53:V55" si="17">IF(F53="","",F53)</f>
+        <v>1</v>
       </c>
       <c r="W53" s="24"/>
       <c r="X53" s="24"/>
@@ -16017,11 +16051,19 @@
       <c r="Z53" s="24"/>
     </row>
     <row r="54" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -16029,16 +16071,46 @@
       <c r="M54" s="9"/>
       <c r="N54" s="3"/>
       <c r="P54" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>ページ名称:page_name</v>
+      </c>
+      <c r="R54" s="24" t="str">
+        <f t="shared" si="13"/>
+        <v>ページ名称</v>
+      </c>
+      <c r="S54" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>page_name</v>
+      </c>
+      <c r="T54" s="24">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V54" s="24" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
     </row>
     <row r="55" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -16046,16 +16118,46 @@
       <c r="M55" s="9"/>
       <c r="N55" s="3"/>
       <c r="P55" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
+        <v>動画リンク:movie_link</v>
+      </c>
+      <c r="R55" s="24" t="str">
+        <f t="shared" si="13"/>
+        <v>動画リンク</v>
+      </c>
+      <c r="S55" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>movie_link</v>
+      </c>
+      <c r="T55" s="24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="24" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
+      <c r="V55" s="24" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
     </row>
     <row r="56" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -16063,76 +16165,186 @@
       <c r="M56" s="9"/>
       <c r="N56" s="3"/>
       <c r="P56" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P56:P62" si="18">IF(E56="","",D56&amp;":"&amp;E56&amp;IF(F56=1,"(PK)","")&amp;IF(I56=1,"(FK)",""))</f>
+        <v>画像フォルダリンク:image_folder_link</v>
+      </c>
+      <c r="R56" s="24" t="str">
+        <f t="shared" ref="R56:R61" si="19">D56</f>
+        <v>画像フォルダリンク</v>
+      </c>
+      <c r="S56" s="24" t="str">
+        <f t="shared" ref="S56:S61" si="20">E56</f>
+        <v>image_folder_link</v>
+      </c>
+      <c r="T56" s="24">
+        <f t="shared" ref="T56:T61" si="21">L56</f>
+        <v>0</v>
+      </c>
+      <c r="U56" s="24" t="str">
+        <f t="shared" ref="U56:U61" si="22">IF(G56=1,"NOT NULL","")</f>
         <v/>
       </c>
+      <c r="V56" s="24" t="str">
+        <f t="shared" ref="V56:V61" si="23">IF(F56="","",F56)</f>
+        <v/>
+      </c>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="3"/>
+      <c r="P57" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>画像ページNo:image_page_no</v>
+      </c>
+      <c r="R57" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v>画像ページNo</v>
+      </c>
+      <c r="S57" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v>image_page_no</v>
+      </c>
+      <c r="T57" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="24" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V57" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="W57" s="24"/>
+      <c r="X57" s="24"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="24"/>
     </row>
     <row r="58" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C58">
-        <v>5</v>
-      </c>
-      <c r="D58" t="str">
-        <f>_xlfn.XLOOKUP(C58,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>採番テーブル</v>
-      </c>
-      <c r="E58" t="str">
-        <f>_xlfn.XLOOKUP($C58,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>tmp_numbering_tbl</v>
-      </c>
-      <c r="P58" s="14" t="str">
-        <f>"■"&amp;D58&amp;":"&amp;E58</f>
-        <v>■採番テーブル:tmp_numbering_tbl</v>
-      </c>
+      <c r="D58" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="3"/>
+      <c r="P58" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>スライド停止時間:slide_waiting_time</v>
+      </c>
+      <c r="R58" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v>スライド停止時間</v>
+      </c>
+      <c r="S58" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v>slide_waiting_time</v>
+      </c>
+      <c r="T58" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="24" t="str">
+        <f t="shared" si="22"/>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V58" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
     </row>
     <row r="59" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D59" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L59" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P59" s="14"/>
+      <c r="D59" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="3"/>
+      <c r="P59" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>説明1:note1</v>
+      </c>
+      <c r="R59" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v>説明1</v>
+      </c>
+      <c r="S59" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v>note1</v>
+      </c>
+      <c r="T59" s="24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="24" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V59" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
     </row>
     <row r="60" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D60" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
         <v>158</v>
       </c>
@@ -16143,28 +16355,28 @@
       <c r="M60" s="9"/>
       <c r="N60" s="3"/>
       <c r="P60" s="15" t="str">
-        <f t="shared" ref="P60:P64" si="21">IF(E60="","",D60&amp;":"&amp;E60&amp;IF(F60=1,"(PK)","")&amp;IF(I60=1,"(FK)",""))</f>
-        <v>採番項目:numbering_item(PK)</v>
+        <f t="shared" si="18"/>
+        <v>説明2:note2</v>
       </c>
       <c r="R60" s="24" t="str">
-        <f t="shared" ref="R60:R61" si="22">D60</f>
-        <v>採番項目</v>
+        <f t="shared" si="19"/>
+        <v>説明2</v>
       </c>
       <c r="S60" s="24" t="str">
-        <f>E60</f>
-        <v>numbering_item</v>
+        <f t="shared" si="20"/>
+        <v>note2</v>
       </c>
       <c r="T60" s="24">
-        <f>L60</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U60" s="24" t="str">
-        <f>IF(G60=1,"NOT NULL","")</f>
-        <v>NOT NULL</v>
-      </c>
-      <c r="V60" s="24">
-        <f>IF(F60="","",F60)</f>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V60" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v/>
       </c>
       <c r="W60" s="24"/>
       <c r="X60" s="24"/>
@@ -16173,17 +16385,15 @@
     </row>
     <row r="61" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D61" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
+      <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -16192,27 +16402,27 @@
       <c r="M61" s="9"/>
       <c r="N61" s="3"/>
       <c r="P61" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>説明3:note3</v>
+      </c>
+      <c r="R61" s="24" t="str">
+        <f t="shared" si="19"/>
+        <v>説明3</v>
+      </c>
+      <c r="S61" s="24" t="str">
+        <f t="shared" si="20"/>
+        <v>note3</v>
+      </c>
+      <c r="T61" s="24">
         <f t="shared" si="21"/>
-        <v>最終発行番号:last_insert_id</v>
-      </c>
-      <c r="R61" s="24" t="str">
+        <v>0</v>
+      </c>
+      <c r="U61" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>最終発行番号</v>
-      </c>
-      <c r="S61" s="24" t="str">
-        <f>E61</f>
-        <v>last_insert_id</v>
-      </c>
-      <c r="T61" s="24">
-        <f>L61</f>
-        <v>0</v>
-      </c>
-      <c r="U61" s="24" t="str">
-        <f>IF(G61=1,"NOT NULL","")</f>
-        <v>NOT NULL</v>
+        <v/>
       </c>
       <c r="V61" s="24" t="str">
-        <f>IF(F61="","",F61)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W61" s="24"/>
@@ -16233,7 +16443,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="3"/>
       <c r="P62" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -16250,7 +16460,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="3"/>
       <c r="P63" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -16267,25 +16477,234 @@
       <c r="M64" s="9"/>
       <c r="N64" s="3"/>
       <c r="P64" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" t="e">
+        <f>_xlfn.XLOOKUP(C66,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E66" t="e">
+        <f>_xlfn.XLOOKUP($C66,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P66" s="14" t="e">
+        <f>"■"&amp;D66&amp;":"&amp;E66</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D67" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L67" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67" s="14"/>
+    </row>
+    <row r="68" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D68" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="3"/>
+      <c r="P68" s="15" t="str">
+        <f t="shared" ref="P68:P72" si="24">IF(E68="","",D68&amp;":"&amp;E68&amp;IF(F68=1,"(PK)","")&amp;IF(I68=1,"(FK)",""))</f>
+        <v>採番項目:numbering_item(PK)</v>
+      </c>
+      <c r="R68" s="24" t="str">
+        <f t="shared" ref="R68:R69" si="25">D68</f>
+        <v>採番項目</v>
+      </c>
+      <c r="S68" s="24" t="str">
+        <f>E68</f>
+        <v>numbering_item</v>
+      </c>
+      <c r="T68" s="24">
+        <f>L68</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="24" t="str">
+        <f>IF(G68=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V68" s="24">
+        <f>IF(F68="","",F68)</f>
+        <v>1</v>
+      </c>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+    </row>
+    <row r="69" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D69" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="3"/>
+      <c r="P69" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v>最終発行番号:last_insert_id</v>
+      </c>
+      <c r="R69" s="24" t="str">
+        <f t="shared" si="25"/>
+        <v>最終発行番号</v>
+      </c>
+      <c r="S69" s="24" t="str">
+        <f>E69</f>
+        <v>last_insert_id</v>
+      </c>
+      <c r="T69" s="24">
+        <f>L69</f>
+        <v>0</v>
+      </c>
+      <c r="U69" s="24" t="str">
+        <f>IF(G69=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V69" s="24" t="str">
+        <f>IF(F69="","",F69)</f>
+        <v/>
+      </c>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+    </row>
+    <row r="70" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="3"/>
+      <c r="P70" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="3"/>
+      <c r="P71" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="3"/>
+      <c r="P72" s="15" t="str">
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P29:P33 P21:P25 P37:P41">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="PK">
+  <conditionalFormatting sqref="P37:P41 P21:P25 P45:P49">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P45:P56">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P45)))</formula>
+  <conditionalFormatting sqref="P53:P64">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P60:P64">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P60)))</formula>
+  <conditionalFormatting sqref="P68:P72">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29:P33">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16301,7 +16720,7 @@
   <dimension ref="A1:AZ3"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BA14" sqref="BA14"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F4CFE-9739-4363-8423-23DEA06E768D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6725D975-A71E-46E1-BB40-BB31A1370232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="268">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1800,6 +1800,24 @@
     <t>更新日:2023/02/05</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル6画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample006View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Lookout for Vision 操作</t>
+    <rPh sb="23" eb="25">
+      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12845,7 +12863,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18484"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18487"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12910,7 +12928,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18485"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18488"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12975,7 +12993,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18486"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18489"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14366,7 +14384,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -14596,14 +14614,20 @@
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>266</v>
+      </c>
       <c r="E15" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D15&amp;"Model")</f>
-        <v/>
+        <v>Sample006ViewModel</v>
       </c>
       <c r="F15" s="34"/>
-      <c r="G15" s="36"/>
+      <c r="G15" s="36" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="31">

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6725D975-A71E-46E1-BB40-BB31A1370232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6645A4-316A-4D24-B77A-514D2A193BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="1431" yWindow="343" windowWidth="17940" windowHeight="12163" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -12863,7 +12863,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18487"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18493"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12928,7 +12928,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18488"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18494"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12993,7 +12993,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18489"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18495"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6645A4-316A-4D24-B77A-514D2A193BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7BA4E7-7B69-4051-B851-585956770AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1431" yWindow="343" windowWidth="17940" windowHeight="12163" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="280">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1283,14 +1283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR2(40)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ型（DB）</t>
     <rPh sb="3" eb="4">
       <t>カタ</t>
@@ -1368,19 +1360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル名称には、先頭に「tmp」（template）を付与する。</t>
-    <rPh sb="4" eb="6">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tmp_working_time_plan_mst</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1743,17 +1722,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6[</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未使用</t>
-    <rPh sb="0" eb="3">
-      <t>ミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1818,6 +1786,131 @@
     <t>AWS Lookout for Vision 操作</t>
     <rPh sb="23" eb="25">
       <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル7画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20 CHAR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2(40 CHAR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用（使い捨てのID採番を実装する際に利用）</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tmp_task_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名称には、利用システムを識別するため、先頭に「tmp」（template）を付与する。</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工程コード</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者コード</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>process_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_dead_line</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク期限</t>
+    <rPh sb="3" eb="5">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク一覧、DataGrid自動更新</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1826,7 +1919,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1907,8 +2000,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1939,8 +2040,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2079,6 +2186,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2088,7 +2243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2218,6 +2373,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2225,32 +2407,54 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2391,46 +2595,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -12863,7 +13027,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18493"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18511"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12928,7 +13092,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18494"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18512"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12993,7 +13157,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18495"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18513"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13139,13 +13303,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:F15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="C6:F15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3DDA8FA4-E8A2-48D4-B50A-F74192711AA9}" name="備考" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="C6:E15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13583,7 +13746,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -13817,7 +13980,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -14110,12 +14273,12 @@
         <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
@@ -14384,7 +14547,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -14411,7 +14574,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="27" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -14486,7 +14649,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="35" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -14495,10 +14658,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E9" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D9&amp;"Model")</f>
@@ -14506,7 +14669,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -14515,10 +14678,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E10" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D10&amp;"Model")</f>
@@ -14526,7 +14689,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -14535,10 +14698,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E11" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
@@ -14546,7 +14709,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="35" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -14555,10 +14718,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E12" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D12&amp;"Model")</f>
@@ -14566,7 +14729,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -14575,10 +14738,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E13" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D13&amp;"Model")</f>
@@ -14586,7 +14749,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -14595,10 +14758,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E14" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D14&amp;"Model")</f>
@@ -14606,7 +14769,7 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="36" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -14615,10 +14778,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E15" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D15&amp;"Model")</f>
@@ -14626,7 +14789,7 @@
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="36" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -14634,14 +14797,20 @@
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>261</v>
+      </c>
       <c r="E16" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D16&amp;"Model")</f>
-        <v/>
+        <v>Sample006ViewModel</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="36"/>
+      <c r="G16" s="36" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="31">
@@ -14771,7 +14940,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -14872,11 +15041,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
-  <dimension ref="A1:Z72"/>
+  <dimension ref="A1:Z82"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D39" sqref="D39:H39"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -14886,8 +15055,9 @@
     <col min="4" max="4" width="22.3125" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="6.875" customWidth="1"/>
-    <col min="12" max="12" width="14.1875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="35.8125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.4375" customWidth="1"/>
+    <col min="14" max="14" width="35.8125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.5625" customWidth="1"/>
     <col min="16" max="16" width="29.9375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.5625" customWidth="1"/>
@@ -14914,13 +15084,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -14941,9 +15111,13 @@
       <c r="E6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>257</v>
-      </c>
+      <c r="G6" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
@@ -14955,77 +15129,109 @@
       <c r="E7" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>248</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>256</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>7</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
@@ -15033,7 +15239,11 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
@@ -15041,7 +15251,11 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="21"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
@@ -15051,7 +15265,7 @@
         <v>174</v>
       </c>
       <c r="R18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
@@ -15066,6 +15280,9 @@
         <f>_xlfn.XLOOKUP($C19,テーブル一覧[No],テーブル一覧[物理名])</f>
         <v>tmp_sample_mst</v>
       </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
       <c r="P19" s="14" t="str">
         <f>"■"&amp;D19&amp;":"&amp;E19</f>
         <v>■サンプルマスタ:tmp_sample_mst</v>
@@ -15124,7 +15341,7 @@
         <v>77</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>78</v>
@@ -15154,7 +15371,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="3"/>
@@ -15172,7 +15389,7 @@
       </c>
       <c r="T21" s="24" t="str">
         <f>L21</f>
-        <v>VARCHAR2(20)</v>
+        <v>VARCHAR2(20 CHAR)</v>
       </c>
       <c r="U21" s="24" t="str">
         <f>IF(G21=1,"NOT NULL","")</f>
@@ -15205,7 +15422,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="3"/>
@@ -15223,7 +15440,7 @@
       </c>
       <c r="T22" s="24" t="str">
         <f>L22</f>
-        <v>VARCHAR2(40)</v>
+        <v>VARCHAR2(40 CHAR)</v>
       </c>
       <c r="U22" s="24" t="str">
         <f t="shared" ref="U22" si="1">IF(G22=1,"NOT NULL","")</f>
@@ -15335,7 +15552,7 @@
         <v>77</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>78</v>
@@ -15347,10 +15564,10 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -15365,7 +15582,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="3"/>
@@ -15383,7 +15600,7 @@
       </c>
       <c r="T29" s="24" t="str">
         <f>L29</f>
-        <v>VARCHAR2(20)</v>
+        <v>VARCHAR2(20 CHAR)</v>
       </c>
       <c r="U29" s="24" t="str">
         <f t="shared" ref="U29:U30" si="5">IF(G29=1,"NOT NULL","")</f>
@@ -15400,10 +15617,10 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D30" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3">
@@ -15416,7 +15633,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
@@ -15434,7 +15651,7 @@
       </c>
       <c r="T30" s="24" t="str">
         <f>L30</f>
-        <v>VARCHAR2(40)</v>
+        <v>VARCHAR2(40 CHAR)</v>
       </c>
       <c r="U30" s="24" t="str">
         <f t="shared" si="5"/>
@@ -15546,7 +15763,7 @@
         <v>77</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>78</v>
@@ -15558,7 +15775,7 @@
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D37" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>162</v>
@@ -15576,7 +15793,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="3"/>
@@ -15594,7 +15811,7 @@
       </c>
       <c r="T37" s="24" t="str">
         <f>L37</f>
-        <v>VARCHAR2(20)</v>
+        <v>VARCHAR2(20 CHAR)</v>
       </c>
       <c r="U37" s="24" t="str">
         <f t="shared" ref="U37:U38" si="8">IF(G37=1,"NOT NULL","")</f>
@@ -15611,10 +15828,10 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D38" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3">
@@ -15627,7 +15844,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="3"/>
@@ -15645,7 +15862,7 @@
       </c>
       <c r="T38" s="24" t="str">
         <f>L38</f>
-        <v>VARCHAR2(40)</v>
+        <v>VARCHAR2(40 CHAR)</v>
       </c>
       <c r="U38" s="24" t="str">
         <f t="shared" si="8"/>
@@ -15662,10 +15879,10 @@
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D39" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -15676,7 +15893,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
@@ -15765,7 +15982,7 @@
         <v>77</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>78</v>
@@ -15777,7 +15994,7 @@
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D45" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>162</v>
@@ -15796,7 +16013,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="str">
         <f>L37</f>
-        <v>VARCHAR2(20)</v>
+        <v>VARCHAR2(20 CHAR)</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="3"/>
@@ -15814,7 +16031,7 @@
       </c>
       <c r="T45" s="24" t="str">
         <f>L45</f>
-        <v>VARCHAR2(20)</v>
+        <v>VARCHAR2(20 CHAR)</v>
       </c>
       <c r="U45" s="24" t="str">
         <f>IF(G45=1,"NOT NULL","")</f>
@@ -15831,10 +16048,10 @@
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D46" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F46" s="3">
         <v>2</v>
@@ -15843,17 +16060,17 @@
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P46" s="15" t="str">
         <f t="shared" si="10"/>
@@ -15886,21 +16103,21 @@
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D47" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="3"/>
@@ -16013,7 +16230,7 @@
         <v>77</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>78</v>
@@ -16025,10 +16242,10 @@
     </row>
     <row r="53" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D53" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -16037,7 +16254,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -16076,10 +16293,10 @@
     </row>
     <row r="54" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D54" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3">
@@ -16125,10 +16342,10 @@
     </row>
     <row r="55" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D55" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -16172,10 +16389,10 @@
     </row>
     <row r="56" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D56" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -16219,15 +16436,15 @@
     </row>
     <row r="57" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D57" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -16266,17 +16483,17 @@
     </row>
     <row r="58" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D58" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3">
         <v>1</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -16315,10 +16532,10 @@
     </row>
     <row r="59" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D59" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -16362,10 +16579,10 @@
     </row>
     <row r="60" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D60" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -16409,10 +16626,10 @@
     </row>
     <row r="61" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D61" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -16506,20 +16723,20 @@
       </c>
     </row>
     <row r="66" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C66" t="s">
-        <v>255</v>
-      </c>
-      <c r="D66" t="e">
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66" t="str">
         <f>_xlfn.XLOOKUP(C66,テーブル一覧[No],テーブル一覧[論理名])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E66" t="e">
+        <v>タスクマスタ</v>
+      </c>
+      <c r="E66" t="str">
         <f>_xlfn.XLOOKUP($C66,テーブル一覧[No],テーブル一覧[物理名])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P66" s="14" t="e">
+        <v>tmp_task_mst</v>
+      </c>
+      <c r="P66" s="14" t="str">
         <f>"■"&amp;D66&amp;":"&amp;E66</f>
-        <v>#N/A</v>
+        <v>■タスクマスタ:tmp_task_mst</v>
       </c>
     </row>
     <row r="67" spans="3:26" x14ac:dyDescent="0.4">
@@ -16548,7 +16765,7 @@
         <v>77</v>
       </c>
       <c r="L67" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>78</v>
@@ -16560,10 +16777,10 @@
     </row>
     <row r="68" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D68" s="3" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
@@ -16572,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -16581,27 +16798,27 @@
       <c r="M68" s="9"/>
       <c r="N68" s="3"/>
       <c r="P68" s="15" t="str">
-        <f t="shared" ref="P68:P72" si="24">IF(E68="","",D68&amp;":"&amp;E68&amp;IF(F68=1,"(PK)","")&amp;IF(I68=1,"(FK)",""))</f>
-        <v>採番項目:numbering_item(PK)</v>
+        <f t="shared" ref="P68:P74" si="24">IF(E68="","",D68&amp;":"&amp;E68&amp;IF(F68=1,"(PK)","")&amp;IF(I68=1,"(FK)",""))</f>
+        <v>タスクID:task_id(PK)</v>
       </c>
       <c r="R68" s="24" t="str">
-        <f t="shared" ref="R68:R69" si="25">D68</f>
-        <v>採番項目</v>
+        <f t="shared" ref="R68:R72" si="25">D68</f>
+        <v>タスクID</v>
       </c>
       <c r="S68" s="24" t="str">
-        <f>E68</f>
-        <v>numbering_item</v>
+        <f t="shared" ref="S68:S72" si="26">E68</f>
+        <v>task_id</v>
       </c>
       <c r="T68" s="24">
-        <f>L68</f>
+        <f t="shared" ref="T68:T72" si="27">L68</f>
         <v>0</v>
       </c>
       <c r="U68" s="24" t="str">
-        <f>IF(G68=1,"NOT NULL","")</f>
+        <f t="shared" ref="U68:U72" si="28">IF(G68=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
       <c r="V68" s="24">
-        <f>IF(F68="","",F68)</f>
+        <f t="shared" ref="V68:V72" si="29">IF(F68="","",F68)</f>
         <v>1</v>
       </c>
       <c r="W68" s="24"/>
@@ -16611,18 +16828,14 @@
     </row>
     <row r="69" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D69" s="3" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="F69" s="3"/>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -16631,26 +16844,26 @@
       <c r="N69" s="3"/>
       <c r="P69" s="15" t="str">
         <f t="shared" si="24"/>
-        <v>最終発行番号:last_insert_id</v>
+        <v>タスク:task</v>
       </c>
       <c r="R69" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>最終発行番号</v>
+        <v>タスク</v>
       </c>
       <c r="S69" s="24" t="str">
-        <f>E69</f>
-        <v>last_insert_id</v>
+        <f t="shared" si="26"/>
+        <v>task</v>
       </c>
       <c r="T69" s="24">
-        <f>L69</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U69" s="24" t="str">
-        <f>IF(G69=1,"NOT NULL","")</f>
-        <v>NOT NULL</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="V69" s="24" t="str">
-        <f>IF(F69="","",F69)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="W69" s="24"/>
@@ -16659,8 +16872,12 @@
       <c r="Z69" s="24"/>
     </row>
     <row r="70" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -16672,12 +16889,40 @@
       <c r="N70" s="3"/>
       <c r="P70" s="15" t="str">
         <f t="shared" si="24"/>
+        <v>タスク期限:task_dead_line</v>
+      </c>
+      <c r="R70" s="24" t="str">
+        <f t="shared" si="25"/>
+        <v>タスク期限</v>
+      </c>
+      <c r="S70" s="24" t="str">
+        <f t="shared" si="26"/>
+        <v>task_dead_line</v>
+      </c>
+      <c r="T70" s="24">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="24" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
+      <c r="V70" s="24" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
     </row>
     <row r="71" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -16689,16 +16934,46 @@
       <c r="N71" s="3"/>
       <c r="P71" s="15" t="str">
         <f t="shared" si="24"/>
+        <v>工程コード:process_code</v>
+      </c>
+      <c r="R71" s="24" t="str">
+        <f t="shared" si="25"/>
+        <v>工程コード</v>
+      </c>
+      <c r="S71" s="24" t="str">
+        <f t="shared" si="26"/>
+        <v>process_code</v>
+      </c>
+      <c r="T71" s="24">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="24" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
+      <c r="V71" s="24" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
     </row>
     <row r="72" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="I72" s="3">
+        <v>1</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -16706,29 +16981,296 @@
       <c r="N72" s="3"/>
       <c r="P72" s="15" t="str">
         <f t="shared" si="24"/>
+        <v>担当者コード:worker_code(FK)</v>
+      </c>
+      <c r="R72" s="24" t="str">
+        <f t="shared" si="25"/>
+        <v>担当者コード</v>
+      </c>
+      <c r="S72" s="24" t="str">
+        <f t="shared" si="26"/>
+        <v>worker_code</v>
+      </c>
+      <c r="T72" s="24">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="24" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="V72" s="24" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+    </row>
+    <row r="73" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="3"/>
+      <c r="P73" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="3"/>
+      <c r="P74" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76" t="str">
+        <f>_xlfn.XLOOKUP(C76,テーブル一覧[No],テーブル一覧[論理名])</f>
+        <v>採番テーブル</v>
+      </c>
+      <c r="E76" t="str">
+        <f>_xlfn.XLOOKUP($C76,テーブル一覧[No],テーブル一覧[物理名])</f>
+        <v>tmp_numbering_tbl</v>
+      </c>
+      <c r="P76" s="14" t="str">
+        <f>"■"&amp;D76&amp;":"&amp;E76</f>
+        <v>■採番テーブル:tmp_numbering_tbl</v>
+      </c>
+    </row>
+    <row r="77" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D77" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L77" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P77" s="14"/>
+    </row>
+    <row r="78" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D78" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="3"/>
+      <c r="P78" s="15" t="str">
+        <f t="shared" ref="P78:P82" si="30">IF(E78="","",D78&amp;":"&amp;E78&amp;IF(F78=1,"(PK)","")&amp;IF(I78=1,"(FK)",""))</f>
+        <v>採番項目:numbering_item(PK)</v>
+      </c>
+      <c r="R78" s="24" t="str">
+        <f t="shared" ref="R78:R79" si="31">D78</f>
+        <v>採番項目</v>
+      </c>
+      <c r="S78" s="24" t="str">
+        <f>E78</f>
+        <v>numbering_item</v>
+      </c>
+      <c r="T78" s="24">
+        <f>L78</f>
+        <v>0</v>
+      </c>
+      <c r="U78" s="24" t="str">
+        <f>IF(G78=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V78" s="24">
+        <f>IF(F78="","",F78)</f>
+        <v>1</v>
+      </c>
+      <c r="W78" s="24"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+    </row>
+    <row r="79" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D79" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="3"/>
+      <c r="P79" s="15" t="str">
+        <f t="shared" si="30"/>
+        <v>最終発行番号:last_insert_id</v>
+      </c>
+      <c r="R79" s="24" t="str">
+        <f t="shared" si="31"/>
+        <v>最終発行番号</v>
+      </c>
+      <c r="S79" s="24" t="str">
+        <f>E79</f>
+        <v>last_insert_id</v>
+      </c>
+      <c r="T79" s="24">
+        <f>L79</f>
+        <v>0</v>
+      </c>
+      <c r="U79" s="24" t="str">
+        <f>IF(G79=1,"NOT NULL","")</f>
+        <v>NOT NULL</v>
+      </c>
+      <c r="V79" s="24" t="str">
+        <f>IF(F79="","",F79)</f>
+        <v/>
+      </c>
+      <c r="W79" s="24"/>
+      <c r="X79" s="24"/>
+      <c r="Y79" s="24"/>
+      <c r="Z79" s="24"/>
+    </row>
+    <row r="80" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="3"/>
+      <c r="P80" s="15" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="3"/>
+      <c r="P81" s="15" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="3"/>
+      <c r="P82" s="15" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P37:P41 P21:P25 P45:P49">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P64">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P68:P72">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P68)))</formula>
+  <conditionalFormatting sqref="P78:P82">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:P33">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P68:P74">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7BA4E7-7B69-4051-B851-585956770AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEAAA99-8BF6-4480-B6E0-6AA2A31C4AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="282">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -555,13 +555,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>型</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1883,10 +1876,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>task_dead_line</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1898,10 +1887,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスク一覧、DataGrid自動更新</t>
     <rPh sb="3" eb="5">
       <t>イチラン</t>
@@ -1912,6 +1897,29 @@
     <rPh sb="16" eb="18">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C#型</t>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample007View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクアイテム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13027,7 +13035,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18511"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18520"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13092,7 +13100,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18512"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18521"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13157,7 +13165,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18513"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18522"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13623,7 +13631,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -13631,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -13639,7 +13647,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -13647,7 +13655,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -13679,7 +13687,7 @@
   <dimension ref="B1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -13689,27 +13697,27 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -13741,12 +13749,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -13754,10 +13762,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -13773,7 +13781,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -13792,22 +13800,22 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
         <v>125</v>
-      </c>
-      <c r="F11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" t="str">
         <f>$D$5&amp;".WPF"</f>
         <v>Template2.WPF</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -13816,7 +13824,7 @@
         <v>Template2.Infrastructure</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -13828,7 +13836,7 @@
         <v>Template2.Domain</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -13840,7 +13848,7 @@
         <v>Template2Test.Tests</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -13856,41 +13864,41 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
         <v>85</v>
-      </c>
-      <c r="E22" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E24" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E25" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -13922,12 +13930,12 @@
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.4">
       <c r="BE2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.4">
       <c r="BE3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.4">
@@ -13972,7 +13980,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -13980,7 +13988,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -14012,7 +14020,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
@@ -14136,7 +14144,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
@@ -14147,7 +14155,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -14162,7 +14170,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.4">
@@ -14187,12 +14195,12 @@
         <v>28</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.4">
@@ -14273,12 +14281,12 @@
         <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
@@ -14301,10 +14309,10 @@
         <v>32</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
@@ -14315,10 +14323,10 @@
         <v>32</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
@@ -14432,26 +14440,26 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
         <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -14459,75 +14467,75 @@
     </row>
     <row r="6" spans="1:6" ht="46.3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s">
         <v>120</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
         <v>150</v>
-      </c>
-      <c r="E9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -14546,8 +14554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -14569,12 +14577,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G2" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -14582,7 +14590,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>61</v>
@@ -14591,7 +14599,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>68</v>
@@ -14620,10 +14628,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D7&amp;"Model")</f>
@@ -14638,10 +14646,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D8&amp;"Model")</f>
@@ -14649,7 +14657,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -14658,10 +14666,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D9&amp;"Model")</f>
@@ -14669,7 +14677,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -14678,10 +14686,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E10" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D10&amp;"Model")</f>
@@ -14689,7 +14697,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -14698,10 +14706,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>244</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>245</v>
       </c>
       <c r="E11" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
@@ -14709,7 +14717,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -14718,10 +14726,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>208</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>209</v>
       </c>
       <c r="E12" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D12&amp;"Model")</f>
@@ -14729,7 +14737,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -14738,10 +14746,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D13&amp;"Model")</f>
@@ -14749,7 +14757,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -14758,10 +14766,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="E14" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D14&amp;"Model")</f>
@@ -14769,7 +14777,7 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -14778,10 +14786,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>260</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>261</v>
       </c>
       <c r="E15" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D15&amp;"Model")</f>
@@ -14789,7 +14797,7 @@
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -14798,18 +14806,18 @@
         <v>11</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E16" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D16&amp;"Model")</f>
-        <v>Sample006ViewModel</v>
+        <v>Sample007ViewModel</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -14955,26 +14963,26 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
         <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -14982,28 +14990,28 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -15012,22 +15020,22 @@
     </row>
     <row r="10" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" t="s">
         <v>161</v>
-      </c>
-      <c r="E12" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -15043,9 +15051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12:E12"/>
+      <selection pane="topRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -15054,7 +15062,9 @@
     <col min="3" max="3" width="4.4375" customWidth="1"/>
     <col min="4" max="4" width="22.3125" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="6.875" customWidth="1"/>
+    <col min="6" max="7" width="6.875" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.875" customWidth="1"/>
     <col min="12" max="12" width="19.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.4375" customWidth="1"/>
     <col min="14" max="14" width="35.8125" bestFit="1" customWidth="1"/>
@@ -15079,18 +15089,18 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N2" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -15112,7 +15122,7 @@
         <v>73</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
@@ -15124,10 +15134,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="47"/>
@@ -15140,10 +15150,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="50"/>
@@ -15156,10 +15166,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="50"/>
@@ -15172,10 +15182,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="50"/>
@@ -15188,10 +15198,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="50"/>
@@ -15204,10 +15214,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="50"/>
@@ -15220,13 +15230,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="G13" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
@@ -15259,13 +15269,13 @@
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
@@ -15294,25 +15304,25 @@
         <v>73</v>
       </c>
       <c r="T19" t="s">
+        <v>174</v>
+      </c>
+      <c r="U19" t="s">
         <v>175</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>176</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
         <v>177</v>
       </c>
-      <c r="W19" t="s">
+      <c r="Y19" t="s">
         <v>179</v>
       </c>
-      <c r="X19" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>180</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.4">
@@ -15323,13 +15333,13 @@
         <v>73</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>75</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>74</v>
@@ -15341,7 +15351,7 @@
         <v>77</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>78</v>
@@ -15353,10 +15363,10 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D21" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -15365,13 +15375,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="3"/>
@@ -15406,23 +15416,23 @@
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="3"/>
@@ -15534,13 +15544,13 @@
         <v>73</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>75</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>74</v>
@@ -15552,7 +15562,7 @@
         <v>77</v>
       </c>
       <c r="L28" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>78</v>
@@ -15564,10 +15574,10 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D29" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -15576,13 +15586,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="3"/>
@@ -15617,23 +15627,23 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D30" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3">
         <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
@@ -15745,13 +15755,13 @@
         <v>73</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>75</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>74</v>
@@ -15763,7 +15773,7 @@
         <v>77</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>78</v>
@@ -15775,10 +15785,10 @@
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D37" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -15787,13 +15797,13 @@
         <v>1</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="3"/>
@@ -15828,23 +15838,23 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D38" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="3"/>
@@ -15879,21 +15889,21 @@
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D39" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
@@ -15964,13 +15974,13 @@
         <v>73</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>75</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>74</v>
@@ -15982,7 +15992,7 @@
         <v>77</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>78</v>
@@ -15994,10 +16004,10 @@
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D45" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -16006,7 +16016,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -16048,10 +16058,10 @@
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="F46" s="3">
         <v>2</v>
@@ -16060,17 +16070,17 @@
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P46" s="15" t="str">
         <f t="shared" si="10"/>
@@ -16103,21 +16113,21 @@
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="3"/>
@@ -16212,13 +16222,13 @@
         <v>73</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>75</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>74</v>
@@ -16230,7 +16240,7 @@
         <v>77</v>
       </c>
       <c r="L52" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>78</v>
@@ -16242,10 +16252,10 @@
     </row>
     <row r="53" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D53" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -16254,7 +16264,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -16293,17 +16303,17 @@
     </row>
     <row r="54" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D54" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3">
         <v>1</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -16342,15 +16352,15 @@
     </row>
     <row r="55" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D55" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -16389,15 +16399,15 @@
     </row>
     <row r="56" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D56" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -16436,15 +16446,15 @@
     </row>
     <row r="57" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D57" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -16483,17 +16493,17 @@
     </row>
     <row r="58" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D58" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3">
         <v>1</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -16532,15 +16542,15 @@
     </row>
     <row r="59" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D59" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -16579,15 +16589,15 @@
     </row>
     <row r="60" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D60" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -16626,15 +16636,15 @@
     </row>
     <row r="61" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D61" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -16747,13 +16757,13 @@
         <v>73</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>75</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>74</v>
@@ -16765,7 +16775,7 @@
         <v>77</v>
       </c>
       <c r="L67" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>78</v>
@@ -16777,10 +16787,10 @@
     </row>
     <row r="68" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D68" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
@@ -16789,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -16828,14 +16838,16 @@
     </row>
     <row r="69" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D69" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -16844,15 +16856,15 @@
       <c r="N69" s="3"/>
       <c r="P69" s="15" t="str">
         <f t="shared" si="24"/>
-        <v>タスク:task</v>
+        <v>タスクアイテム:task_item</v>
       </c>
       <c r="R69" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>タスク</v>
+        <v>タスクアイテム</v>
       </c>
       <c r="S69" s="24" t="str">
         <f t="shared" si="26"/>
-        <v>task</v>
+        <v>task_item</v>
       </c>
       <c r="T69" s="24">
         <f t="shared" si="27"/>
@@ -16873,14 +16885,16 @@
     </row>
     <row r="70" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D70" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -16918,14 +16932,16 @@
     </row>
     <row r="71" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D71" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -16963,14 +16979,16 @@
     </row>
     <row r="72" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D72" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="I72" s="3">
         <v>1</v>
       </c>
@@ -17067,13 +17085,13 @@
         <v>73</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>75</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>74</v>
@@ -17085,7 +17103,7 @@
         <v>77</v>
       </c>
       <c r="L77" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>78</v>
@@ -17097,10 +17115,10 @@
     </row>
     <row r="78" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D78" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F78" s="3">
         <v>1</v>
@@ -17109,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -17148,17 +17166,17 @@
     </row>
     <row r="79" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D79" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3">
         <v>1</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -17296,17 +17314,17 @@
   <sheetData>
     <row r="1" spans="1:52" ht="19.3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ2" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="AZ3" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEAAA99-8BF6-4480-B6E0-6AA2A31C4AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A78E571-8E20-4852-B360-9AAE7538FA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
@@ -13035,7 +13035,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18520"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18526"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13100,7 +13100,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18521"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18527"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13165,7 +13165,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18522"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18528"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14555,7 +14555,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -15051,9 +15051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D70" sqref="D70"/>
+      <selection pane="topRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A78E571-8E20-4852-B360-9AAE7538FA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564F5F3-027D-4E51-9620-51CF5009A1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="285">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1605,16 +1605,6 @@
   </si>
   <si>
     <t>更新日:2023/01/22</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新日:2023/01/22</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
     </rPh>
@@ -1758,13 +1748,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新日:2023/02/05</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サンプル6画面</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -1876,10 +1859,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>task_dead_line</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスク期限</t>
     <rPh sb="3" eb="5">
       <t>キゲン</t>
@@ -1920,6 +1899,54 @@
   </si>
   <si>
     <t>タスクアイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル8画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample008View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV取り込み、ドラッグ＆ドロップでListViewを並び替え</t>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日:2023/02/19</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_deadline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日:2023/02/19</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2251,7 +2278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2390,23 +2417,26 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2414,56 +2444,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2603,6 +2583,56 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -13035,7 +13065,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18526"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18538"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13100,7 +13130,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18527"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18539"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13165,7 +13195,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18528"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18540"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13311,12 +13341,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="C6:E15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13697,7 +13727,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
@@ -13754,7 +13784,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -13988,7 +14018,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -14281,12 +14311,12 @@
         <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
@@ -14555,18 +14585,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.5625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="22.8125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="14" customWidth="1"/>
     <col min="4" max="4" width="32.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.6875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.75" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.75" style="14" customWidth="1"/>
-    <col min="7" max="7" width="31.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="37.625" style="14" customWidth="1"/>
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -14582,7 +14612,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G3" s="27" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -14657,7 +14687,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -14706,10 +14736,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>243</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>244</v>
       </c>
       <c r="E11" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D11&amp;"Model")</f>
@@ -14725,7 +14755,7 @@
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="52" t="s">
         <v>207</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -14737,7 +14767,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -14745,7 +14775,7 @@
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="52" t="s">
         <v>210</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -14757,7 +14787,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -14766,10 +14796,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>254</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>255</v>
       </c>
       <c r="E14" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D14&amp;"Model")</f>
@@ -14777,7 +14807,7 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -14786,10 +14816,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E15" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D15&amp;"Model")</f>
@@ -14797,7 +14827,7 @@
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -14806,10 +14836,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E16" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D16&amp;"Model")</f>
@@ -14817,7 +14847,7 @@
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -14825,14 +14855,20 @@
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>280</v>
+      </c>
       <c r="E17" s="20" t="str">
         <f>IF(テーブル3[[#This Row],[View]]="","",D17&amp;"Model")</f>
-        <v/>
+        <v>Sample008ViewModel</v>
       </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="G17" s="39" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="31">
@@ -15053,7 +15089,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H39" sqref="H39"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -15097,10 +15133,10 @@
         <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -15122,7 +15158,7 @@
         <v>73</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
@@ -15150,10 +15186,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="50"/>
@@ -15214,10 +15250,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="50"/>
@@ -15236,7 +15272,7 @@
         <v>231</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
@@ -15381,7 +15417,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="3"/>
@@ -15432,7 +15468,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="3"/>
@@ -15574,10 +15610,10 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D29" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -15592,7 +15628,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="3"/>
@@ -15627,10 +15663,10 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.4">
       <c r="D30" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3">
@@ -15643,7 +15679,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="3"/>
@@ -15803,7 +15839,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="3"/>
@@ -15854,7 +15890,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="3"/>
@@ -15889,10 +15925,10 @@
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D39" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -15903,7 +15939,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="3"/>
@@ -16399,10 +16435,10 @@
     </row>
     <row r="56" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D56" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -16787,10 +16823,10 @@
     </row>
     <row r="68" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D68" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
@@ -16838,10 +16874,10 @@
     </row>
     <row r="69" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D69" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -16885,15 +16921,15 @@
     </row>
     <row r="70" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D70" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
@@ -16903,7 +16939,7 @@
       <c r="N70" s="3"/>
       <c r="P70" s="15" t="str">
         <f t="shared" si="24"/>
-        <v>タスク期限:task_dead_line</v>
+        <v>タスク期限:task_deadline</v>
       </c>
       <c r="R70" s="24" t="str">
         <f t="shared" si="25"/>
@@ -16911,7 +16947,7 @@
       </c>
       <c r="S70" s="24" t="str">
         <f t="shared" si="26"/>
-        <v>task_dead_line</v>
+        <v>task_deadline</v>
       </c>
       <c r="T70" s="24">
         <f t="shared" si="27"/>
@@ -16932,10 +16968,10 @@
     </row>
     <row r="71" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -16979,7 +17015,7 @@
     </row>
     <row r="72" spans="3:26" x14ac:dyDescent="0.4">
       <c r="D72" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>161</v>
@@ -17267,27 +17303,27 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P37:P41 P21:P25 P45:P49">
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:P64">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P78:P82">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:P33">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P68:P74">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P68)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564F5F3-027D-4E51-9620-51CF5009A1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7E47C5-04FA-4D5B-BF52-158BD37656CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="288">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1946,6 +1946,27 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル9画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample009View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel取り込み</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13065,7 +13086,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18538"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18541"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13130,7 +13151,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18539"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18542"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13195,7 +13216,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18540"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18543"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14584,8 +14605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -14875,11 +14896,20 @@
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>13</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="20"/>
+      <c r="C18" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="20" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D18&amp;"Model")</f>
+        <v>Sample009ViewModel</v>
+      </c>
       <c r="F18" s="34"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="36" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="31">
@@ -15087,7 +15117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7E47C5-04FA-4D5B-BF52-158BD37656CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6754286C-5ED7-4B81-8F04-A6C177C9A902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
@@ -13086,7 +13086,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18541"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18547"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13151,7 +13151,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18542"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18548"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13216,7 +13216,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18543"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18549"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14605,9 +14605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6754286C-5ED7-4B81-8F04-A6C177C9A902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FB3BE-C0B5-4D2A-B599-44D8ED855476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="291">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1967,6 +1967,24 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル10画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample010View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python実行</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13086,7 +13104,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18547"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18550"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13151,7 +13169,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18548"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18551"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13216,7 +13234,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18549"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18552"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14605,7 +14623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
@@ -14914,11 +14934,20 @@
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>14</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="20" t="str">
+        <f>IF(テーブル3[[#This Row],[View]]="","",D19&amp;"Model")</f>
+        <v>Sample010ViewModel</v>
+      </c>
       <c r="F19" s="34"/>
-      <c r="G19" s="36"/>
+      <c r="G19" s="36" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="31">

--- a/Documents/01_詳細設計書（Template2）.xlsx
+++ b/Documents/01_詳細設計書（Template2）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-cs\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\template2-wpf-cs\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FB3BE-C0B5-4D2A-B599-44D8ED855476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1E67F-A95F-4562-800C-CFD7F2033BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22586" windowHeight="15840" tabRatio="860" activeTab="5" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19635" windowHeight="13875" tabRatio="860" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -2484,6 +2484,56 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2622,56 +2672,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3430,8 +3430,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4412136" y="495818"/>
-          <a:ext cx="709890" cy="108857"/>
+          <a:off x="4305681" y="485413"/>
+          <a:ext cx="693081" cy="108857"/>
           <a:chOff x="4361793" y="499241"/>
           <a:chExt cx="701941" cy="108857"/>
         </a:xfrm>
@@ -3617,8 +3617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5943423" y="495818"/>
-          <a:ext cx="709890" cy="108857"/>
+          <a:off x="5797746" y="485413"/>
+          <a:ext cx="693082" cy="108857"/>
           <a:chOff x="5874532" y="499241"/>
           <a:chExt cx="701941" cy="108857"/>
         </a:xfrm>
@@ -3992,8 +3992,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1912626" y="943944"/>
-          <a:ext cx="802195" cy="299412"/>
+          <a:off x="1867803" y="917531"/>
+          <a:ext cx="779782" cy="283404"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -4194,8 +4194,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="584249" y="3114930"/>
-          <a:ext cx="802195" cy="297689"/>
+          <a:off x="573043" y="3000470"/>
+          <a:ext cx="779783" cy="289685"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -4326,8 +4326,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2327366" y="3114930"/>
-          <a:ext cx="1023809" cy="297689"/>
+          <a:off x="2271337" y="3000470"/>
+          <a:ext cx="1001397" cy="289685"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -4527,8 +4527,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2327365" y="5257979"/>
-          <a:ext cx="1696162" cy="294956"/>
+          <a:off x="2271336" y="5055473"/>
+          <a:ext cx="1656942" cy="286953"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -5231,8 +5231,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3049020" y="3435519"/>
-          <a:ext cx="269002" cy="540628"/>
+          <a:off x="2976183" y="3305051"/>
+          <a:ext cx="263398" cy="524619"/>
           <a:chOff x="2990492" y="-1720499"/>
           <a:chExt cx="266041" cy="530785"/>
         </a:xfrm>
@@ -5355,8 +5355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3318021" y="3852389"/>
-          <a:ext cx="1649956" cy="299580"/>
+          <a:off x="3239580" y="3705912"/>
+          <a:ext cx="1605133" cy="291577"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -5686,8 +5686,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7407078" y="3244353"/>
-          <a:ext cx="801235" cy="296851"/>
+          <a:off x="7222182" y="3121889"/>
+          <a:ext cx="784425" cy="288847"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -5822,8 +5822,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8755807" y="3244353"/>
-          <a:ext cx="801235" cy="296851"/>
+          <a:off x="8537293" y="3121889"/>
+          <a:ext cx="784426" cy="288847"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -6022,8 +6022,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3367302" y="3152571"/>
-          <a:ext cx="3490624" cy="111418"/>
+          <a:off x="3283258" y="3038111"/>
+          <a:ext cx="3406580" cy="103414"/>
           <a:chOff x="5607786" y="499241"/>
           <a:chExt cx="3451303" cy="108857"/>
         </a:xfrm>
@@ -7298,8 +7298,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5502148" y="7088583"/>
-          <a:ext cx="1133336" cy="301306"/>
+          <a:off x="5367677" y="6814039"/>
+          <a:ext cx="1105322" cy="285298"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -7434,8 +7434,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7911709" y="6406143"/>
-          <a:ext cx="1163422" cy="348663"/>
+          <a:off x="7715606" y="6155612"/>
+          <a:ext cx="1135407" cy="340659"/>
           <a:chOff x="7633398" y="6328342"/>
           <a:chExt cx="1158620" cy="346102"/>
         </a:xfrm>
@@ -8030,8 +8030,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9484009" y="7092132"/>
-          <a:ext cx="801235" cy="299413"/>
+          <a:off x="9248686" y="6817588"/>
+          <a:ext cx="784426" cy="283405"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -8166,8 +8166,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7597578" y="7092132"/>
-          <a:ext cx="1093065" cy="299413"/>
+          <a:off x="7412682" y="6817588"/>
+          <a:ext cx="1065049" cy="283405"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -8371,8 +8371,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8730420" y="7171643"/>
-          <a:ext cx="738453" cy="111418"/>
+          <a:off x="8517508" y="6897099"/>
+          <a:ext cx="716042" cy="103414"/>
           <a:chOff x="5847126" y="499241"/>
           <a:chExt cx="729347" cy="108857"/>
         </a:xfrm>
@@ -8749,8 +8749,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4159614" y="8255943"/>
-          <a:ext cx="1093064" cy="296852"/>
+          <a:off x="4058761" y="7933375"/>
+          <a:ext cx="1065050" cy="288847"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -9076,8 +9076,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6357248" y="8829685"/>
-          <a:ext cx="1093063" cy="296852"/>
+          <a:off x="6200366" y="8483104"/>
+          <a:ext cx="1065049" cy="288847"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -9212,8 +9212,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6362691" y="9340992"/>
-          <a:ext cx="1093063" cy="299413"/>
+          <a:off x="6205809" y="8978403"/>
+          <a:ext cx="1065049" cy="283404"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -9344,8 +9344,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6357248" y="8261385"/>
-          <a:ext cx="1093063" cy="296852"/>
+          <a:off x="6200366" y="7938817"/>
+          <a:ext cx="1065049" cy="288847"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -10069,8 +10069,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11582711" y="2779468"/>
-          <a:ext cx="802195" cy="299413"/>
+          <a:off x="11296962" y="2681017"/>
+          <a:ext cx="779782" cy="283404"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -11411,8 +11411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="806822" y="8881461"/>
-          <a:ext cx="1093065" cy="299413"/>
+          <a:off x="790014" y="8534880"/>
+          <a:ext cx="1065050" cy="283405"/>
           <a:chOff x="2008226" y="934670"/>
           <a:chExt cx="792030" cy="292789"/>
         </a:xfrm>
@@ -12570,8 +12570,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2104563" y="3435520"/>
-          <a:ext cx="399707" cy="555083"/>
+          <a:off x="2054137" y="3305052"/>
+          <a:ext cx="388501" cy="539074"/>
           <a:chOff x="2764589" y="-1720499"/>
           <a:chExt cx="394819" cy="545113"/>
         </a:xfrm>
@@ -13104,7 +13104,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18550"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$43:$P$49" spid="_x0000_s18553"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13169,7 +13169,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18551"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$19:$P$22" spid="_x0000_s18554"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13234,7 +13234,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18552"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$35:$P$41" spid="_x0000_s18555"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13380,12 +13380,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}" name="テーブル一覧" displayName="テーブル一覧" ref="C6:E15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="C6:E15" xr:uid="{E587D9A6-2C5E-42B6-A806-F5C8A17DA70E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5C79310E-B0D6-4040-B77B-EB0540DE93E6}" name="No" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D7F06675-9636-4539-9A34-FE248BE48DA0}" name="論理名" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{967942C7-997D-45C9-B9E3-518EB32E96A6}" name="物理名" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13692,18 +13692,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.5625" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>3</v>
       </c>
@@ -13744,7 +13744,7 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13759,32 +13759,32 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.5625" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="22" t="s">
         <v>156</v>
       </c>
@@ -13803,33 +13803,33 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.5625" customWidth="1"/>
-    <col min="3" max="3" width="18.9375" customWidth="1"/>
-    <col min="4" max="4" width="26.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.9375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.94140625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.94140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G2" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G3" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>130</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>129</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D14" t="str">
         <f>$D$5&amp;".Infrastructure"</f>
         <v>Template2.Infrastructure</v>
@@ -13899,7 +13899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D15" t="str">
         <f>$D$5&amp;".Domain"</f>
         <v>Template2.Domain</v>
@@ -13911,7 +13911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D16" t="str">
         <f>$D$5&amp;"Test.Tests"</f>
         <v>Template2Test.Tests</v>
@@ -13923,7 +13923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>83</v>
       </c>
@@ -13942,12 +13942,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
         <v>84</v>
       </c>
@@ -13955,17 +13955,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E24" s="18" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E25" s="18" t="s">
         <v>123</v>
       </c>
@@ -13987,27 +13987,27 @@
       <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.5546875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.5625" customWidth="1"/>
+    <col min="1" max="2" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:57" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.45">
       <c r="BE2" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.45">
       <c r="BE3" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -14015,7 +14015,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="63" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="62" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -14031,28 +14031,28 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.5625" customWidth="1"/>
-    <col min="3" max="3" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.6875" customWidth="1"/>
-    <col min="7" max="7" width="18.1875" customWidth="1"/>
-    <col min="8" max="8" width="80.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="80.38671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="H2" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>18</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.45">
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
         <v>28</v>
@@ -14106,7 +14106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
         <v>28</v>
@@ -14132,7 +14132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -14146,7 +14146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
@@ -14160,7 +14160,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>28</v>
@@ -14174,7 +14174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
         <v>28</v>
@@ -14188,7 +14188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
         <v>28</v>
@@ -14202,7 +14202,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
         <v>28</v>
@@ -14216,7 +14216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
@@ -14228,7 +14228,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:8" ht="30" x14ac:dyDescent="0.45">
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>32</v>
@@ -14242,7 +14242,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>32</v>
@@ -14256,7 +14256,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -14286,7 +14286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
         <v>28</v>
@@ -14300,7 +14300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -14314,7 +14314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>32</v>
@@ -14328,7 +14328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
         <v>28</v>
@@ -14358,7 +14358,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
         <v>28</v>
@@ -14370,7 +14370,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
@@ -14384,7 +14384,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
@@ -14398,7 +14398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
         <v>28</v>
@@ -14412,7 +14412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -14424,7 +14424,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
         <v>28</v>
@@ -14438,7 +14438,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:8" ht="30" x14ac:dyDescent="0.45">
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
         <v>32</v>
@@ -14452,7 +14452,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="17.149999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
         <v>28</v>
@@ -14497,27 +14497,27 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.5625" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="37.0625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.1875" customWidth="1"/>
-    <col min="5" max="5" width="29.4375" customWidth="1"/>
-    <col min="6" max="6" width="51.3125" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.0546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F2" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>105</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>108</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>95</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>95</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>95</v>
       </c>
@@ -14623,38 +14623,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB53AB-52CF-48D9-9AEA-9B9ACC59727B}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.5625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="4.5625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="14" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="14" customWidth="1"/>
-    <col min="4" max="4" width="32.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" style="14" customWidth="1"/>
-    <col min="7" max="7" width="37.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="32.71875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.71875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.71875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="37.609375" style="14" customWidth="1"/>
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G2" s="27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G3" s="27" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
         <v>67</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>1</v>
@@ -14691,7 +14691,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>2</v>
@@ -14709,7 +14709,7 @@
       <c r="F7" s="34"/>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>3</v>
@@ -14729,7 +14729,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>4</v>
@@ -14749,7 +14749,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>5</v>
@@ -14769,7 +14769,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>6</v>
@@ -14789,7 +14789,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>7</v>
@@ -14809,7 +14809,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>8</v>
@@ -14829,7 +14829,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>9</v>
@@ -14849,7 +14849,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>10</v>
@@ -14869,7 +14869,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>11</v>
@@ -14889,7 +14889,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>12</v>
@@ -14909,7 +14909,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>13</v>
@@ -14929,7 +14929,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>14</v>
@@ -14949,7 +14949,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>15</v>
@@ -14960,7 +14960,7 @@
       <c r="F20" s="34"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>16</v>
@@ -14971,7 +14971,7 @@
       <c r="F21" s="34"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>17</v>
@@ -14982,7 +14982,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>18</v>
@@ -14993,7 +14993,7 @@
       <c r="F23" s="34"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>19</v>
@@ -15004,7 +15004,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="31">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>20</v>
@@ -15015,7 +15015,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="40">
         <f>ROW(テーブル3[[#This Row],[No]])-5</f>
         <v>21</v>
@@ -15044,27 +15044,27 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.5625" customWidth="1"/>
-    <col min="2" max="2" width="12.0625" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="47.9375" customWidth="1"/>
-    <col min="5" max="5" width="25.3125" customWidth="1"/>
-    <col min="6" max="6" width="47.6875" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.0546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.94140625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F2" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>105</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>141</v>
       </c>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D7" s="10" t="s">
         <v>142</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D8" s="10" t="s">
         <v>144</v>
       </c>
@@ -15107,11 +15107,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="30.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>138</v>
       </c>
@@ -15120,7 +15120,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>139</v>
       </c>
@@ -15144,48 +15144,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R37" sqref="R37:Z39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.5625" customWidth="1"/>
-    <col min="3" max="3" width="4.4375" customWidth="1"/>
-    <col min="4" max="4" width="22.3125" customWidth="1"/>
+    <col min="1" max="2" width="2.5546875" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.875" customWidth="1"/>
+    <col min="6" max="7" width="6.88671875" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.875" customWidth="1"/>
-    <col min="12" max="12" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.4375" customWidth="1"/>
-    <col min="14" max="14" width="35.8125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5625" customWidth="1"/>
-    <col min="16" max="16" width="29.9375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5625" customWidth="1"/>
-    <col min="18" max="18" width="14.1875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.8125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.9375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.71875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.44140625" customWidth="1"/>
+    <col min="14" max="14" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" customWidth="1"/>
+    <col min="16" max="16" width="29.94140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.609375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.94140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.609375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="N2" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>191</v>
       </c>
@@ -15196,15 +15196,15 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C6" s="16" t="s">
         <v>67</v>
       </c>
@@ -15222,7 +15222,7 @@
       <c r="J6" s="44"/>
       <c r="K6" s="45"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -15238,7 +15238,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="48"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -15254,7 +15254,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="51"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -15270,7 +15270,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="51"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="J10" s="50"/>
       <c r="K10" s="51"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -15302,7 +15302,7 @@
       <c r="J11" s="50"/>
       <c r="K11" s="51"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -15318,7 +15318,7 @@
       <c r="J12" s="50"/>
       <c r="K12" s="51"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -15336,7 +15336,7 @@
       <c r="J13" s="50"/>
       <c r="K13" s="51"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="3">
         <v>8</v>
       </c>
@@ -15348,7 +15348,7 @@
       <c r="J14" s="50"/>
       <c r="K14" s="51"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="3">
         <v>9</v>
       </c>
@@ -15360,7 +15360,7 @@
       <c r="J15" s="50"/>
       <c r="K15" s="51"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.45">
       <c r="C19">
         <v>1</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D20" s="8" t="s">
         <v>72</v>
       </c>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D21" s="3" t="s">
         <v>164</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D22" s="3" t="s">
         <v>165</v>
       </c>
@@ -15558,7 +15558,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -15575,7 +15575,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -15592,7 +15592,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -15609,10 +15609,10 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.45">
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.45">
       <c r="C27">
         <v>2</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>■作業者グループマスタ:tmp_worker_group_mst</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D28" s="8" t="s">
         <v>72</v>
       </c>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D29" s="3" t="s">
         <v>248</v>
       </c>
@@ -15718,7 +15718,7 @@
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D30" s="3" t="s">
         <v>249</v>
       </c>
@@ -15769,7 +15769,7 @@
       <c r="Y30" s="24"/>
       <c r="Z30" s="24"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -15786,7 +15786,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.45">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -15803,7 +15803,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -15820,10 +15820,10 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:26" x14ac:dyDescent="0.45">
       <c r="P34" s="14"/>
     </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C35">
         <v>3</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>■作業者マスタ:tmp_worker_mst</v>
       </c>
     </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D36" s="8" t="s">
         <v>72</v>
       </c>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="P36" s="14"/>
     </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D37" s="3" t="s">
         <v>196</v>
       </c>
@@ -15929,7 +15929,7 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D38" s="3" t="s">
         <v>197</v>
       </c>
@@ -15980,7 +15980,7 @@
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
     </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D39" s="3" t="s">
         <v>248</v>
       </c>
@@ -16004,8 +16004,32 @@
         <f t="shared" si="7"/>
         <v>作業者グループコード:worker_group_code</v>
       </c>
-    </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="R39" s="24" t="str">
+        <f>D39</f>
+        <v>作業者グループコード</v>
+      </c>
+      <c r="S39" s="24" t="str">
+        <f>E39</f>
+        <v>worker_group_code</v>
+      </c>
+      <c r="T39" s="24" t="str">
+        <f>L39</f>
+        <v>VARCHAR2(20 CHAR)</v>
+      </c>
+      <c r="U39" s="24" t="str">
+        <f t="shared" ref="U39" si="10">IF(G39=1,"NOT NULL","")</f>
+        <v/>
+      </c>
+      <c r="V39" s="24" t="str">
+        <f t="shared" ref="V39" si="11">IF(F39="","",F39)</f>
+        <v/>
+      </c>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+    </row>
+    <row r="40" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -16022,7 +16046,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -16039,10 +16063,10 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:26" x14ac:dyDescent="0.45">
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C43">
         <v>4</v>
       </c>
@@ -16059,7 +16083,7 @@
         <v>■勤務予定マスタ:tmp_working_time_plan_mst</v>
       </c>
     </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D44" s="8" t="s">
         <v>72</v>
       </c>
@@ -16095,7 +16119,7 @@
       </c>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D45" s="3" t="s">
         <v>182</v>
       </c>
@@ -16121,11 +16145,11 @@
       <c r="M45" s="9"/>
       <c r="N45" s="3"/>
       <c r="P45" s="15" t="str">
-        <f t="shared" ref="P45:P49" si="10">IF(E45="","",D45&amp;":"&amp;E45&amp;IF(F45=1,"(PK)","")&amp;IF(I45=1,"(FK)",""))</f>
+        <f t="shared" ref="P45:P49" si="12">IF(E45="","",D45&amp;":"&amp;E45&amp;IF(F45=1,"(PK)","")&amp;IF(I45=1,"(FK)",""))</f>
         <v>作業者コード:worker_code(PK)</v>
       </c>
       <c r="R45" s="24" t="str">
-        <f t="shared" ref="R45:R47" si="11">D45</f>
+        <f t="shared" ref="R45:R47" si="13">D45</f>
         <v>作業者コード</v>
       </c>
       <c r="S45" s="24" t="str">
@@ -16149,7 +16173,7 @@
       <c r="Y45" s="24"/>
       <c r="Z45" s="24"/>
     </row>
-    <row r="46" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D46" s="3" t="s">
         <v>183</v>
       </c>
@@ -16176,11 +16200,11 @@
         <v>185</v>
       </c>
       <c r="P46" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>曜日番号:weekday</v>
       </c>
       <c r="R46" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>曜日番号</v>
       </c>
       <c r="S46" s="24" t="str">
@@ -16204,7 +16228,7 @@
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
     </row>
-    <row r="47" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D47" s="3" t="s">
         <v>186</v>
       </c>
@@ -16225,11 +16249,11 @@
       <c r="M47" s="9"/>
       <c r="N47" s="3"/>
       <c r="P47" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>勤務時間:working_time</v>
       </c>
       <c r="R47" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>勤務時間</v>
       </c>
       <c r="S47" s="24" t="str">
@@ -16253,7 +16277,7 @@
       <c r="Y47" s="24"/>
       <c r="Z47" s="24"/>
     </row>
-    <row r="48" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -16266,11 +16290,11 @@
       <c r="M48" s="9"/>
       <c r="N48" s="3"/>
       <c r="P48" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -16283,14 +16307,14 @@
       <c r="M49" s="9"/>
       <c r="N49" s="3"/>
       <c r="P49" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.45">
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C51">
         <v>5</v>
       </c>
@@ -16307,7 +16331,7 @@
         <v>■ページマスタ:tmp_page_mst</v>
       </c>
     </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D52" s="8" t="s">
         <v>72</v>
       </c>
@@ -16343,7 +16367,7 @@
       </c>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D53" s="3" t="s">
         <v>213</v>
       </c>
@@ -16366,27 +16390,27 @@
       <c r="M53" s="9"/>
       <c r="N53" s="3"/>
       <c r="P53" s="15" t="str">
-        <f t="shared" ref="P53:P64" si="12">IF(E53="","",D53&amp;":"&amp;E53&amp;IF(F53=1,"(PK)","")&amp;IF(I53=1,"(FK)",""))</f>
+        <f t="shared" ref="P53:P64" si="14">IF(E53="","",D53&amp;":"&amp;E53&amp;IF(F53=1,"(PK)","")&amp;IF(I53=1,"(FK)",""))</f>
         <v>ページID:page_id(PK)</v>
       </c>
       <c r="R53" s="24" t="str">
-        <f t="shared" ref="R53:R55" si="13">D53</f>
+        <f t="shared" ref="R53:R55" si="15">D53</f>
         <v>ページID</v>
       </c>
       <c r="S53" s="24" t="str">
-        <f t="shared" ref="S53:S55" si="14">E53</f>
+        <f t="shared" ref="S53:S55" si="16">E53</f>
         <v>page_id</v>
       </c>
       <c r="T53" s="24">
-        <f t="shared" ref="T53:T55" si="15">L53</f>
+        <f t="shared" ref="T53:T55" si="17">L53</f>
         <v>0</v>
       </c>
       <c r="U53" s="24" t="str">
-        <f t="shared" ref="U53:U55" si="16">IF(G53=1,"NOT NULL","")</f>
+        <f t="shared" ref="U53:U55" si="18">IF(G53=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
       <c r="V53" s="24">
-        <f t="shared" ref="V53:V55" si="17">IF(F53="","",F53)</f>
+        <f t="shared" ref="V53:V55" si="19">IF(F53="","",F53)</f>
         <v>1</v>
       </c>
       <c r="W53" s="24"/>
@@ -16394,7 +16418,7 @@
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
     </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D54" s="3" t="s">
         <v>215</v>
       </c>
@@ -16415,27 +16439,27 @@
       <c r="M54" s="9"/>
       <c r="N54" s="3"/>
       <c r="P54" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>ページ名称:page_name</v>
       </c>
       <c r="R54" s="24" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>ページ名称</v>
       </c>
       <c r="S54" s="24" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>page_name</v>
       </c>
       <c r="T54" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U54" s="24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>NOT NULL</v>
       </c>
       <c r="V54" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W54" s="24"/>
@@ -16443,7 +16467,7 @@
       <c r="Y54" s="24"/>
       <c r="Z54" s="24"/>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D55" s="3" t="s">
         <v>217</v>
       </c>
@@ -16462,27 +16486,27 @@
       <c r="M55" s="9"/>
       <c r="N55" s="3"/>
       <c r="P55" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>動画リンク:movie_link</v>
       </c>
       <c r="R55" s="24" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>動画リンク</v>
       </c>
       <c r="S55" s="24" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>movie_link</v>
       </c>
       <c r="T55" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U55" s="24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V55" s="24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W55" s="24"/>
@@ -16490,7 +16514,7 @@
       <c r="Y55" s="24"/>
       <c r="Z55" s="24"/>
     </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D56" s="3" t="s">
         <v>244</v>
       </c>
@@ -16509,27 +16533,27 @@
       <c r="M56" s="9"/>
       <c r="N56" s="3"/>
       <c r="P56" s="15" t="str">
-        <f t="shared" ref="P56:P62" si="18">IF(E56="","",D56&amp;":"&amp;E56&amp;IF(F56=1,"(PK)","")&amp;IF(I56=1,"(FK)",""))</f>
+        <f t="shared" ref="P56:P62" si="20">IF(E56="","",D56&amp;":"&amp;E56&amp;IF(F56=1,"(PK)","")&amp;IF(I56=1,"(FK)",""))</f>
         <v>画像フォルダリンク:image_folder_link</v>
       </c>
       <c r="R56" s="24" t="str">
-        <f t="shared" ref="R56:R61" si="19">D56</f>
+        <f t="shared" ref="R56:R61" si="21">D56</f>
         <v>画像フォルダリンク</v>
       </c>
       <c r="S56" s="24" t="str">
-        <f t="shared" ref="S56:S61" si="20">E56</f>
+        <f t="shared" ref="S56:S61" si="22">E56</f>
         <v>image_folder_link</v>
       </c>
       <c r="T56" s="24">
-        <f t="shared" ref="T56:T61" si="21">L56</f>
+        <f t="shared" ref="T56:T61" si="23">L56</f>
         <v>0</v>
       </c>
       <c r="U56" s="24" t="str">
-        <f t="shared" ref="U56:U61" si="22">IF(G56=1,"NOT NULL","")</f>
+        <f t="shared" ref="U56:U61" si="24">IF(G56=1,"NOT NULL","")</f>
         <v/>
       </c>
       <c r="V56" s="24" t="str">
-        <f t="shared" ref="V56:V61" si="23">IF(F56="","",F56)</f>
+        <f t="shared" ref="V56:V61" si="25">IF(F56="","",F56)</f>
         <v/>
       </c>
       <c r="W56" s="24"/>
@@ -16537,7 +16561,7 @@
       <c r="Y56" s="24"/>
       <c r="Z56" s="24"/>
     </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D57" s="3" t="s">
         <v>219</v>
       </c>
@@ -16556,27 +16580,27 @@
       <c r="M57" s="9"/>
       <c r="N57" s="3"/>
       <c r="P57" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>画像ページNo:image_page_no</v>
       </c>
       <c r="R57" s="24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>画像ページNo</v>
       </c>
       <c r="S57" s="24" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>image_page_no</v>
       </c>
       <c r="T57" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U57" s="24" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="V57" s="24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W57" s="24"/>
@@ -16584,7 +16608,7 @@
       <c r="Y57" s="24"/>
       <c r="Z57" s="24"/>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D58" s="3" t="s">
         <v>221</v>
       </c>
@@ -16605,27 +16629,27 @@
       <c r="M58" s="9"/>
       <c r="N58" s="3"/>
       <c r="P58" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>スライド停止時間:slide_waiting_time</v>
       </c>
       <c r="R58" s="24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>スライド停止時間</v>
       </c>
       <c r="S58" s="24" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>slide_waiting_time</v>
       </c>
       <c r="T58" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U58" s="24" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>NOT NULL</v>
       </c>
       <c r="V58" s="24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W58" s="24"/>
@@ -16633,7 +16657,7 @@
       <c r="Y58" s="24"/>
       <c r="Z58" s="24"/>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D59" s="3" t="s">
         <v>223</v>
       </c>
@@ -16652,27 +16676,27 @@
       <c r="M59" s="9"/>
       <c r="N59" s="3"/>
       <c r="P59" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>説明1:note1</v>
       </c>
       <c r="R59" s="24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>説明1</v>
       </c>
       <c r="S59" s="24" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>note1</v>
       </c>
       <c r="T59" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U59" s="24" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="V59" s="24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W59" s="24"/>
@@ -16680,7 +16704,7 @@
       <c r="Y59" s="24"/>
       <c r="Z59" s="24"/>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D60" s="3" t="s">
         <v>225</v>
       </c>
@@ -16699,27 +16723,27 @@
       <c r="M60" s="9"/>
       <c r="N60" s="3"/>
       <c r="P60" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>説明2:note2</v>
       </c>
       <c r="R60" s="24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>説明2</v>
       </c>
       <c r="S60" s="24" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>note2</v>
       </c>
       <c r="T60" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U60" s="24" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="V60" s="24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W60" s="24"/>
@@ -16727,7 +16751,7 @@
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D61" s="3" t="s">
         <v>227</v>
       </c>
@@ -16746,27 +16770,27 @@
       <c r="M61" s="9"/>
       <c r="N61" s="3"/>
       <c r="P61" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>説明3:note3</v>
       </c>
       <c r="R61" s="24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>説明3</v>
       </c>
       <c r="S61" s="24" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>note3</v>
       </c>
       <c r="T61" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U61" s="24" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="V61" s="24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W61" s="24"/>
@@ -16774,7 +16798,7 @@
       <c r="Y61" s="24"/>
       <c r="Z61" s="24"/>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -16787,11 +16811,11 @@
       <c r="M62" s="9"/>
       <c r="N62" s="3"/>
       <c r="P62" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -16804,11 +16828,11 @@
       <c r="M63" s="9"/>
       <c r="N63" s="3"/>
       <c r="P63" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -16821,11 +16845,11 @@
       <c r="M64" s="9"/>
       <c r="N64" s="3"/>
       <c r="P64" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C66">
         <v>6</v>
       </c>
@@ -16842,7 +16866,7 @@
         <v>■タスクマスタ:tmp_task_mst</v>
       </c>
     </row>
-    <row r="67" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D67" s="8" t="s">
         <v>72</v>
       </c>
@@ -16878,7 +16902,7 @@
       </c>
       <c r="P67" s="14"/>
     </row>
-    <row r="68" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D68" s="3" t="s">
         <v>267</v>
       </c>
@@ -16901,27 +16925,27 @@
       <c r="M68" s="9"/>
       <c r="N68" s="3"/>
       <c r="P68" s="15" t="str">
-        <f t="shared" ref="P68:P74" si="24">IF(E68="","",D68&amp;":"&amp;E68&amp;IF(F68=1,"(PK)","")&amp;IF(I68=1,"(FK)",""))</f>
+        <f t="shared" ref="P68:P74" si="26">IF(E68="","",D68&amp;":"&amp;E68&amp;IF(F68=1,"(PK)","")&amp;IF(I68=1,"(FK)",""))</f>
         <v>タスクID:task_id(PK)</v>
       </c>
       <c r="R68" s="24" t="str">
-        <f t="shared" ref="R68:R72" si="25">D68</f>
+        <f t="shared" ref="R68:R72" si="27">D68</f>
         <v>タスクID</v>
       </c>
       <c r="S68" s="24" t="str">
-        <f t="shared" ref="S68:S72" si="26">E68</f>
+        <f t="shared" ref="S68:S72" si="28">E68</f>
         <v>task_id</v>
       </c>
       <c r="T68" s="24">
-        <f t="shared" ref="T68:T72" si="27">L68</f>
+        <f t="shared" ref="T68:T72" si="29">L68</f>
         <v>0</v>
       </c>
       <c r="U68" s="24" t="str">
-        <f t="shared" ref="U68:U72" si="28">IF(G68=1,"NOT NULL","")</f>
+        <f t="shared" ref="U68:U72" si="30">IF(G68=1,"NOT NULL","")</f>
         <v>NOT NULL</v>
       </c>
       <c r="V68" s="24">
-        <f t="shared" ref="V68:V72" si="29">IF(F68="","",F68)</f>
+        <f t="shared" ref="V68:V72" si="31">IF(F68="","",F68)</f>
         <v>1</v>
       </c>
       <c r="W68" s="24"/>
@@ -16929,7 +16953,7 @@
       <c r="Y68" s="24"/>
       <c r="Z68" s="24"/>
     </row>
-    <row r="69" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D69" s="3" t="s">
         <v>278</v>
       </c>
@@ -16948,27 +16972,27 @@
       <c r="M69" s="9"/>
       <c r="N69" s="3"/>
       <c r="P69" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>タスクアイテム:task_item</v>
       </c>
       <c r="R69" s="24" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>タスクアイテム</v>
       </c>
       <c r="S69" s="24" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>task_item</v>
       </c>
       <c r="T69" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U69" s="24" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="V69" s="24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="W69" s="24"/>
@@ -16976,7 +17000,7 @@
       <c r="Y69" s="24"/>
       <c r="Z69" s="24"/>
     </row>
-    <row r="70" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D70" s="3" t="s">
         <v>272</v>
       </c>
@@ -16995,27 +17019,27 @@
       <c r="M70" s="9"/>
       <c r="N70" s="3"/>
       <c r="P70" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>タスク期限:task_deadline</v>
       </c>
       <c r="R70" s="24" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>タスク期限</v>
       </c>
       <c r="S70" s="24" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>task_deadline</v>
       </c>
       <c r="T70" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U70" s="24" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="V70" s="24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="W70" s="24"/>
@@ -17023,7 +17047,7 @@
       <c r="Y70" s="24"/>
       <c r="Z70" s="24"/>
     </row>
-    <row r="71" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="71" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D71" s="3" t="s">
         <v>269</v>
       </c>
@@ -17042,27 +17066,27 @@
       <c r="M71" s="9"/>
       <c r="N71" s="3"/>
       <c r="P71" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>工程コード:process_code</v>
       </c>
       <c r="R71" s="24" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>工程コード</v>
       </c>
       <c r="S71" s="24" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>process_code</v>
       </c>
       <c r="T71" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U71" s="24" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="V71" s="24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="W71" s="24"/>
@@ -17070,7 +17094,7 @@
       <c r="Y71" s="24"/>
       <c r="Z71" s="24"/>
     </row>
-    <row r="72" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="72" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D72" s="3" t="s">
         <v>270</v>
       </c>
@@ -17091,27 +17115,27 @@
       <c r="M72" s="9"/>
       <c r="N72" s="3"/>
       <c r="P72" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>担当者コード:worker_code(FK)</v>
       </c>
       <c r="R72" s="24" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>担当者コード</v>
       </c>
       <c r="S72" s="24" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>worker_code</v>
       </c>
       <c r="T72" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U72" s="24" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="V72" s="24" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="W72" s="24"/>
@@ -17119,7 +17143,7 @@
       <c r="Y72" s="24"/>
       <c r="Z72" s="24"/>
     </row>
-    <row r="73" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="73" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -17132,11 +17156,11 @@
       <c r="M73" s="9"/>
       <c r="N73" s="3"/>
       <c r="P73" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -17149,11 +17173,11 @@
       <c r="M74" s="9"/>
       <c r="N74" s="3"/>
       <c r="P74" s="15" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C76">
         <v>7</v>
       </c>
@@ -17170,7 +17194,7 @@
         <v>■採番テーブル:tmp_numbering_tbl</v>
       </c>
     </row>
-    <row r="77" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D77" s="8" t="s">
         <v>72</v>
       </c>
@@ -17206,7 +17230,7 @@
       </c>
       <c r="P77" s="14"/>
     </row>
-    <row r="78" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="78" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D78" s="3" t="s">
         <v>232</v>
       </c>
@@ -17229,11 +17253,11 @@
       <c r="M78" s="9"/>
       <c r="N78" s="3"/>
       <c r="P78" s="15" t="str">
-        <f t="shared" ref="P78:P82" si="30">IF(E78="","",D78&amp;":"&amp;E78&amp;IF(F78=1,"(PK)","")&amp;IF(I78=1,"(FK)",""))</f>
+        <f t="shared" ref="P78:P82" si="32">IF(E78="","",D78&amp;":"&amp;E78&amp;IF(F78=1,"(PK)","")&amp;IF(I78=1,"(FK)",""))</f>
         <v>採番項目:numbering_item(PK)</v>
       </c>
       <c r="R78" s="24" t="str">
-        <f t="shared" ref="R78:R79" si="31">D78</f>
+        <f t="shared" ref="R78:R79" si="33">D78</f>
         <v>採番項目</v>
       </c>
       <c r="S78" s="24" t="str">
@@ -17257,7 +17281,7 @@
       <c r="Y78" s="24"/>
       <c r="Z78" s="24"/>
     </row>
-    <row r="79" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D79" s="3" t="s">
         <v>233</v>
       </c>
@@ -17278,11 +17302,11 @@
       <c r="M79" s="9"/>
       <c r="N79" s="3"/>
       <c r="P79" s="15" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>最終発行番号:last_insert_id</v>
       </c>
       <c r="R79" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>最終発行番号</v>
       </c>
       <c r="S79" s="24" t="str">
@@ -17306,7 +17330,7 @@
       <c r="Y79" s="24"/>
       <c r="Z79" s="24"/>
     </row>
-    <row r="80" spans="3:26" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:26" x14ac:dyDescent="0.45">
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -17319,11 +17343,11 @@
       <c r="M80" s="9"/>
       <c r="N80" s="3"/>
       <c r="P80" s="15" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="81" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -17336,11 +17360,11 @@
       <c r="M81" s="9"/>
       <c r="N81" s="3"/>
       <c r="P81" s="15" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="4:16" x14ac:dyDescent="0.4">
+    <row r="82" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -17353,35 +17377,35 @@
       <c r="M82" s="9"/>
       <c r="N82" s="3"/>
       <c r="P82" s="15" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P37:P41 P21:P25 P45:P49">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="PK">
+  <conditionalFormatting sqref="P21:P25 P37:P41 P45:P49">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P21)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P29:P33">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P53:P64">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="PK">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PK">
       <formula>NOT(ISERROR(SEARCH("PK",P53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P78:P82">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P78)))</formula>
+  <conditionalFormatting sqref="P68:P74">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P29:P33">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P68:P74">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="PK">
-      <formula>NOT(ISERROR(SEARCH("PK",P68)))</formula>
+  <conditionalFormatting sqref="P78:P82">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="PK">
+      <formula>NOT(ISERROR(SEARCH("PK",P78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17400,22 +17424,22 @@
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.5546875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.5625" customWidth="1"/>
+    <col min="1" max="2" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="19.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:52" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
       <c r="AZ2" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
       <c r="AZ3" s="7" t="s">
         <v>152</v>
       </c>
